--- a/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\higgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C2312-5E71-4813-AE02-322A175616F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA889A-38BA-43C5-8F2C-91F1F2F39347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12960" yWindow="2088" windowWidth="17280" windowHeight="8964" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="higgs_10_8_GPU" sheetId="1" r:id="rId1"/>
-    <sheet name="higgs_500_8_GPU" sheetId="2" r:id="rId2"/>
-    <sheet name="higgs_1600_8_GPU" sheetId="3" r:id="rId3"/>
-    <sheet name="Final Paper results" sheetId="4" r:id="rId4"/>
+    <sheet name="10_trees" sheetId="1" r:id="rId1"/>
+    <sheet name="500_trees" sheetId="2" r:id="rId2"/>
+    <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
+    <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -141,6 +141,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3658,14 +3662,6 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -3674,14 +3670,6 @@
       <c r="B80">
         <v>10</v>
       </c>
-      <c r="K80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -3890,14 +3878,6 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="K86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -3906,14 +3886,6 @@
       <c r="B87">
         <v>10</v>
       </c>
-      <c r="K87">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -4147,11 +4119,11 @@
         <v>2300035.1150000002</v>
       </c>
       <c r="K93">
-        <f>SUM(H93,G93,E93)</f>
+        <f t="shared" ref="K93:K111" si="6">SUM(H93,G93,E93)</f>
         <v>2301680.6059099999</v>
       </c>
       <c r="L93">
-        <f>PRODUCT(K93,0.001)</f>
+        <f t="shared" ref="L93:L127" si="7">PRODUCT(K93,0.001)</f>
         <v>2301.6806059099999</v>
       </c>
     </row>
@@ -4187,11 +4159,11 @@
         <v>212720.5527</v>
       </c>
       <c r="K94">
-        <f>SUM(H94,G94,E94)</f>
+        <f t="shared" si="6"/>
         <v>214282.173178</v>
       </c>
       <c r="L94">
-        <f>PRODUCT(K94,0.001)</f>
+        <f t="shared" si="7"/>
         <v>214.28217317799999</v>
       </c>
     </row>
@@ -4227,11 +4199,11 @@
         <v>25449.657439999999</v>
       </c>
       <c r="K95">
-        <f>SUM(H95,G95,E95)</f>
+        <f t="shared" si="6"/>
         <v>27038.985732000001</v>
       </c>
       <c r="L95">
-        <f>PRODUCT(K95,0.001)</f>
+        <f t="shared" si="7"/>
         <v>27.038985732</v>
       </c>
     </row>
@@ -4267,11 +4239,11 @@
         <v>6972.0728399999998</v>
       </c>
       <c r="K96">
-        <f>SUM(H96,G96,E96)</f>
+        <f t="shared" si="6"/>
         <v>8536.054372999999</v>
       </c>
       <c r="L96">
-        <f>PRODUCT(K96,0.001)</f>
+        <f t="shared" si="7"/>
         <v>8.5360543729999989</v>
       </c>
     </row>
@@ -4307,11 +4279,11 @@
         <v>4983.2086559999998</v>
       </c>
       <c r="K97">
-        <f>SUM(H97,G97,E97)</f>
+        <f t="shared" si="6"/>
         <v>6603.8095952000003</v>
       </c>
       <c r="L97">
-        <f>PRODUCT(K97,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.6038095952000004</v>
       </c>
     </row>
@@ -4347,11 +4319,11 @@
         <v>4794.060469</v>
       </c>
       <c r="K98">
-        <f>SUM(H98,G98,E98)</f>
+        <f t="shared" si="6"/>
         <v>6370.6183432999997</v>
       </c>
       <c r="L98">
-        <f>PRODUCT(K98,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.3706183432999994</v>
       </c>
     </row>
@@ -4387,11 +4359,11 @@
         <v>4715.5094150000004</v>
       </c>
       <c r="K99">
-        <f>SUM(H99,G99,E99)</f>
+        <f t="shared" si="6"/>
         <v>6342.9629800000002</v>
       </c>
       <c r="L99">
-        <f>PRODUCT(K99,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.3429629800000003</v>
       </c>
     </row>
@@ -4427,11 +4399,11 @@
         <v>1280500.9920000001</v>
       </c>
       <c r="K100">
-        <f>SUM(H100,G100,E100)</f>
+        <f t="shared" si="6"/>
         <v>1282271.460367</v>
       </c>
       <c r="L100">
-        <f>PRODUCT(K100,0.001)</f>
+        <f t="shared" si="7"/>
         <v>1282.2714603669999</v>
       </c>
     </row>
@@ -4467,11 +4439,11 @@
         <v>137532.0914</v>
       </c>
       <c r="K101">
-        <f>SUM(H101,G101,E101)</f>
+        <f t="shared" si="6"/>
         <v>139300.518794</v>
       </c>
       <c r="L101">
-        <f>PRODUCT(K101,0.001)</f>
+        <f t="shared" si="7"/>
         <v>139.300518794</v>
       </c>
     </row>
@@ -4507,11 +4479,11 @@
         <v>22567.996500000001</v>
       </c>
       <c r="K102">
-        <f>SUM(H102,G102,E102)</f>
+        <f t="shared" si="6"/>
         <v>24307.734256</v>
       </c>
       <c r="L102">
-        <f>PRODUCT(K102,0.001)</f>
+        <f t="shared" si="7"/>
         <v>24.307734256</v>
       </c>
     </row>
@@ -4547,11 +4519,11 @@
         <v>6831.4285280000004</v>
       </c>
       <c r="K103">
-        <f>SUM(H103,G103,E103)</f>
+        <f t="shared" si="6"/>
         <v>8569.636344999999</v>
       </c>
       <c r="L103">
-        <f>PRODUCT(K103,0.001)</f>
+        <f t="shared" si="7"/>
         <v>8.5696363449999993</v>
       </c>
     </row>
@@ -4587,11 +4559,11 @@
         <v>5573.5557079999999</v>
       </c>
       <c r="K104">
-        <f>SUM(H104,G104,E104)</f>
+        <f t="shared" si="6"/>
         <v>7324.6850959999992</v>
       </c>
       <c r="L104">
-        <f>PRODUCT(K104,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.3246850959999996</v>
       </c>
     </row>
@@ -4627,11 +4599,11 @@
         <v>5596.435547</v>
       </c>
       <c r="K105">
-        <f>SUM(H105,G105,E105)</f>
+        <f t="shared" si="6"/>
         <v>7249.6931560000003</v>
       </c>
       <c r="L105">
-        <f>PRODUCT(K105,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.2496931560000002</v>
       </c>
     </row>
@@ -4667,11 +4639,11 @@
         <v>6127.1011829999998</v>
       </c>
       <c r="K106">
-        <f>SUM(H106,G106,E106)</f>
+        <f t="shared" si="6"/>
         <v>7167.3526760000004</v>
       </c>
       <c r="L106">
-        <f>PRODUCT(K106,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.1673526760000001</v>
       </c>
     </row>
@@ -4707,11 +4679,11 @@
         <v>107222.5554</v>
       </c>
       <c r="K107">
-        <f>SUM(H107,G107,E107)</f>
+        <f t="shared" si="6"/>
         <v>110775.064505</v>
       </c>
       <c r="L107">
-        <f>PRODUCT(K107,0.001)</f>
+        <f t="shared" si="7"/>
         <v>110.775064505</v>
       </c>
     </row>
@@ -4747,11 +4719,11 @@
         <v>19721.07387</v>
       </c>
       <c r="K108">
-        <f>SUM(H108,G108,E108)</f>
+        <f t="shared" si="6"/>
         <v>23308.330531</v>
       </c>
       <c r="L108">
-        <f>PRODUCT(K108,0.001)</f>
+        <f t="shared" si="7"/>
         <v>23.308330530999999</v>
       </c>
     </row>
@@ -4787,11 +4759,11 @@
         <v>5915.7001970000001</v>
       </c>
       <c r="K109">
-        <f>SUM(H109,G109,E109)</f>
+        <f t="shared" si="6"/>
         <v>9494.5847990000002</v>
       </c>
       <c r="L109">
-        <f>PRODUCT(K109,0.001)</f>
+        <f t="shared" si="7"/>
         <v>9.4945847990000001</v>
       </c>
     </row>
@@ -4827,11 +4799,11 @@
         <v>3933.0866339999998</v>
       </c>
       <c r="K110">
-        <f>SUM(H110,G110,E110)</f>
+        <f t="shared" si="6"/>
         <v>7486.1135489999997</v>
       </c>
       <c r="L110">
-        <f>PRODUCT(K110,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.4861135489999997</v>
       </c>
     </row>
@@ -4867,11 +4839,11 @@
         <v>3709.2885970000002</v>
       </c>
       <c r="K111">
-        <f>SUM(H111,G111,E111)</f>
+        <f t="shared" si="6"/>
         <v>7283.057213</v>
       </c>
       <c r="L111">
-        <f>PRODUCT(K111,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.2830572130000002</v>
       </c>
     </row>
@@ -4907,11 +4879,11 @@
         <v>3738.3356090000002</v>
       </c>
       <c r="K112">
-        <f t="shared" ref="K112:K127" si="6">SUM(H112,G112,E112)</f>
+        <f t="shared" ref="K112:K127" si="8">SUM(H112,G112,E112)</f>
         <v>7311.5293980000006</v>
       </c>
       <c r="L112">
-        <f>PRODUCT(K112,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.3115293980000011</v>
       </c>
     </row>
@@ -4947,11 +4919,11 @@
         <v>4102.4031640000003</v>
       </c>
       <c r="K113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7685.3516099999997</v>
       </c>
       <c r="L113">
-        <f>PRODUCT(K113,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.6853516099999997</v>
       </c>
     </row>
@@ -4987,11 +4959,11 @@
         <v>597956.77709999995</v>
       </c>
       <c r="K114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>597106.59457100008</v>
       </c>
       <c r="L114">
-        <f>PRODUCT(K114,0.001)</f>
+        <f t="shared" si="7"/>
         <v>597.10659457100007</v>
       </c>
     </row>
@@ -5027,11 +4999,11 @@
         <v>65366.665119999998</v>
       </c>
       <c r="K115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>64014.260050999997</v>
       </c>
       <c r="L115">
-        <f>PRODUCT(K115,0.001)</f>
+        <f t="shared" si="7"/>
         <v>64.014260050999994</v>
       </c>
     </row>
@@ -5067,11 +5039,11 @@
         <v>13748.37804</v>
       </c>
       <c r="K116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12476.638079</v>
       </c>
       <c r="L116">
-        <f>PRODUCT(K116,0.001)</f>
+        <f t="shared" si="7"/>
         <v>12.476638079000001</v>
       </c>
     </row>
@@ -5107,11 +5079,11 @@
         <v>16797.98126</v>
       </c>
       <c r="K117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7028.6846162000002</v>
       </c>
       <c r="L117">
-        <f>PRODUCT(K117,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.0286846162000005</v>
       </c>
     </row>
@@ -5147,11 +5119,11 @@
         <v>16220.546480000001</v>
       </c>
       <c r="K118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6433.2587719999992</v>
       </c>
       <c r="L118">
-        <f>PRODUCT(K118,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.4332587719999994</v>
       </c>
     </row>
@@ -5187,11 +5159,11 @@
         <v>14949.79405</v>
       </c>
       <c r="K119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6345.1008794999998</v>
       </c>
       <c r="L119">
-        <f>PRODUCT(K119,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.3451008795000003</v>
       </c>
     </row>
@@ -5227,11 +5199,11 @@
         <v>28548.825980000001</v>
       </c>
       <c r="K120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6355.3135395999998</v>
       </c>
       <c r="L120">
-        <f>PRODUCT(K120,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.3553135396</v>
       </c>
     </row>
@@ -5267,11 +5239,11 @@
         <v>902502.21660000004</v>
       </c>
       <c r="K121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>905044.84772579989</v>
       </c>
       <c r="L121">
-        <f>PRODUCT(K121,0.001)</f>
+        <f t="shared" si="7"/>
         <v>905.04484772579985</v>
       </c>
     </row>
@@ -5307,11 +5279,11 @@
         <v>113990.6323</v>
       </c>
       <c r="K122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>116462.1634853</v>
       </c>
       <c r="L122">
-        <f>PRODUCT(K122,0.001)</f>
+        <f t="shared" si="7"/>
         <v>116.4621634853</v>
       </c>
     </row>
@@ -5347,11 +5319,11 @@
         <v>14208.23216</v>
       </c>
       <c r="K123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16712.338684399998</v>
       </c>
       <c r="L123">
-        <f>PRODUCT(K123,0.001)</f>
+        <f t="shared" si="7"/>
         <v>16.712338684399999</v>
       </c>
     </row>
@@ -5387,11 +5359,11 @@
         <v>4651.6790389999996</v>
       </c>
       <c r="K124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7213.2391938999999</v>
       </c>
       <c r="L124">
-        <f>PRODUCT(K124,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.2132391938999998</v>
       </c>
     </row>
@@ -5427,11 +5399,11 @@
         <v>3833.3027360000001</v>
       </c>
       <c r="K125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6326.4319892999993</v>
       </c>
       <c r="L125">
-        <f>PRODUCT(K125,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.3264319892999996</v>
       </c>
     </row>
@@ -5467,11 +5439,11 @@
         <v>3725.7914540000002</v>
       </c>
       <c r="K126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6310.5320933999992</v>
       </c>
       <c r="L126">
-        <f>PRODUCT(K126,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.3105320933999991</v>
       </c>
     </row>
@@ -5507,11 +5479,11 @@
         <v>3878.4744740000001</v>
       </c>
       <c r="K127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6399.7800354999999</v>
       </c>
       <c r="L127">
-        <f>PRODUCT(K127,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.3997800355000001</v>
       </c>
     </row>
@@ -5573,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5864,14 +5836,6 @@
       <c r="A8">
         <v>2200000</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -6077,27 +6041,11 @@
       <c r="A14">
         <v>100000</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2200000</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -6623,14 +6571,6 @@
       <c r="A29">
         <v>2200000</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -7156,14 +7096,6 @@
       <c r="A43">
         <v>2200000</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -7369,27 +7301,11 @@
       <c r="A49">
         <v>100000</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2200000</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -7915,16 +7831,8 @@
       <c r="A64">
         <v>2200000</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7964,7 +7872,7 @@
         <v>1074.3781694414999</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>10</v>
       </c>
@@ -8004,7 +7912,7 @@
         <v>114.61161469230001</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>100</v>
       </c>
@@ -8044,7 +7952,7 @@
         <v>17.2999544175</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1000</v>
       </c>
@@ -8084,7 +7992,7 @@
         <v>8.3812668324999997</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>10000</v>
       </c>
@@ -8124,7 +8032,7 @@
         <v>6.4934320446000005</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>100000</v>
       </c>
@@ -8164,7 +8072,7 @@
         <v>6.4145376684999995</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2200000</v>
       </c>
@@ -8204,39 +8112,61 @@
         <v>6.4222459789000004</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="K72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>10</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>5071.9363689422598</v>
+      </c>
+      <c r="F73">
+        <v>118.12615394592299</v>
+      </c>
+      <c r="G73">
+        <v>3565551.2509345999</v>
+      </c>
+      <c r="H73">
+        <v>1182.97910690308</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3566736.17863655</v>
+      </c>
       <c r="K73">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(H73,G73,E73)</f>
+        <v>3571806.1664104452</v>
       </c>
       <c r="L73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <f>PRODUCT(K73,0.001)</f>
+        <v>3571.8061664104453</v>
+      </c>
+      <c r="M73" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>100</v>
       </c>
@@ -8247,36 +8177,42 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>5152.6095867156901</v>
+        <v>5072.0779895782498</v>
       </c>
       <c r="F74">
-        <v>251.17230415344201</v>
+        <v>119.750738143921</v>
       </c>
       <c r="G74">
-        <v>267463.25993537903</v>
+        <v>358105.57436943101</v>
       </c>
       <c r="H74">
-        <v>1085.09802818298</v>
+        <v>1213.50145339966</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>268549.559116363</v>
+        <v>359321.03562355001</v>
       </c>
       <c r="K74">
-        <f t="shared" si="4"/>
-        <v>273700.96755027771</v>
+        <f>SUM(H74,G74,E74)</f>
+        <v>364391.15381240891</v>
       </c>
       <c r="L74">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K74,0.001)</f>
+        <v>364.3911538124089</v>
+      </c>
+      <c r="M74">
         <v>273.70096755027771</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <v>268.24488329887322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1000</v>
       </c>
@@ -8287,36 +8223,42 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>5139.8005485534604</v>
+        <v>4997.0757961273202</v>
       </c>
       <c r="F75">
-        <v>255.021095275878</v>
+        <v>127.069473266602</v>
       </c>
       <c r="G75">
-        <v>28263.261556625301</v>
+        <v>37242.532491684004</v>
       </c>
       <c r="H75">
-        <v>1155.1785469055101</v>
+        <v>1088.6662006378201</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>29419.627428054799</v>
+        <v>38333.165407180801</v>
       </c>
       <c r="K75">
-        <f t="shared" si="4"/>
-        <v>34558.240652084271</v>
+        <f>SUM(H75,G75,E75)</f>
+        <v>43328.27448844914</v>
       </c>
       <c r="L75">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K75,0.001)</f>
+        <v>43.328274488449139</v>
+      </c>
+      <c r="M75">
         <v>34.558240652084272</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <v>34.213563919067319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10000</v>
       </c>
@@ -8327,36 +8269,42 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>5146.7146873474103</v>
+        <v>4991.4574623107901</v>
       </c>
       <c r="F76">
-        <v>252.33960151672301</v>
+        <v>121.769428253174</v>
       </c>
       <c r="G76">
-        <v>4856.0330867767298</v>
+        <v>6307.0311546325702</v>
       </c>
       <c r="H76">
-        <v>1211.5614414214999</v>
+        <v>1162.50681877136</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>6068.8333511352503</v>
+        <v>7471.4643955230704</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
-        <v>11214.30921554564</v>
+        <f>SUM(H76,G76,E76)</f>
+        <v>12460.995435714722</v>
       </c>
       <c r="L76">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K76,0.001)</f>
+        <v>12.460995435714722</v>
+      </c>
+      <c r="M76">
         <v>11.21430921554564</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <v>11.086391448974592</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>100000</v>
       </c>
@@ -8367,36 +8315,42 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>5135.5767250060999</v>
+        <v>4993.0937290191696</v>
       </c>
       <c r="F77">
-        <v>254.74405288696201</v>
+        <v>123.530626296997</v>
       </c>
       <c r="G77">
-        <v>2699.7301578521701</v>
+        <v>3263.3302211761502</v>
       </c>
       <c r="H77">
-        <v>1096.4927673339801</v>
+        <v>1214.1056060791</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>3797.4779605865401</v>
+        <v>4479.39133644104</v>
       </c>
       <c r="K77">
-        <f t="shared" si="4"/>
-        <v>8931.7996501922498</v>
+        <f>SUM(H77,G77,E77)</f>
+        <v>9470.5295562744195</v>
       </c>
       <c r="L77">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K77,0.001)</f>
+        <v>9.4705295562744194</v>
+      </c>
+      <c r="M77">
         <v>8.9317996501922501</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <v>8.9404599666595299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2200000</v>
       </c>
@@ -8407,68 +8361,58 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E78">
-        <v>5148.7290859222403</v>
+        <v>4998.14867973328</v>
       </c>
       <c r="F78">
-        <v>252.30526924133301</v>
+        <v>119.15898323059101</v>
       </c>
       <c r="G78">
-        <v>2761.5826129913298</v>
+        <v>3251.38258934021</v>
       </c>
       <c r="H78">
-        <v>1094.78664398193</v>
+        <v>1088.6418819427499</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>3857.59449005126</v>
+        <v>4341.99929237366</v>
       </c>
       <c r="K78">
-        <f t="shared" si="4"/>
-        <v>9005.0983428955005</v>
+        <f>SUM(H78,G78,E78)</f>
+        <v>9338.173151016239</v>
       </c>
       <c r="L78">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K78,0.001)</f>
+        <v>9.3381731510162389</v>
+      </c>
+      <c r="M78">
         <v>9.0050983428955007</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N78">
+        <v>8.8200173377990598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>10</v>
       </c>
       <c r="B80">
         <v>10</v>
       </c>
-      <c r="K80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>100</v>
       </c>
@@ -8479,36 +8423,36 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E81">
-        <v>5014.72926139831</v>
+        <v>5152.6095867156901</v>
       </c>
       <c r="F81">
-        <v>272.36151695251402</v>
+        <v>251.17230415344201</v>
       </c>
       <c r="G81">
-        <v>262117.567777633</v>
+        <v>267463.25993537903</v>
       </c>
       <c r="H81">
-        <v>1112.5862598419101</v>
+        <v>1085.09802818298</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>263232.18154907197</v>
+        <v>268549.559116363</v>
       </c>
       <c r="K81">
-        <f t="shared" si="4"/>
-        <v>268244.8832988732</v>
+        <f>SUM(H81,G81,E81)</f>
+        <v>273700.96755027771</v>
       </c>
       <c r="L81">
         <f>PRODUCT(K81,0.001)</f>
-        <v>268.24488329887322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+        <v>273.70096755027771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1000</v>
       </c>
@@ -8519,36 +8463,36 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82">
-        <v>5032.9747200012198</v>
+        <v>5139.8005485534604</v>
       </c>
       <c r="F82">
-        <v>244.99177932739201</v>
+        <v>255.021095275878</v>
       </c>
       <c r="G82">
-        <v>28002.283334732001</v>
+        <v>28263.261556625301</v>
       </c>
       <c r="H82">
-        <v>1178.3058643341001</v>
+        <v>1155.1785469055101</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>29182.560682296698</v>
+        <v>29419.627428054799</v>
       </c>
       <c r="K82">
-        <f t="shared" si="4"/>
-        <v>34213.563919067317</v>
+        <f>SUM(H82,G82,E82)</f>
+        <v>34558.240652084271</v>
       </c>
       <c r="L82">
-        <f t="shared" si="5"/>
-        <v>34.213563919067319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+        <f>PRODUCT(K82,0.001)</f>
+        <v>34.558240652084272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>10000</v>
       </c>
@@ -8559,36 +8503,36 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E83">
-        <v>5057.1162700653003</v>
+        <v>5146.7146873474103</v>
       </c>
       <c r="F83">
-        <v>246.70767784118601</v>
+        <v>252.33960151672301</v>
       </c>
       <c r="G83">
-        <v>4935.20092964172</v>
+        <v>4856.0330867767298</v>
       </c>
       <c r="H83">
-        <v>1094.0742492675699</v>
+        <v>1211.5614414214999</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>6031.3422679901096</v>
+        <v>6068.8333511352503</v>
       </c>
       <c r="K83">
-        <f t="shared" si="4"/>
-        <v>11086.391448974591</v>
+        <f>SUM(H83,G83,E83)</f>
+        <v>11214.30921554564</v>
       </c>
       <c r="L83">
-        <f t="shared" si="5"/>
-        <v>11.086391448974592</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+        <f>PRODUCT(K83,0.001)</f>
+        <v>11.21430921554564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>100000</v>
       </c>
@@ -8599,36 +8543,36 @@
         <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E84">
-        <v>5042.4563884735098</v>
+        <v>5135.5767250060999</v>
       </c>
       <c r="F84">
-        <v>249.47547912597599</v>
+        <v>254.74405288696201</v>
       </c>
       <c r="G84">
-        <v>2799.8900413513102</v>
+        <v>2699.7301578521701</v>
       </c>
       <c r="H84">
-        <v>1098.11353683471</v>
+        <v>1096.4927673339801</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3900.0315666198699</v>
+        <v>3797.4779605865401</v>
       </c>
       <c r="K84">
-        <f t="shared" si="4"/>
-        <v>8940.4599666595295</v>
+        <f>SUM(H84,G84,E84)</f>
+        <v>8931.7996501922498</v>
       </c>
       <c r="L84">
-        <f t="shared" si="5"/>
-        <v>8.9404599666595299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+        <f>PRODUCT(K84,0.001)</f>
+        <v>8.9317996501922501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2200000</v>
       </c>
@@ -8639,98 +8583,52 @@
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E85">
-        <v>5020.08032798767</v>
+        <v>5148.7290859222403</v>
       </c>
       <c r="F85">
-        <v>246.030569076538</v>
+        <v>252.30526924133301</v>
       </c>
       <c r="G85">
-        <v>2703.7572860717701</v>
+        <v>2761.5826129913298</v>
       </c>
       <c r="H85">
-        <v>1096.1797237396199</v>
+        <v>1094.78664398193</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>3801.95069313049</v>
+        <v>3857.59449005126</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
-        <v>8820.0173377990595</v>
+        <f>SUM(H85,G85,E85)</f>
+        <v>9005.0983428955005</v>
       </c>
       <c r="L85">
-        <f t="shared" si="5"/>
-        <v>8.8200173377990598</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+        <f>PRODUCT(K85,0.001)</f>
+        <v>9.0050983428955007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="K86">
-        <f>SUM(H86,G86,E86)</f>
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <f>PRODUCT(K86,0.001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>10</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87">
-        <v>5071.9363689422598</v>
-      </c>
-      <c r="F87">
-        <v>118.12615394592299</v>
-      </c>
-      <c r="G87">
-        <v>3565551.2509345999</v>
-      </c>
-      <c r="H87">
-        <v>1182.97910690308</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>3566736.17863655</v>
-      </c>
-      <c r="K87">
-        <f>SUM(H87,G87,E87)</f>
-        <v>3571806.1664104452</v>
-      </c>
-      <c r="L87">
-        <f>PRODUCT(K87,0.001)</f>
-        <v>3571.8061664104453</v>
-      </c>
-      <c r="M87" t="s">
-        <v>31</v>
-      </c>
-      <c r="N87">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>100</v>
       </c>
@@ -8741,42 +8639,36 @@
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E88">
-        <v>5072.0779895782498</v>
+        <v>5014.72926139831</v>
       </c>
       <c r="F88">
-        <v>119.750738143921</v>
+        <v>272.36151695251402</v>
       </c>
       <c r="G88">
-        <v>358105.57436943101</v>
+        <v>262117.567777633</v>
       </c>
       <c r="H88">
-        <v>1213.50145339966</v>
+        <v>1112.5862598419101</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>359321.03562355001</v>
+        <v>263232.18154907197</v>
       </c>
       <c r="K88">
         <f>SUM(H88,G88,E88)</f>
-        <v>364391.15381240891</v>
+        <v>268244.8832988732</v>
       </c>
       <c r="L88">
         <f>PRODUCT(K88,0.001)</f>
-        <v>364.3911538124089</v>
-      </c>
-      <c r="M88">
-        <v>273.70096755027771</v>
-      </c>
-      <c r="N88">
         <v>268.24488329887322</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1000</v>
       </c>
@@ -8787,42 +8679,36 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E89">
-        <v>4997.0757961273202</v>
+        <v>5032.9747200012198</v>
       </c>
       <c r="F89">
-        <v>127.069473266602</v>
+        <v>244.99177932739201</v>
       </c>
       <c r="G89">
-        <v>37242.532491684004</v>
+        <v>28002.283334732001</v>
       </c>
       <c r="H89">
-        <v>1088.6662006378201</v>
+        <v>1178.3058643341001</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>38333.165407180801</v>
+        <v>29182.560682296698</v>
       </c>
       <c r="K89">
         <f>SUM(H89,G89,E89)</f>
-        <v>43328.27448844914</v>
+        <v>34213.563919067317</v>
       </c>
       <c r="L89">
         <f>PRODUCT(K89,0.001)</f>
-        <v>43.328274488449139</v>
-      </c>
-      <c r="M89">
-        <v>34.558240652084272</v>
-      </c>
-      <c r="N89">
         <v>34.213563919067319</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>10000</v>
       </c>
@@ -8833,42 +8719,36 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E90">
-        <v>4991.4574623107901</v>
+        <v>5057.1162700653003</v>
       </c>
       <c r="F90">
-        <v>121.769428253174</v>
+        <v>246.70767784118601</v>
       </c>
       <c r="G90">
-        <v>6307.0311546325702</v>
+        <v>4935.20092964172</v>
       </c>
       <c r="H90">
-        <v>1162.50681877136</v>
+        <v>1094.0742492675699</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>7471.4643955230704</v>
+        <v>6031.3422679901096</v>
       </c>
       <c r="K90">
         <f>SUM(H90,G90,E90)</f>
-        <v>12460.995435714722</v>
+        <v>11086.391448974591</v>
       </c>
       <c r="L90">
         <f>PRODUCT(K90,0.001)</f>
-        <v>12.460995435714722</v>
-      </c>
-      <c r="M90">
-        <v>11.21430921554564</v>
-      </c>
-      <c r="N90">
         <v>11.086391448974592</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>100000</v>
       </c>
@@ -8879,42 +8759,36 @@
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E91">
-        <v>4993.0937290191696</v>
+        <v>5042.4563884735098</v>
       </c>
       <c r="F91">
-        <v>123.530626296997</v>
+        <v>249.47547912597599</v>
       </c>
       <c r="G91">
-        <v>3263.3302211761502</v>
+        <v>2799.8900413513102</v>
       </c>
       <c r="H91">
-        <v>1214.1056060791</v>
+        <v>1098.11353683471</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>4479.39133644104</v>
+        <v>3900.0315666198699</v>
       </c>
       <c r="K91">
         <f>SUM(H91,G91,E91)</f>
-        <v>9470.5295562744195</v>
+        <v>8940.4599666595295</v>
       </c>
       <c r="L91">
         <f>PRODUCT(K91,0.001)</f>
-        <v>9.4705295562744194</v>
-      </c>
-      <c r="M91">
-        <v>8.9317996501922501</v>
-      </c>
-      <c r="N91">
         <v>8.9404599666595299</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2200000</v>
       </c>
@@ -8925,42 +8799,36 @@
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E92">
-        <v>4998.14867973328</v>
+        <v>5020.08032798767</v>
       </c>
       <c r="F92">
-        <v>119.15898323059101</v>
+        <v>246.030569076538</v>
       </c>
       <c r="G92">
-        <v>3251.38258934021</v>
+        <v>2703.7572860717701</v>
       </c>
       <c r="H92">
-        <v>1088.6418819427499</v>
+        <v>1096.1797237396199</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>4341.99929237366</v>
+        <v>3801.95069313049</v>
       </c>
       <c r="K92">
         <f>SUM(H92,G92,E92)</f>
-        <v>9338.173151016239</v>
+        <v>8820.0173377990595</v>
       </c>
       <c r="L92">
         <f>PRODUCT(K92,0.001)</f>
-        <v>9.3381731510162389</v>
-      </c>
-      <c r="M92">
-        <v>9.0050983428955007</v>
-      </c>
-      <c r="N92">
         <v>8.8200173377990598</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -8992,15 +8860,15 @@
         <v>2041732.8829999999</v>
       </c>
       <c r="K93">
-        <f>SUM(H93,G93,E93)</f>
+        <f t="shared" ref="K93:K111" si="6">SUM(H93,G93,E93)</f>
         <v>2033401.888058</v>
       </c>
       <c r="L93">
-        <f>PRODUCT(K93,0.001)</f>
+        <f t="shared" ref="L93:L127" si="7">PRODUCT(K93,0.001)</f>
         <v>2033.4018880579999</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>10</v>
       </c>
@@ -9032,15 +8900,15 @@
         <v>223982.69149999999</v>
       </c>
       <c r="K94">
-        <f>SUM(H94,G94,E94)</f>
+        <f t="shared" si="6"/>
         <v>218522.71504499999</v>
       </c>
       <c r="L94">
-        <f>PRODUCT(K94,0.001)</f>
+        <f t="shared" si="7"/>
         <v>218.52271504499998</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>100</v>
       </c>
@@ -9072,15 +8940,15 @@
         <v>32912.001129999997</v>
       </c>
       <c r="K95">
-        <f>SUM(H95,G95,E95)</f>
+        <f t="shared" si="6"/>
         <v>27428.367851999999</v>
       </c>
       <c r="L95">
-        <f>PRODUCT(K95,0.001)</f>
+        <f t="shared" si="7"/>
         <v>27.428367852000001</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1000</v>
       </c>
@@ -9112,11 +8980,11 @@
         <v>16268.245940000001</v>
       </c>
       <c r="K96">
-        <f>SUM(H96,G96,E96)</f>
+        <f t="shared" si="6"/>
         <v>10849.403619000001</v>
       </c>
       <c r="L96">
-        <f>PRODUCT(K96,0.001)</f>
+        <f t="shared" si="7"/>
         <v>10.849403619</v>
       </c>
     </row>
@@ -9152,11 +9020,11 @@
         <v>15781.90041</v>
       </c>
       <c r="K97">
-        <f>SUM(H97,G97,E97)</f>
+        <f t="shared" si="6"/>
         <v>10359.729051999999</v>
       </c>
       <c r="L97">
-        <f>PRODUCT(K97,0.001)</f>
+        <f t="shared" si="7"/>
         <v>10.359729051999999</v>
       </c>
     </row>
@@ -9192,11 +9060,11 @@
         <v>15761.388059999999</v>
       </c>
       <c r="K98">
-        <f>SUM(H98,G98,E98)</f>
+        <f t="shared" si="6"/>
         <v>10415.970564000001</v>
       </c>
       <c r="L98">
-        <f>PRODUCT(K98,0.001)</f>
+        <f t="shared" si="7"/>
         <v>10.415970564000002</v>
       </c>
     </row>
@@ -9204,14 +9072,6 @@
       <c r="A99">
         <v>2200000</v>
       </c>
-      <c r="K99">
-        <f>SUM(H99,G99,E99)</f>
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <f>PRODUCT(K99,0.001)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -9245,11 +9105,11 @@
         <v>1353737.0789999999</v>
       </c>
       <c r="K100">
-        <f>SUM(H100,G100,E100)</f>
+        <f t="shared" si="6"/>
         <v>1348309.4857269998</v>
       </c>
       <c r="L100">
-        <f>PRODUCT(K100,0.001)</f>
+        <f t="shared" si="7"/>
         <v>1348.3094857269998</v>
       </c>
     </row>
@@ -9285,11 +9145,11 @@
         <v>151244.77929999999</v>
       </c>
       <c r="K101">
-        <f>SUM(H101,G101,E101)</f>
+        <f t="shared" si="6"/>
         <v>146000.67685600001</v>
       </c>
       <c r="L101">
-        <f>PRODUCT(K101,0.001)</f>
+        <f t="shared" si="7"/>
         <v>146.00067685600001</v>
       </c>
     </row>
@@ -9325,11 +9185,11 @@
         <v>26104.001049999999</v>
       </c>
       <c r="K102">
-        <f>SUM(H102,G102,E102)</f>
+        <f t="shared" si="6"/>
         <v>20841.285464000001</v>
       </c>
       <c r="L102">
-        <f>PRODUCT(K102,0.001)</f>
+        <f t="shared" si="7"/>
         <v>20.841285464000002</v>
       </c>
     </row>
@@ -9365,11 +9225,11 @@
         <v>15483.28161</v>
       </c>
       <c r="K103">
-        <f>SUM(H103,G103,E103)</f>
+        <f t="shared" si="6"/>
         <v>10221.475124000001</v>
       </c>
       <c r="L103">
-        <f>PRODUCT(K103,0.001)</f>
+        <f t="shared" si="7"/>
         <v>10.221475124000001</v>
       </c>
     </row>
@@ -9405,11 +9265,11 @@
         <v>15088.93585</v>
       </c>
       <c r="K104">
-        <f>SUM(H104,G104,E104)</f>
+        <f t="shared" si="6"/>
         <v>9762.5069619999995</v>
       </c>
       <c r="L104">
-        <f>PRODUCT(K104,0.001)</f>
+        <f t="shared" si="7"/>
         <v>9.7625069619999998</v>
       </c>
     </row>
@@ -9417,27 +9277,11 @@
       <c r="A105">
         <v>100000</v>
       </c>
-      <c r="K105">
-        <f>SUM(H105,G105,E105)</f>
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <f>PRODUCT(K105,0.001)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2200000</v>
       </c>
-      <c r="K106">
-        <f>SUM(H106,G106,E106)</f>
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <f>PRODUCT(K106,0.001)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -9471,11 +9315,11 @@
         <v>182151.77770000001</v>
       </c>
       <c r="K107">
-        <f>SUM(H107,G107,E107)</f>
+        <f t="shared" si="6"/>
         <v>179468.589771</v>
       </c>
       <c r="L107">
-        <f>PRODUCT(K107,0.001)</f>
+        <f t="shared" si="7"/>
         <v>179.46858977100001</v>
       </c>
     </row>
@@ -9511,11 +9355,11 @@
         <v>296531.67320000002</v>
       </c>
       <c r="K108">
-        <f>SUM(H108,G108,E108)</f>
+        <f t="shared" si="6"/>
         <v>296000.65997600002</v>
       </c>
       <c r="L108">
-        <f>PRODUCT(K108,0.001)</f>
+        <f t="shared" si="7"/>
         <v>296.00065997600001</v>
       </c>
     </row>
@@ -9551,11 +9395,11 @@
         <v>30457.030770000001</v>
       </c>
       <c r="K109">
-        <f>SUM(H109,G109,E109)</f>
+        <f t="shared" si="6"/>
         <v>29916.008707000001</v>
       </c>
       <c r="L109">
-        <f>PRODUCT(K109,0.001)</f>
+        <f t="shared" si="7"/>
         <v>29.916008707000003</v>
       </c>
     </row>
@@ -9591,11 +9435,11 @@
         <v>27012.124540000001</v>
       </c>
       <c r="K110">
-        <f>SUM(H110,G110,E110)</f>
+        <f t="shared" si="6"/>
         <v>26437.063934000002</v>
       </c>
       <c r="L110">
-        <f>PRODUCT(K110,0.001)</f>
+        <f t="shared" si="7"/>
         <v>26.437063934000001</v>
       </c>
     </row>
@@ -9631,11 +9475,11 @@
         <v>24129.776000000002</v>
       </c>
       <c r="K111">
-        <f>SUM(H111,G111,E111)</f>
+        <f t="shared" si="6"/>
         <v>23763.825658999998</v>
       </c>
       <c r="L111">
-        <f>PRODUCT(K111,0.001)</f>
+        <f t="shared" si="7"/>
         <v>23.763825658999998</v>
       </c>
     </row>
@@ -9671,11 +9515,11 @@
         <v>24798.740389999999</v>
       </c>
       <c r="K112">
-        <f t="shared" ref="K112:K127" si="6">SUM(H112,G112,E112)</f>
+        <f t="shared" ref="K112:K127" si="8">SUM(H112,G112,E112)</f>
         <v>24377.096885999999</v>
       </c>
       <c r="L112">
-        <f>PRODUCT(K112,0.001)</f>
+        <f t="shared" si="7"/>
         <v>24.377096886</v>
       </c>
     </row>
@@ -9711,11 +9555,11 @@
         <v>21376.916410000002</v>
       </c>
       <c r="K113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20944.317814000002</v>
       </c>
       <c r="L113">
-        <f>PRODUCT(K113,0.001)</f>
+        <f t="shared" si="7"/>
         <v>20.944317814000001</v>
       </c>
     </row>
@@ -9751,11 +9595,11 @@
         <v>595265.62089999998</v>
       </c>
       <c r="K114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>586378.40127099992</v>
       </c>
       <c r="L114">
-        <f>PRODUCT(K114,0.001)</f>
+        <f t="shared" si="7"/>
         <v>586.37840127099992</v>
       </c>
     </row>
@@ -9791,11 +9635,11 @@
         <v>82676.686530000006</v>
       </c>
       <c r="K115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65974.177601000003</v>
       </c>
       <c r="L115">
-        <f>PRODUCT(K115,0.001)</f>
+        <f t="shared" si="7"/>
         <v>65.974177601000008</v>
       </c>
     </row>
@@ -9831,11 +9675,11 @@
         <v>30390.121459999998</v>
       </c>
       <c r="K116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13679.381131999999</v>
       </c>
       <c r="L116">
-        <f>PRODUCT(K116,0.001)</f>
+        <f t="shared" si="7"/>
         <v>13.679381132</v>
       </c>
     </row>
@@ -9871,11 +9715,11 @@
         <v>22934.057710000001</v>
       </c>
       <c r="K117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7724.0257270000002</v>
       </c>
       <c r="L117">
-        <f>PRODUCT(K117,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.7240257270000008</v>
       </c>
     </row>
@@ -9911,11 +9755,11 @@
         <v>25006.521219999999</v>
       </c>
       <c r="K118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7292.925596</v>
       </c>
       <c r="L118">
-        <f>PRODUCT(K118,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.2929255959999999</v>
       </c>
     </row>
@@ -9951,11 +9795,11 @@
         <v>50304.579259999999</v>
       </c>
       <c r="K119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7171.4205734999996</v>
       </c>
       <c r="L119">
-        <f>PRODUCT(K119,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.1714205734999998</v>
       </c>
     </row>
@@ -9963,14 +9807,6 @@
       <c r="A120">
         <v>2200000</v>
       </c>
-      <c r="K120">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <f>PRODUCT(K120,0.001)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -10004,11 +9840,11 @@
         <v>912023.3665</v>
       </c>
       <c r="K121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>913220.07985490002</v>
       </c>
       <c r="L121">
-        <f>PRODUCT(K121,0.001)</f>
+        <f t="shared" si="7"/>
         <v>913.22007985490006</v>
       </c>
     </row>
@@ -10044,11 +9880,11 @@
         <v>111861.8639</v>
       </c>
       <c r="K122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>114339.35623210001</v>
       </c>
       <c r="L122">
-        <f>PRODUCT(K122,0.001)</f>
+        <f t="shared" si="7"/>
         <v>114.3393562321</v>
       </c>
     </row>
@@ -10084,11 +9920,11 @@
         <v>15442.16871</v>
       </c>
       <c r="K123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17851.552250299999</v>
       </c>
       <c r="L123">
-        <f>PRODUCT(K123,0.001)</f>
+        <f t="shared" si="7"/>
         <v>17.851552250299999</v>
       </c>
     </row>
@@ -10124,11 +9960,11 @@
         <v>5387.1972560000004</v>
       </c>
       <c r="K124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7812.3331063000005</v>
       </c>
       <c r="L124">
-        <f>PRODUCT(K124,0.001)</f>
+        <f t="shared" si="7"/>
         <v>7.8123331063000006</v>
       </c>
     </row>
@@ -10164,11 +10000,11 @@
         <v>4321.2533000000003</v>
       </c>
       <c r="K125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6733.9510915000001</v>
       </c>
       <c r="L125">
-        <f>PRODUCT(K125,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.7339510914999998</v>
       </c>
     </row>
@@ -10204,11 +10040,11 @@
         <v>4278.3284190000004</v>
       </c>
       <c r="K126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6633.7940693999999</v>
       </c>
       <c r="L126">
-        <f>PRODUCT(K126,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.6337940694000004</v>
       </c>
     </row>
@@ -10244,16 +10080,16 @@
         <v>4471.761227</v>
       </c>
       <c r="K127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6899.8439314999996</v>
       </c>
       <c r="L127">
-        <f>PRODUCT(K127,0.001)</f>
+        <f t="shared" si="7"/>
         <v>6.8998439314999995</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G88:G127 G2:G71">
+  <conditionalFormatting sqref="G74:G78 G93:G127 G2:G71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10265,7 +10101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
+  <conditionalFormatting sqref="G72">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10277,8 +10113,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G78 G93:G127">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K2:K127">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10290,19 +10138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L127">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G71 G86:G127">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10322,8 +10158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView topLeftCell="D106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L64" sqref="K64:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10616,14 +10452,6 @@
       <c r="B8">
         <v>2200000</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -10832,14 +10660,6 @@
       <c r="B14">
         <v>100000</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -10848,14 +10668,6 @@
       <c r="B15">
         <v>2200000</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -11384,14 +11196,6 @@
       <c r="B29">
         <v>2200000</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -11920,14 +11724,6 @@
       <c r="B43">
         <v>2200000</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -12136,14 +11932,6 @@
       <c r="B49">
         <v>100000</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -12152,14 +11940,6 @@
       <c r="B50">
         <v>2200000</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -12688,14 +12468,6 @@
       <c r="B64">
         <v>2200000</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -13300,14 +13072,6 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -13316,14 +13080,6 @@
       <c r="B80">
         <v>10</v>
       </c>
-      <c r="K80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -13532,14 +13288,6 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="K86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -13548,14 +13296,6 @@
       <c r="B87">
         <v>10</v>
       </c>
-      <c r="K87">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -13789,11 +13529,11 @@
         <v>2073278.2520000001</v>
       </c>
       <c r="K93">
-        <f>SUM(H93,G93,E93)</f>
+        <f t="shared" ref="K93:K111" si="6">SUM(H93,G93,E93)</f>
         <v>2049816.650986</v>
       </c>
       <c r="L93">
-        <f>PRODUCT(K93,0.001)</f>
+        <f t="shared" ref="L93:L127" si="7">PRODUCT(K93,0.001)</f>
         <v>2049.8166509859998</v>
       </c>
     </row>
@@ -13829,11 +13569,11 @@
         <v>232407.80230000001</v>
       </c>
       <c r="K94">
-        <f>SUM(H94,G94,E94)</f>
+        <f t="shared" si="6"/>
         <v>211696.68077700003</v>
       </c>
       <c r="L94">
-        <f>PRODUCT(K94,0.001)</f>
+        <f t="shared" si="7"/>
         <v>211.69668077700004</v>
       </c>
     </row>
@@ -13869,11 +13609,11 @@
         <v>48388.55171</v>
       </c>
       <c r="K95">
-        <f>SUM(H95,G95,E95)</f>
+        <f t="shared" si="6"/>
         <v>27741.438152999999</v>
       </c>
       <c r="L95">
-        <f>PRODUCT(K95,0.001)</f>
+        <f t="shared" si="7"/>
         <v>27.741438153000001</v>
       </c>
     </row>
@@ -13909,11 +13649,11 @@
         <v>39977.045539999999</v>
       </c>
       <c r="K96">
-        <f>SUM(H96,G96,E96)</f>
+        <f t="shared" si="6"/>
         <v>19413.097381</v>
       </c>
       <c r="L96">
-        <f>PRODUCT(K96,0.001)</f>
+        <f t="shared" si="7"/>
         <v>19.413097381</v>
       </c>
     </row>
@@ -13949,11 +13689,11 @@
         <v>39523.671869999998</v>
       </c>
       <c r="K97">
-        <f>SUM(H97,G97,E97)</f>
+        <f t="shared" si="6"/>
         <v>18897.471901999997</v>
       </c>
       <c r="L97">
-        <f>PRODUCT(K97,0.001)</f>
+        <f t="shared" si="7"/>
         <v>18.897471901999999</v>
       </c>
     </row>
@@ -13989,11 +13729,11 @@
         <v>39460.392</v>
       </c>
       <c r="K98">
-        <f>SUM(H98,G98,E98)</f>
+        <f t="shared" si="6"/>
         <v>18975.958103999998</v>
       </c>
       <c r="L98">
-        <f>PRODUCT(K98,0.001)</f>
+        <f t="shared" si="7"/>
         <v>18.975958103999996</v>
       </c>
     </row>
@@ -14004,14 +13744,6 @@
       <c r="B99">
         <v>2200000</v>
       </c>
-      <c r="K99">
-        <f>SUM(H99,G99,E99)</f>
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <f>PRODUCT(K99,0.001)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -14045,11 +13777,11 @@
         <v>1310608.03</v>
       </c>
       <c r="K100">
-        <f>SUM(H100,G100,E100)</f>
+        <f t="shared" si="6"/>
         <v>1290186.0132599999</v>
       </c>
       <c r="L100">
-        <f>PRODUCT(K100,0.001)</f>
+        <f t="shared" si="7"/>
         <v>1290.18601326</v>
       </c>
     </row>
@@ -14085,11 +13817,11 @@
         <v>162289.2475</v>
       </c>
       <c r="K101">
-        <f>SUM(H101,G101,E101)</f>
+        <f t="shared" si="6"/>
         <v>141821.92470100001</v>
       </c>
       <c r="L101">
-        <f>PRODUCT(K101,0.001)</f>
+        <f t="shared" si="7"/>
         <v>141.821924701</v>
       </c>
     </row>
@@ -14125,11 +13857,11 @@
         <v>41285.354140000003</v>
       </c>
       <c r="K102">
-        <f>SUM(H102,G102,E102)</f>
+        <f t="shared" si="6"/>
         <v>20806.101326</v>
       </c>
       <c r="L102">
-        <f>PRODUCT(K102,0.001)</f>
+        <f t="shared" si="7"/>
         <v>20.806101326</v>
       </c>
     </row>
@@ -14165,11 +13897,11 @@
         <v>35826.987029999997</v>
       </c>
       <c r="K103">
-        <f>SUM(H103,G103,E103)</f>
+        <f t="shared" si="6"/>
         <v>15415.726185</v>
       </c>
       <c r="L103">
-        <f>PRODUCT(K103,0.001)</f>
+        <f t="shared" si="7"/>
         <v>15.415726185</v>
       </c>
     </row>
@@ -14205,11 +13937,11 @@
         <v>35365.650179999997</v>
       </c>
       <c r="K104">
-        <f>SUM(H104,G104,E104)</f>
+        <f t="shared" si="6"/>
         <v>14698.477268000001</v>
       </c>
       <c r="L104">
-        <f>PRODUCT(K104,0.001)</f>
+        <f t="shared" si="7"/>
         <v>14.698477268000001</v>
       </c>
     </row>
@@ -14220,14 +13952,6 @@
       <c r="B105">
         <v>100000</v>
       </c>
-      <c r="K105">
-        <f>SUM(H105,G105,E105)</f>
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <f>PRODUCT(K105,0.001)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
@@ -14236,14 +13960,6 @@
       <c r="B106">
         <v>2200000</v>
       </c>
-      <c r="K106">
-        <f>SUM(H106,G106,E106)</f>
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <f>PRODUCT(K106,0.001)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -14277,11 +13993,11 @@
         <v>418734.42550000001</v>
       </c>
       <c r="K107">
-        <f>SUM(H107,G107,E107)</f>
+        <f t="shared" si="6"/>
         <v>408530.13472199999</v>
       </c>
       <c r="L107">
-        <f>PRODUCT(K107,0.001)</f>
+        <f t="shared" si="7"/>
         <v>408.53013472200001</v>
       </c>
     </row>
@@ -14317,11 +14033,11 @@
         <v>1141993.6340000001</v>
       </c>
       <c r="K108">
-        <f>SUM(H108,G108,E108)</f>
+        <f t="shared" si="6"/>
         <v>1134387.6718869999</v>
       </c>
       <c r="L108">
-        <f>PRODUCT(K108,0.001)</f>
+        <f t="shared" si="7"/>
         <v>1134.3876718869999</v>
       </c>
     </row>
@@ -14357,11 +14073,11 @@
         <v>75553.234100000001</v>
       </c>
       <c r="K109">
-        <f>SUM(H109,G109,E109)</f>
+        <f t="shared" si="6"/>
         <v>67888.349533000001</v>
       </c>
       <c r="L109">
-        <f>PRODUCT(K109,0.001)</f>
+        <f t="shared" si="7"/>
         <v>67.888349532999996</v>
       </c>
     </row>
@@ -14397,11 +14113,11 @@
         <v>57955.09863</v>
       </c>
       <c r="K110">
-        <f>SUM(H110,G110,E110)</f>
+        <f t="shared" si="6"/>
         <v>50392.097238000002</v>
       </c>
       <c r="L110">
-        <f>PRODUCT(K110,0.001)</f>
+        <f t="shared" si="7"/>
         <v>50.392097238000005</v>
       </c>
     </row>
@@ -14437,11 +14153,11 @@
         <v>53155.117030000001</v>
       </c>
       <c r="K111">
-        <f>SUM(H111,G111,E111)</f>
+        <f t="shared" si="6"/>
         <v>45575.148109000002</v>
       </c>
       <c r="L111">
-        <f>PRODUCT(K111,0.001)</f>
+        <f t="shared" si="7"/>
         <v>45.575148109000004</v>
       </c>
     </row>
@@ -14477,11 +14193,11 @@
         <v>53001.777650000004</v>
       </c>
       <c r="K112">
-        <f t="shared" ref="K112:K127" si="6">SUM(H112,G112,E112)</f>
+        <f t="shared" ref="K112:K127" si="8">SUM(H112,G112,E112)</f>
         <v>45403.706308000001</v>
       </c>
       <c r="L112">
-        <f>PRODUCT(K112,0.001)</f>
+        <f t="shared" si="7"/>
         <v>45.403706308000004</v>
       </c>
     </row>
@@ -14517,11 +14233,11 @@
         <v>53443.68982</v>
       </c>
       <c r="K113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45831.948283999998</v>
       </c>
       <c r="L113">
-        <f>PRODUCT(K113,0.001)</f>
+        <f t="shared" si="7"/>
         <v>45.831948283999999</v>
       </c>
     </row>
@@ -14557,11 +14273,11 @@
         <v>616424.18720000004</v>
       </c>
       <c r="K114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>590830.61576399999</v>
       </c>
       <c r="L114">
-        <f>PRODUCT(K114,0.001)</f>
+        <f t="shared" si="7"/>
         <v>590.83061576399996</v>
       </c>
     </row>
@@ -14597,11 +14313,11 @@
         <v>91507.617710000006</v>
       </c>
       <c r="K115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65952.916624000005</v>
       </c>
       <c r="L115">
-        <f>PRODUCT(K115,0.001)</f>
+        <f t="shared" si="7"/>
         <v>65.952916624000011</v>
       </c>
     </row>
@@ -14637,11 +14353,11 @@
         <v>39874.749179999999</v>
       </c>
       <c r="K116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14419.331073000001</v>
       </c>
       <c r="L116">
-        <f>PRODUCT(K116,0.001)</f>
+        <f t="shared" si="7"/>
         <v>14.419331073000002</v>
       </c>
     </row>
@@ -14677,11 +14393,11 @@
         <v>40027.718780000003</v>
       </c>
       <c r="K117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9099.7145170000003</v>
       </c>
       <c r="L117">
-        <f>PRODUCT(K117,0.001)</f>
+        <f t="shared" si="7"/>
         <v>9.0997145170000007</v>
       </c>
     </row>
@@ -14717,11 +14433,11 @@
         <v>48485.754249999998</v>
       </c>
       <c r="K118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8633.550643999999</v>
       </c>
       <c r="L118">
-        <f>PRODUCT(K118,0.001)</f>
+        <f t="shared" si="7"/>
         <v>8.6335506439999996</v>
       </c>
     </row>
@@ -14757,11 +14473,11 @@
         <v>128442.8153</v>
       </c>
       <c r="K119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8647.8836540000011</v>
       </c>
       <c r="L119">
-        <f>PRODUCT(K119,0.001)</f>
+        <f t="shared" si="7"/>
         <v>8.647883654000001</v>
       </c>
     </row>
@@ -14772,14 +14488,6 @@
       <c r="B120">
         <v>2200000</v>
       </c>
-      <c r="K120">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <f>PRODUCT(K120,0.001)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -14813,11 +14521,11 @@
         <v>1059995.317</v>
       </c>
       <c r="K121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1060548.2356924</v>
       </c>
       <c r="L121">
-        <f>PRODUCT(K121,0.001)</f>
+        <f t="shared" si="7"/>
         <v>1060.5482356924001</v>
       </c>
     </row>
@@ -14853,11 +14561,11 @@
         <v>126623.61930000001</v>
       </c>
       <c r="K122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>128585.74934569999</v>
       </c>
       <c r="L122">
-        <f>PRODUCT(K122,0.001)</f>
+        <f t="shared" si="7"/>
         <v>128.58574934570001</v>
       </c>
     </row>
@@ -14893,11 +14601,11 @@
         <v>17735.21399</v>
       </c>
       <c r="K123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19703.334091000001</v>
       </c>
       <c r="L123">
-        <f>PRODUCT(K123,0.001)</f>
+        <f t="shared" si="7"/>
         <v>19.703334091000002</v>
       </c>
     </row>
@@ -14933,11 +14641,11 @@
         <v>6474.95532</v>
       </c>
       <c r="K124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8452.3515704000001</v>
       </c>
       <c r="L124">
-        <f>PRODUCT(K124,0.001)</f>
+        <f t="shared" si="7"/>
         <v>8.4523515704000012</v>
       </c>
     </row>
@@ -14973,11 +14681,11 @@
         <v>6103.3842560000003</v>
       </c>
       <c r="K125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8050.4450804000007</v>
       </c>
       <c r="L125">
-        <f>PRODUCT(K125,0.001)</f>
+        <f t="shared" si="7"/>
         <v>8.0504450804000012</v>
       </c>
     </row>
@@ -15013,11 +14721,11 @@
         <v>6174.473524</v>
       </c>
       <c r="K126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8152.9219154000002</v>
       </c>
       <c r="L126">
-        <f>PRODUCT(K126,0.001)</f>
+        <f t="shared" si="7"/>
         <v>8.1529219154000003</v>
       </c>
     </row>
@@ -15053,11 +14761,11 @@
         <v>6528.9182659999997</v>
       </c>
       <c r="K127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8514.6555907000002</v>
       </c>
       <c r="L127">
-        <f>PRODUCT(K127,0.001)</f>
+        <f t="shared" si="7"/>
         <v>8.5146555907000003</v>
       </c>
     </row>
@@ -15120,7 +14828,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15148,16 +14856,20 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <f>MIN('10_trees'!L2:'10_trees'!L8)</f>
         <v>6.3441569811000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <f>MIN('10_trees'!L9:'10_trees'!L15)</f>
         <v>6.8843429097</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <f>MIN('10_trees'!L23:'10_trees'!L29)</f>
         <v>6.3948528762999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
+        <f>MIN('10_trees'!L30:'10_trees'!L36)</f>
         <v>6.2555918694999999</v>
       </c>
     </row>
@@ -15165,16 +14877,20 @@
       <c r="A4">
         <v>500</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <f>MIN('500_trees'!L2:'500_trees'!L8)</f>
         <v>10.430578232</v>
       </c>
-      <c r="C4">
-        <v>9.4998850830000006</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <f>MIN('500_trees'!L9:'500_trees'!L15)</f>
+        <v>9.4998850829999988</v>
+      </c>
+      <c r="D4" s="1">
+        <f>MIN('500_trees'!L23:'500_trees'!L29)</f>
         <v>7.1905994420999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
+        <f>MIN('500_trees'!L30:'500_trees'!L36)</f>
         <v>6.7812299728000003</v>
       </c>
     </row>
@@ -15182,16 +14898,20 @@
       <c r="A5">
         <v>1600</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <f>MIN('1600_trees'!L2:'1600_trees'!L8)</f>
         <v>19.154314040999999</v>
       </c>
-      <c r="C5">
-        <v>14.693790436</v>
-      </c>
-      <c r="D5">
-        <v>9.6046972279999991</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="1">
+        <f>MIN('1600_trees'!L9:'1600_trees'!L15)</f>
+        <v>14.693790436000002</v>
+      </c>
+      <c r="D5" s="1">
+        <f>MIN('1600_trees'!L23:'1600_trees'!L29)</f>
+        <v>9.6046972280000009</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MIN('1600_trees'!L30:'1600_trees'!L36)</f>
         <v>8.6618523600999993</v>
       </c>
     </row>
@@ -15221,60 +14941,78 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <f>MIN('10_trees'!L37:'10_trees'!L43)</f>
         <v>6.3562030791000002</v>
       </c>
-      <c r="C9">
-        <v>7.1632485389999996</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1">
+        <f>MIN('10_trees'!L44:'10_trees'!L50)</f>
+        <v>7.1632485390000005</v>
+      </c>
+      <c r="D9" s="1">
+        <f>MIN('10_trees'!L58:'10_trees'!L64)</f>
         <v>6.3850290777999996</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
+        <f>MIN('10_trees'!L65:'10_trees'!L71)</f>
         <v>6.0794575211000002</v>
       </c>
-      <c r="G9">
-        <v>8.35</v>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>MIN('10_trees'!L86:'10_trees'!L92)</f>
+        <v>8.3517563343048007</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <f>MIN('500_trees'!L37:'500_trees'!L43)</f>
         <v>10.26548934</v>
       </c>
-      <c r="C10">
-        <v>9.7058866019999996</v>
-      </c>
-      <c r="D10">
-        <v>7.0823962690000002</v>
-      </c>
-      <c r="E10">
-        <v>6.4145376685000004</v>
-      </c>
-      <c r="G10">
-        <v>8.82</v>
+      <c r="C10" s="1">
+        <f>MIN('500_trees'!L44:'500_trees'!L50)</f>
+        <v>9.7058866020000014</v>
+      </c>
+      <c r="D10" s="1">
+        <f>MIN('500_trees'!L58:'500_trees'!L64)</f>
+        <v>7.0823962690000011</v>
+      </c>
+      <c r="E10" s="1">
+        <f>MIN('500_trees'!L65:'500_trees'!L71)</f>
+        <v>6.4145376684999995</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <f>MIN('500_trees'!L86:'500_trees'!L92)</f>
+        <v>8.8200173377990598</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <f>MIN('1600_trees'!L37:'1600_trees'!L43)</f>
         <v>18.834965464</v>
       </c>
-      <c r="C11">
-        <v>14.711517811</v>
-      </c>
-      <c r="D11">
-        <v>8.6789548399999994</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="1">
+        <f>MIN('1600_trees'!L44:'1600_trees'!L50)</f>
+        <v>14.711517811000002</v>
+      </c>
+      <c r="D11" s="1">
+        <f>MIN('1600_trees'!L58:'1600_trees'!L64)</f>
+        <v>8.6789548400000012</v>
+      </c>
+      <c r="E11" s="1">
+        <f>MIN('1600_trees'!L65:'1600_trees'!L71)</f>
         <v>6.8572597505999999</v>
       </c>
-      <c r="G11">
-        <v>9.43</v>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <f>MIN('1600_trees'!L86:'1600_trees'!L92)</f>
+        <v>9.4343659877776904</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -15300,33 +15038,41 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
+        <f>MIN('10_trees'!L93:'10_trees'!L99)</f>
         <v>6.3429629800000003</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
+        <f>MIN('10_trees'!L100:'10_trees'!L106)</f>
         <v>7.1673526760000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <f>MIN('10_trees'!L114:'10_trees'!L120)</f>
         <v>6.3451008795000003</v>
       </c>
-      <c r="E15">
-        <v>6.3105320934</v>
+      <c r="E15" s="1">
+        <f>MIN('10_trees'!L121:'10_trees'!L127)</f>
+        <v>6.3105320933999991</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
-      <c r="B16">
-        <v>10.359729052</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <f>MIN('500_trees'!L93:'500_trees'!L99)</f>
+        <v>10.359729051999999</v>
+      </c>
+      <c r="C16" s="1">
+        <f>MIN('500_trees'!L100:'500_trees'!L106)</f>
         <v>9.7625069619999998</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <f>MIN('500_trees'!L114:'500_trees'!L120)</f>
         <v>7.1714205734999998</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
+        <f>MIN('500_trees'!L121:'500_trees'!L127)</f>
         <v>6.6337940694000004</v>
       </c>
     </row>
@@ -15334,21 +15080,25 @@
       <c r="A17">
         <v>1600</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
+        <f>MIN('1600_trees'!L93:'1600_trees'!L99)</f>
         <v>18.897471901999999</v>
       </c>
-      <c r="C17">
-        <v>14.698477268</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="1">
+        <f>MIN('1600_trees'!L100:'1600_trees'!L106)</f>
+        <v>14.698477268000001</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN('1600_trees'!L114:'1600_trees'!L120)</f>
         <v>8.6335506439999996</v>
       </c>
-      <c r="E17">
-        <v>8.0504450803999994</v>
+      <c r="E17" s="1">
+        <f>MIN('1600_trees'!L121:'1600_trees'!L127)</f>
+        <v>8.0504450804000012</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\higgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA889A-38BA-43C5-8F2C-91F1F2F39347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8655105B-1A82-4D84-8A7C-C6F5CE2E4A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="2088" windowWidth="17280" windowHeight="8964" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="32">
   <si>
     <t>query size</t>
   </si>
@@ -191,6 +191,7004 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs Random Forest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3441569811000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.430578232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.154314040999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-337C-4EB1-8B3D-04E4323F584A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8843429097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4998850829999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.693790436000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-337C-4EB1-8B3D-04E4323F584A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3948528762999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1905994420999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6046972280000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-337C-4EB1-8B3D-04E4323F584A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.2555918694999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7812299728000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6618523600999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-337C-4EB1-8B3D-04E4323F584A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2027424463"/>
+        <c:axId val="2027423215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2027424463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027423215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027423215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027424463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs XGBoost Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3562030791000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26548934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.834965464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2168-4B52-BBB4-BC9FF1996380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1632485390000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7058866020000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.711517811000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2168-4B52-BBB4-BC9FF1996380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3850290777999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0823962690000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6789548400000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2168-4B52-BBB4-BC9FF1996380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0794575211000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4145376684999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8572597505999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2168-4B52-BBB4-BC9FF1996380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3517563343048007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8200173377990598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4343659877776904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2168-4B52-BBB4-BC9FF1996380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="230037311"/>
+        <c:axId val="230037727"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2168-4B52-BBB4-BC9FF1996380}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="230037311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230037727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="230037727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230037311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lightgbm Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3429629800000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.359729051999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.897471901999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C251-4ABB-BEE9-65B390C85861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1673526760000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7625069619999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.698477268000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C251-4ABB-BEE9-65B390C85861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3451008795000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1714205734999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6335506439999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C251-4ABB-BEE9-65B390C85861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3105320933999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6337940694000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0504450804000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C251-4ABB-BEE9-65B390C85861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="227894607"/>
+        <c:axId val="227895023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227894607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227895023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227895023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227894607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Random Forest Inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>267.86470409999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4170.9353920000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13056.96702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8817-4648-9E78-FF0D1EBA1FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>762.80593869999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3227.883339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8569.2970750000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8817-4648-9E78-FF0D1EBA1FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>306.58340449999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>958.7059021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3476.9980909999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8817-4648-9E78-FF0D1EBA1FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$3:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>698.64630699999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1026.3285639999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3095.7543850000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8817-4648-9E78-FF0D1EBA1FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2146060559"/>
+        <c:axId val="2146063055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2146060559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2146063055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2146063055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2146060559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs Xgboost Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$9:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>268.00942420000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4104.827166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12810.360189999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7071-475E-A11F-BFFE896A1C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$9:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1093.0683610000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3449.0799900000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8590.3856749999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7071-475E-A11F-BFFE896A1C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$9:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300.83298680000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>862.24913600000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2542.5081249999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7071-475E-A11F-BFFE896A1C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$9:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>479.13813590000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>729.92205620000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1308.056593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7071-475E-A11F-BFFE896A1C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$9:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2237.2879981994602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2703.7572860717701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3319.86498832702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7071-475E-A11F-BFFE896A1C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="233469279"/>
+        <c:axId val="233469695"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$P$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$K$9:$K$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$P$9:$P$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7071-475E-A11F-BFFE896A1C3C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="233469279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233469695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="233469695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233469279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs LightGBM Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$15:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>268.20468899999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4105.7283880000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12801.757809999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C89-4A77-BEA8-1DAFABEF061F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$15:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1076.671124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3445.4631810000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8597.7382660000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C89-4A77-BEA8-1DAFABEF061F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$15:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>284.9116325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>963.36936949999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2554.7649860000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C89-4A77-BEA8-1DAFABEF061F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$K$15:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$15:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>684.62324139999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1018.861532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2497.4811079999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C89-4A77-BEA8-1DAFABEF061F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2027421135"/>
+        <c:axId val="2027423631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2027421135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027423631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027423631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027421135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39ECF8D4-D17B-4B77-070C-5BA46E0FCFF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC3D24B-8C00-A632-747B-68A5F858A7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9165591D-F61C-BC6E-D8BA-880517795D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74054A48-CAC1-C4A9-D6B3-E0DB1F1273FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29BD0BE-70CC-A795-D3BE-C00E5C8811B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD69C45D-84FA-1443-F94C-1F8395B055F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,8 +7490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5545,8 +12543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P83" sqref="P83"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L70" sqref="A70:L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7904,11 +14902,11 @@
         <v>112227.3455</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K85" si="4">SUM(H66,G66,E66)</f>
+        <f t="shared" ref="K66:K71" si="4">SUM(H66,G66,E66)</f>
         <v>114611.61469230001</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L85" si="5">PRODUCT(K66,0.001)</f>
+        <f t="shared" ref="L66:L71" si="5">PRODUCT(K66,0.001)</f>
         <v>114.61161469230001</v>
       </c>
     </row>
@@ -8152,11 +15150,11 @@
         <v>3566736.17863655</v>
       </c>
       <c r="K73">
-        <f>SUM(H73,G73,E73)</f>
+        <f t="shared" ref="K73:K78" si="6">SUM(H73,G73,E73)</f>
         <v>3571806.1664104452</v>
       </c>
       <c r="L73">
-        <f>PRODUCT(K73,0.001)</f>
+        <f t="shared" ref="L73:L78" si="7">PRODUCT(K73,0.001)</f>
         <v>3571.8061664104453</v>
       </c>
       <c r="M73" t="s">
@@ -8198,11 +15196,11 @@
         <v>359321.03562355001</v>
       </c>
       <c r="K74">
-        <f>SUM(H74,G74,E74)</f>
+        <f t="shared" si="6"/>
         <v>364391.15381240891</v>
       </c>
       <c r="L74">
-        <f>PRODUCT(K74,0.001)</f>
+        <f t="shared" si="7"/>
         <v>364.3911538124089</v>
       </c>
       <c r="M74">
@@ -8244,11 +15242,11 @@
         <v>38333.165407180801</v>
       </c>
       <c r="K75">
-        <f>SUM(H75,G75,E75)</f>
+        <f t="shared" si="6"/>
         <v>43328.27448844914</v>
       </c>
       <c r="L75">
-        <f>PRODUCT(K75,0.001)</f>
+        <f t="shared" si="7"/>
         <v>43.328274488449139</v>
       </c>
       <c r="M75">
@@ -8290,11 +15288,11 @@
         <v>7471.4643955230704</v>
       </c>
       <c r="K76">
-        <f>SUM(H76,G76,E76)</f>
+        <f t="shared" si="6"/>
         <v>12460.995435714722</v>
       </c>
       <c r="L76">
-        <f>PRODUCT(K76,0.001)</f>
+        <f t="shared" si="7"/>
         <v>12.460995435714722</v>
       </c>
       <c r="M76">
@@ -8336,11 +15334,11 @@
         <v>4479.39133644104</v>
       </c>
       <c r="K77">
-        <f>SUM(H77,G77,E77)</f>
+        <f t="shared" si="6"/>
         <v>9470.5295562744195</v>
       </c>
       <c r="L77">
-        <f>PRODUCT(K77,0.001)</f>
+        <f t="shared" si="7"/>
         <v>9.4705295562744194</v>
       </c>
       <c r="M77">
@@ -8382,11 +15380,11 @@
         <v>4341.99929237366</v>
       </c>
       <c r="K78">
-        <f>SUM(H78,G78,E78)</f>
+        <f t="shared" si="6"/>
         <v>9338.173151016239</v>
       </c>
       <c r="L78">
-        <f>PRODUCT(K78,0.001)</f>
+        <f t="shared" si="7"/>
         <v>9.3381731510162389</v>
       </c>
       <c r="M78">
@@ -8860,11 +15858,11 @@
         <v>2041732.8829999999</v>
       </c>
       <c r="K93">
-        <f t="shared" ref="K93:K111" si="6">SUM(H93,G93,E93)</f>
+        <f t="shared" ref="K93:K111" si="8">SUM(H93,G93,E93)</f>
         <v>2033401.888058</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L127" si="7">PRODUCT(K93,0.001)</f>
+        <f t="shared" ref="L93:L127" si="9">PRODUCT(K93,0.001)</f>
         <v>2033.4018880579999</v>
       </c>
     </row>
@@ -8900,11 +15898,11 @@
         <v>223982.69149999999</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>218522.71504499999</v>
       </c>
       <c r="L94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>218.52271504499998</v>
       </c>
     </row>
@@ -8940,11 +15938,11 @@
         <v>32912.001129999997</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27428.367851999999</v>
       </c>
       <c r="L95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27.428367852000001</v>
       </c>
     </row>
@@ -8980,11 +15978,11 @@
         <v>16268.245940000001</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10849.403619000001</v>
       </c>
       <c r="L96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.849403619</v>
       </c>
     </row>
@@ -9020,11 +16018,11 @@
         <v>15781.90041</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10359.729051999999</v>
       </c>
       <c r="L97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.359729051999999</v>
       </c>
     </row>
@@ -9060,11 +16058,11 @@
         <v>15761.388059999999</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10415.970564000001</v>
       </c>
       <c r="L98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.415970564000002</v>
       </c>
     </row>
@@ -9105,11 +16103,11 @@
         <v>1353737.0789999999</v>
       </c>
       <c r="K100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1348309.4857269998</v>
       </c>
       <c r="L100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1348.3094857269998</v>
       </c>
     </row>
@@ -9145,11 +16143,11 @@
         <v>151244.77929999999</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>146000.67685600001</v>
       </c>
       <c r="L101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>146.00067685600001</v>
       </c>
     </row>
@@ -9185,11 +16183,11 @@
         <v>26104.001049999999</v>
       </c>
       <c r="K102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20841.285464000001</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.841285464000002</v>
       </c>
     </row>
@@ -9225,11 +16223,11 @@
         <v>15483.28161</v>
       </c>
       <c r="K103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10221.475124000001</v>
       </c>
       <c r="L103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.221475124000001</v>
       </c>
     </row>
@@ -9265,11 +16263,11 @@
         <v>15088.93585</v>
       </c>
       <c r="K104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9762.5069619999995</v>
       </c>
       <c r="L104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7625069619999998</v>
       </c>
     </row>
@@ -9315,11 +16313,11 @@
         <v>182151.77770000001</v>
       </c>
       <c r="K107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>179468.589771</v>
       </c>
       <c r="L107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>179.46858977100001</v>
       </c>
     </row>
@@ -9355,11 +16353,11 @@
         <v>296531.67320000002</v>
       </c>
       <c r="K108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>296000.65997600002</v>
       </c>
       <c r="L108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>296.00065997600001</v>
       </c>
     </row>
@@ -9395,11 +16393,11 @@
         <v>30457.030770000001</v>
       </c>
       <c r="K109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>29916.008707000001</v>
       </c>
       <c r="L109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29.916008707000003</v>
       </c>
     </row>
@@ -9435,11 +16433,11 @@
         <v>27012.124540000001</v>
       </c>
       <c r="K110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26437.063934000002</v>
       </c>
       <c r="L110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26.437063934000001</v>
       </c>
     </row>
@@ -9475,11 +16473,11 @@
         <v>24129.776000000002</v>
       </c>
       <c r="K111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23763.825658999998</v>
       </c>
       <c r="L111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.763825658999998</v>
       </c>
     </row>
@@ -9515,11 +16513,11 @@
         <v>24798.740389999999</v>
       </c>
       <c r="K112">
-        <f t="shared" ref="K112:K127" si="8">SUM(H112,G112,E112)</f>
+        <f t="shared" ref="K112:K127" si="10">SUM(H112,G112,E112)</f>
         <v>24377.096885999999</v>
       </c>
       <c r="L112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.377096886</v>
       </c>
     </row>
@@ -9555,11 +16553,11 @@
         <v>21376.916410000002</v>
       </c>
       <c r="K113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20944.317814000002</v>
       </c>
       <c r="L113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.944317814000001</v>
       </c>
     </row>
@@ -9595,11 +16593,11 @@
         <v>595265.62089999998</v>
       </c>
       <c r="K114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>586378.40127099992</v>
       </c>
       <c r="L114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>586.37840127099992</v>
       </c>
     </row>
@@ -9635,11 +16633,11 @@
         <v>82676.686530000006</v>
       </c>
       <c r="K115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65974.177601000003</v>
       </c>
       <c r="L115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>65.974177601000008</v>
       </c>
     </row>
@@ -9675,11 +16673,11 @@
         <v>30390.121459999998</v>
       </c>
       <c r="K116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13679.381131999999</v>
       </c>
       <c r="L116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.679381132</v>
       </c>
     </row>
@@ -9715,11 +16713,11 @@
         <v>22934.057710000001</v>
       </c>
       <c r="K117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7724.0257270000002</v>
       </c>
       <c r="L117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.7240257270000008</v>
       </c>
     </row>
@@ -9755,11 +16753,11 @@
         <v>25006.521219999999</v>
       </c>
       <c r="K118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7292.925596</v>
       </c>
       <c r="L118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2929255959999999</v>
       </c>
     </row>
@@ -9795,11 +16793,11 @@
         <v>50304.579259999999</v>
       </c>
       <c r="K119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7171.4205734999996</v>
       </c>
       <c r="L119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1714205734999998</v>
       </c>
     </row>
@@ -9840,11 +16838,11 @@
         <v>912023.3665</v>
       </c>
       <c r="K121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>913220.07985490002</v>
       </c>
       <c r="L121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>913.22007985490006</v>
       </c>
     </row>
@@ -9880,11 +16878,11 @@
         <v>111861.8639</v>
       </c>
       <c r="K122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>114339.35623210001</v>
       </c>
       <c r="L122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>114.3393562321</v>
       </c>
     </row>
@@ -9920,11 +16918,11 @@
         <v>15442.16871</v>
       </c>
       <c r="K123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17851.552250299999</v>
       </c>
       <c r="L123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.851552250299999</v>
       </c>
     </row>
@@ -9960,11 +16958,11 @@
         <v>5387.1972560000004</v>
       </c>
       <c r="K124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7812.3331063000005</v>
       </c>
       <c r="L124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.8123331063000006</v>
       </c>
     </row>
@@ -10000,11 +16998,11 @@
         <v>4321.2533000000003</v>
       </c>
       <c r="K125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6733.9510915000001</v>
       </c>
       <c r="L125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7339510914999998</v>
       </c>
     </row>
@@ -10040,11 +17038,11 @@
         <v>4278.3284190000004</v>
       </c>
       <c r="K126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6633.7940693999999</v>
       </c>
       <c r="L126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6337940694000004</v>
       </c>
     </row>
@@ -10080,11 +17078,11 @@
         <v>4471.761227</v>
       </c>
       <c r="K127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6899.8439314999996</v>
       </c>
       <c r="L127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8998439314999995</v>
       </c>
     </row>
@@ -14825,20 +21823,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -14851,8 +21852,20 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -14872,8 +21885,27 @@
         <f>MIN('10_trees'!L30:'10_trees'!L36)</f>
         <v>6.2555918694999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <f>MIN('10_trees'!G2:'10_trees'!G8)</f>
+        <v>267.86470409999998</v>
+      </c>
+      <c r="M3" s="1">
+        <f>MIN('10_trees'!G9:'10_trees'!G15)</f>
+        <v>762.80593869999996</v>
+      </c>
+      <c r="N3" s="1">
+        <f>MIN('10_trees'!G23:'10_trees'!G29)</f>
+        <v>306.58340449999997</v>
+      </c>
+      <c r="O3" s="1">
+        <f>MIN('10_trees'!G30:'10_trees'!G36)</f>
+        <v>698.64630699999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -14893,8 +21925,27 @@
         <f>MIN('500_trees'!L30:'500_trees'!L36)</f>
         <v>6.7812299728000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN('500_trees'!G2:'500_trees'!G8)</f>
+        <v>4170.9353920000003</v>
+      </c>
+      <c r="M4" s="1">
+        <f>MIN('500_trees'!G9:'500_trees'!G15)</f>
+        <v>3227.883339</v>
+      </c>
+      <c r="N4" s="1">
+        <f>MIN('500_trees'!G23:'500_trees'!G29)</f>
+        <v>958.7059021</v>
+      </c>
+      <c r="O4" s="1">
+        <f>MIN('500_trees'!G30:'500_trees'!G36)</f>
+        <v>1026.3285639999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
@@ -14914,13 +21965,35 @@
         <f>MIN('1600_trees'!L30:'1600_trees'!L36)</f>
         <v>8.6618523600999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1600</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN('1600_trees'!G2:'1600_trees'!G8)</f>
+        <v>13056.96702</v>
+      </c>
+      <c r="M5" s="1">
+        <f>MIN('1600_trees'!G9:'1600_trees'!G15)</f>
+        <v>8569.2970750000004</v>
+      </c>
+      <c r="N5" s="1">
+        <f>MIN('1600_trees'!G23:'1600_trees'!G29)</f>
+        <v>3476.9980909999999</v>
+      </c>
+      <c r="O5" s="1">
+        <f>MIN('1600_trees'!G30:'1600_trees'!G36)</f>
+        <v>3095.7543850000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -14936,8 +22009,23 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -14962,8 +22050,32 @@
         <f>MIN('10_trees'!L86:'10_trees'!L92)</f>
         <v>8.3517563343048007</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN('10_trees'!G37:'10_trees'!G43)</f>
+        <v>268.00942420000001</v>
+      </c>
+      <c r="M9" s="1">
+        <f>MIN('10_trees'!G44:'10_trees'!G50)</f>
+        <v>1093.0683610000001</v>
+      </c>
+      <c r="N9" s="1">
+        <f>MIN('10_trees'!G58:'10_trees'!G64)</f>
+        <v>300.83298680000001</v>
+      </c>
+      <c r="O9" s="1">
+        <f>MIN('10_trees'!G65:'10_trees'!G71)</f>
+        <v>479.13813590000001</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
+        <f>MIN('10_trees'!G86:'10_trees'!G92)</f>
+        <v>2237.2879981994602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
@@ -14988,8 +22100,32 @@
         <f>MIN('500_trees'!L86:'500_trees'!L92)</f>
         <v>8.8200173377990598</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN('500_trees'!G37:'500_trees'!G43)</f>
+        <v>4104.827166</v>
+      </c>
+      <c r="M10" s="1">
+        <f>MIN('500_trees'!G44:'500_trees'!G50)</f>
+        <v>3449.0799900000002</v>
+      </c>
+      <c r="N10" s="1">
+        <f>MIN('500_trees'!G58:'500_trees'!G64)</f>
+        <v>862.24913600000002</v>
+      </c>
+      <c r="O10" s="1">
+        <f>MIN('500_trees'!G65:'500_trees'!G71)</f>
+        <v>729.92205620000004</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
+        <f>MIN('500_trees'!G86:'500_trees'!G92)</f>
+        <v>2703.7572860717701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -15014,13 +22150,40 @@
         <f>MIN('1600_trees'!L86:'1600_trees'!L92)</f>
         <v>9.4343659877776904</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1600</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN('1600_trees'!G37:'1600_trees'!G43)</f>
+        <v>12810.360189999999</v>
+      </c>
+      <c r="M11" s="1">
+        <f>MIN('1600_trees'!G44:'1600_trees'!G50)</f>
+        <v>8590.3856749999995</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MIN('1600_trees'!G58:'1600_trees'!G64)</f>
+        <v>2542.5081249999998</v>
+      </c>
+      <c r="O11" s="1">
+        <f>MIN('1600_trees'!G65:'1600_trees'!G71)</f>
+        <v>1308.056593</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
+        <f>MIN('1600_trees'!G86:'1600_trees'!G92)</f>
+        <v>3319.86498832702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -15033,8 +22196,20 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -15054,8 +22229,27 @@
         <f>MIN('10_trees'!L121:'10_trees'!L127)</f>
         <v>6.3105320933999991</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN('10_trees'!G93:'10_trees'!G99)</f>
+        <v>268.20468899999997</v>
+      </c>
+      <c r="M15" s="1">
+        <f>MIN('10_trees'!G100:'10_trees'!G106)</f>
+        <v>1076.671124</v>
+      </c>
+      <c r="N15" s="1">
+        <f>MIN('10_trees'!G114:'10_trees'!G120)</f>
+        <v>284.9116325</v>
+      </c>
+      <c r="O15" s="1">
+        <f>MIN('10_trees'!G121:'10_trees'!G127)</f>
+        <v>684.62324139999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
@@ -15075,8 +22269,27 @@
         <f>MIN('500_trees'!L121:'500_trees'!L127)</f>
         <v>6.6337940694000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>500</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN('500_trees'!G93:'500_trees'!G99)</f>
+        <v>4105.7283880000005</v>
+      </c>
+      <c r="M16" s="1">
+        <f>MIN('500_trees'!G100:'500_trees'!G106)</f>
+        <v>3445.4631810000001</v>
+      </c>
+      <c r="N16" s="1">
+        <f>MIN('500_trees'!G114:'500_trees'!G120)</f>
+        <v>963.36936949999995</v>
+      </c>
+      <c r="O16" s="1">
+        <f>MIN('500_trees'!G121:'500_trees'!G127)</f>
+        <v>1018.861532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -15096,9 +22309,29 @@
         <f>MIN('1600_trees'!L121:'1600_trees'!L127)</f>
         <v>8.0504450804000012</v>
       </c>
+      <c r="K17">
+        <v>1600</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN('1600_trees'!G93:'1600_trees'!G99)</f>
+        <v>12801.757809999999</v>
+      </c>
+      <c r="M17" s="1">
+        <f>MIN('1600_trees'!G100:'1600_trees'!G106)</f>
+        <v>8597.7382660000003</v>
+      </c>
+      <c r="N17" s="1">
+        <f>MIN('1600_trees'!G114:'1600_trees'!G120)</f>
+        <v>2554.7649860000001</v>
+      </c>
+      <c r="O17" s="1">
+        <f>MIN('1600_trees'!G121:'1600_trees'!G127)</f>
+        <v>2497.4811079999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\higgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8655105B-1A82-4D84-8A7C-C6F5CE2E4A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D75B944-55E2-4908-92F5-4647AB538D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12396" yWindow="3084" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="33">
   <si>
     <t>query size</t>
   </si>
@@ -136,6 +136,9 @@
   <si>
     <t>None</t>
   </si>
+  <si>
+    <t>CPU</t>
+  </si>
 </sst>
 </file>
 
@@ -194,1768 +197,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Higgs Random Forest</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Total</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.3441569811000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.430578232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.154314040999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-337C-4EB1-8B3D-04E4323F584A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$3:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.8843429097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4998850829999988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.693790436000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-337C-4EB1-8B3D-04E4323F584A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.3948528762999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1905994420999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.6046972280000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-337C-4EB1-8B3D-04E4323F584A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.2555918694999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7812299728000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6618523600999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-337C-4EB1-8B3D-04E4323F584A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2027424463"/>
-        <c:axId val="2027423215"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2027424463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2027423215"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2027423215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2027424463"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Higgs XGBoost Total</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.3562030791000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.26548934</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.834965464</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2168-4B52-BBB4-BC9FF1996380}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$9:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.1632485390000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7058866020000014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.711517811000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2168-4B52-BBB4-BC9FF1996380}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$9:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.3850290777999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0823962690000011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6789548400000012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2168-4B52-BBB4-BC9FF1996380}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.0794575211000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4145376684999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8572597505999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2168-4B52-BBB4-BC9FF1996380}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Xgboost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$G$9:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.3517563343048007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8200173377990598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4343659877776904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2168-4B52-BBB4-BC9FF1996380}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="230037311"/>
-        <c:axId val="230037727"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1600</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-2168-4B52-BBB4-BC9FF1996380}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="230037311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="230037727"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="230037727"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="230037311"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Higgs</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Lightgbm Total</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$15:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.3429629800000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.359729051999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.897471901999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C251-4ABB-BEE9-65B390C85861}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$15:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.1673526760000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7625069619999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.698477268000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C251-4ABB-BEE9-65B390C85861}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$15:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.3451008795000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1714205734999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6335506439999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C251-4ABB-BEE9-65B390C85861}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$15:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.3105320933999991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6337940694000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0504450804000012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C251-4ABB-BEE9-65B390C85861}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="227894607"/>
-        <c:axId val="227895023"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="227894607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227895023"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="227895023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227894607"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2496,7 +737,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3176,7 +1417,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3633,6 +1874,3497 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2027421135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs Randomforest Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3441569811000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.430578232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.154314040999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1504-4F3F-B1F2-7F86C1D342C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8843429097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4998850829999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.693790436000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1504-4F3F-B1F2-7F86C1D342C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3948528762999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1905994420999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6046972280000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1504-4F3F-B1F2-7F86C1D342C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.2555918694999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7812299728000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6618523600999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1504-4F3F-B1F2-7F86C1D342C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1504-4F3F-B1F2-7F86C1D342C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="454898271"/>
+        <c:axId val="454886623"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$3:$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1504-4F3F-B1F2-7F86C1D342C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$3:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-1504-4F3F-B1F2-7F86C1D342C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454898271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454886623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454886623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454898271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> XGBoost Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3562030791000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26548934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.834965464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62AD-4EB9-92CB-91E20B5D7A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1632485390000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7058866020000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.711517811000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62AD-4EB9-92CB-91E20B5D7A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3850290777999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0823962690000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6789548400000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-62AD-4EB9-92CB-91E20B5D7A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0794575211000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4145376684999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8572597505999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-62AD-4EB9-92CB-91E20B5D7A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3517563343048007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8200173377990598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4343659877776904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-62AD-4EB9-92CB-91E20B5D7A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$9:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-62AD-4EB9-92CB-91E20B5D7A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="345802111"/>
+        <c:axId val="345803775"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-62AD-4EB9-92CB-91E20B5D7A20}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="345802111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345803775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345803775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345802111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higgs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> LightGBM Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3429629800000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.359729051999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.897471901999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1134-4EBF-81B5-C407F7B26C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1673526760000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7625069619999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.698477268000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1134-4EBF-81B5-C407F7B26C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3451008795000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1714205734999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6335506439999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1134-4EBF-81B5-C407F7B26C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.3105320933999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6337940694000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0504450804000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1134-4EBF-81B5-C407F7B26C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1134-4EBF-81B5-C407F7B26C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="454882879"/>
+        <c:axId val="454896607"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$15:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1134-4EBF-81B5-C407F7B26C7B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$15:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-1134-4EBF-81B5-C407F7B26C7B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454882879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454896607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454896607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454882879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6974,114 +8706,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39ECF8D4-D17B-4B77-070C-5BA46E0FCFF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC3D24B-8C00-A632-747B-68A5F858A7F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9165591D-F61C-BC6E-D8BA-880517795D03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -7110,7 +8734,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7146,7 +8770,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7171,6 +8795,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD69C45D-84FA-1443-F94C-1F8395B055F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DFD58E-C474-7CEF-FBE3-BD76995D7449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A90323E-05E6-5069-BE42-F55E1C698391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172032DE-0251-BFA4-E522-61B44D3C009B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21825,8 +23557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21852,6 +23584,9 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
@@ -21885,6 +23620,9 @@
         <f>MIN('10_trees'!L30:'10_trees'!L36)</f>
         <v>6.2555918694999999</v>
       </c>
+      <c r="H3">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="K3">
         <v>10</v>
       </c>
@@ -21925,6 +23663,9 @@
         <f>MIN('500_trees'!L30:'500_trees'!L36)</f>
         <v>6.7812299728000003</v>
       </c>
+      <c r="H4">
+        <v>20.3</v>
+      </c>
       <c r="K4">
         <v>500</v>
       </c>
@@ -21965,6 +23706,9 @@
         <f>MIN('1600_trees'!L30:'1600_trees'!L36)</f>
         <v>8.6618523600999993</v>
       </c>
+      <c r="H5">
+        <v>45.2</v>
+      </c>
       <c r="K5">
         <v>1600</v>
       </c>
@@ -22008,6 +23752,9 @@
       </c>
       <c r="G8" t="s">
         <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -22050,6 +23797,9 @@
         <f>MIN('10_trees'!L86:'10_trees'!L92)</f>
         <v>8.3517563343048007</v>
       </c>
+      <c r="H9">
+        <v>8.1</v>
+      </c>
       <c r="K9">
         <v>10</v>
       </c>
@@ -22100,6 +23850,9 @@
         <f>MIN('500_trees'!L86:'500_trees'!L92)</f>
         <v>8.8200173377990598</v>
       </c>
+      <c r="H10">
+        <v>19.100000000000001</v>
+      </c>
       <c r="K10">
         <v>500</v>
       </c>
@@ -22150,6 +23903,9 @@
         <f>MIN('1600_trees'!L86:'1600_trees'!L92)</f>
         <v>9.4343659877776904</v>
       </c>
+      <c r="H11">
+        <v>35.799999999999997</v>
+      </c>
       <c r="K11">
         <v>1600</v>
       </c>
@@ -22196,6 +23952,9 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -22229,6 +23988,9 @@
         <f>MIN('10_trees'!L121:'10_trees'!L127)</f>
         <v>6.3105320933999991</v>
       </c>
+      <c r="H15">
+        <v>8.1</v>
+      </c>
       <c r="K15">
         <v>10</v>
       </c>
@@ -22269,6 +24031,9 @@
         <f>MIN('500_trees'!L121:'500_trees'!L127)</f>
         <v>6.6337940694000004</v>
       </c>
+      <c r="H16">
+        <v>14.5</v>
+      </c>
       <c r="K16">
         <v>500</v>
       </c>
@@ -22308,6 +24073,9 @@
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L121:'1600_trees'!L127)</f>
         <v>8.0504450804000012</v>
+      </c>
+      <c r="H17">
+        <v>29.5</v>
       </c>
       <c r="K17">
         <v>1600</v>

--- a/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\higgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D75B944-55E2-4908-92F5-4647AB538D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F919B21-4AF8-41B4-97F6-BA4D06E1E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12396" yWindow="3084" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="34">
   <si>
     <t>query size</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>CPU</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -2136,13 +2139,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3441569811000003</c:v>
+                  <c:v>6.4706611798421001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.430578232</c:v>
+                  <c:v>10.3769114177421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.154314040999999</c:v>
+                  <c:v>19.278978840742102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,13 +2263,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.8843429097</c:v>
+                  <c:v>6.9676096604420996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4998850829999988</c:v>
+                  <c:v>9.4495008157421001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.693790436000002</c:v>
+                  <c:v>14.8121388117421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,13 +2387,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3948528762999999</c:v>
+                  <c:v>6.5258760612420996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1905994420999999</c:v>
+                  <c:v>7.1864037678420996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6046972280000009</c:v>
+                  <c:v>9.7157643007420997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,13 +2511,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.2555918694999999</c:v>
+                  <c:v>6.3736188572420991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7812299728000003</c:v>
+                  <c:v>6.717247502542099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6618523600999993</c:v>
+                  <c:v>8.7826972168421005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,7 +2807,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$2</c15:sqref>
@@ -2864,7 +2867,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2886,7 +2889,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$3:$A$5</c15:sqref>
@@ -2910,7 +2913,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$3:$G$5</c15:sqref>
@@ -2923,7 +2926,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-1504-4F3F-B1F2-7F86C1D342C2}"/>
                   </c:ext>
@@ -3304,13 +3307,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3562030791000002</c:v>
+                  <c:v>6.4969744838420995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.26548934</c:v>
+                  <c:v>10.312433497742099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.834965464</c:v>
+                  <c:v>19.014278901742099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,13 +3431,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.1632485390000005</c:v>
+                  <c:v>7.3002071537421003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7058866020000014</c:v>
+                  <c:v>9.7029493007420999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.711517811000002</c:v>
+                  <c:v>14.8325734297421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,13 +3555,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3850290777999996</c:v>
+                  <c:v>6.501368300542099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0823962690000011</c:v>
+                  <c:v>7.0823853177420997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6789548400000012</c:v>
+                  <c:v>8.7989669007420996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3676,13 +3679,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.0794575211000002</c:v>
+                  <c:v>6.1669888657420993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4145376684999995</c:v>
+                  <c:v>6.4101634186420995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8572597505999999</c:v>
+                  <c:v>6.9874959153420999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3800,13 +3803,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.3517563343048007</c:v>
+                  <c:v>8.4150195282683384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8200173377990598</c:v>
+                  <c:v>8.8936953705534894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4343659877776904</c:v>
+                  <c:v>9.5083713692412299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4464,13 +4467,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3429629800000003</c:v>
+                  <c:v>6.4573149837420996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.359729051999999</c:v>
+                  <c:v>10.313721672742099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.897471901999999</c:v>
+                  <c:v>19.025662435742099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4588,13 +4591,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.1673526760000001</c:v>
+                  <c:v>7.2725515527420992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7625069619999998</c:v>
+                  <c:v>9.7633831667421003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.698477268000001</c:v>
+                  <c:v>14.822770134742099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,13 +4715,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3451008795000003</c:v>
+                  <c:v>6.4903094932420995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1714205734999998</c:v>
+                  <c:v>7.1797931352420994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6335506439999996</c:v>
+                  <c:v>8.7633750597420992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4836,13 +4839,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3105320933999991</c:v>
+                  <c:v>6.3771052521420986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6337940694000004</c:v>
+                  <c:v>6.7200904051420993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0504450804000012</c:v>
+                  <c:v>8.1845886871420994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5132,7 +5135,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$14</c15:sqref>
@@ -5192,7 +5195,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5214,7 +5217,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$15:$A$17</c15:sqref>
@@ -5238,7 +5241,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$15:$G$17</c15:sqref>
@@ -5251,7 +5254,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-1134-4EBF-81B5-C407F7B26C7B}"/>
                   </c:ext>
@@ -9220,10 +9223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:L35"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9301,12 +9304,12 @@
         <v>1839956.3770000001</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="0">SUM(H2,G2,E2)</f>
-        <v>1837205.757645</v>
+        <f>SUM($E$129,H2,G2)</f>
+        <v>1837208.8916737421</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L33" si="1">PRODUCT(K2,0.001)</f>
-        <v>1837.2057576449999</v>
+        <f t="shared" ref="L2:L33" si="0">PRODUCT(K2,0.001)</f>
+        <v>1837.2088916737421</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -9341,12 +9344,12 @@
         <v>263155.71860000002</v>
       </c>
       <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">SUM($E$129,H3,G3)</f>
+        <v>264360.59838374209</v>
+      </c>
+      <c r="L3">
         <f t="shared" si="0"/>
-        <v>264252.64767999999</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
-        <v>264.25264768</v>
+        <v>264.36059838374211</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -9381,12 +9384,12 @@
         <v>31383.61692</v>
       </c>
       <c r="K4">
+        <f t="shared" si="1"/>
+        <v>32566.741954742098</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
-        <v>32459.972376999998</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>32.459972377</v>
+        <v>32.566741954742099</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -9421,12 +9424,12 @@
         <v>7316.3681029999998</v>
       </c>
       <c r="K5">
+        <f t="shared" si="1"/>
+        <v>8553.9765517421001</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>8422.3785399999997</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>8.4223785400000004</v>
+        <v>8.5539765517420996</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -9461,12 +9464,12 @@
         <v>5573.6622809999999</v>
       </c>
       <c r="K6">
+        <f t="shared" si="1"/>
+        <v>6785.5751672420993</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
-        <v>6650.7942675000004</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>6.6507942675000002</v>
+        <v>6.785575167242099</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9501,12 +9504,12 @@
         <v>5310.0886339999997</v>
       </c>
       <c r="K7">
+        <f t="shared" si="1"/>
+        <v>6524.955765842099</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>6391.2780290999999</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>6.3912780291000004</v>
+        <v>6.5249557658420994</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -9541,12 +9544,12 @@
         <v>5239.6304609999997</v>
       </c>
       <c r="K8">
+        <f t="shared" si="1"/>
+        <v>6470.6611798421</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>6344.1569810999999</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>6.3441569811000003</v>
+        <v>6.4706611798421001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -9581,12 +9584,12 @@
         <v>1275940.7080000001</v>
       </c>
       <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1277816.9094597423</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>1277685.7625360002</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>1277.6857625360003</v>
+        <v>1277.8169094597422</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -9621,12 +9624,12 @@
         <v>164765.33369999999</v>
       </c>
       <c r="K10">
+        <f t="shared" si="1"/>
+        <v>166618.22132374209</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>166483.35435499999</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>166.48335435499999</v>
+        <v>166.61822132374209</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -9661,12 +9664,12 @@
         <v>17556.591270000001</v>
       </c>
       <c r="K11">
+        <f t="shared" si="1"/>
+        <v>19472.611440742097</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>19372.696397</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>19.372696396999999</v>
+        <v>19.472611440742099</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -9701,12 +9704,12 @@
         <v>6396.4037900000003</v>
       </c>
       <c r="K12">
+        <f t="shared" si="1"/>
+        <v>8315.0379817420999</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>8254.1770930000002</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>8.2541770930000009</v>
+        <v>8.3150379817420994</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -9741,12 +9744,12 @@
         <v>5335.9050749999997</v>
       </c>
       <c r="K13">
+        <f t="shared" si="1"/>
+        <v>7199.6216937420986</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
-        <v>7109.4930170000007</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>7.109493017000001</v>
+        <v>7.1996216937420989</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -9781,12 +9784,12 @@
         <v>5589.0600679999998</v>
       </c>
       <c r="K14">
+        <f t="shared" si="1"/>
+        <v>7360.2450052421</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
-        <v>7319.7972774999998</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>7.3197972775000002</v>
+        <v>7.3602450052421</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -9821,12 +9824,12 @@
         <v>5820.1234340000001</v>
       </c>
       <c r="K15">
+        <f t="shared" si="1"/>
+        <v>6967.6096604420991</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="0"/>
-        <v>6884.3429096999998</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>6.8843429097</v>
+        <v>6.9676096604420996</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -9861,12 +9864,12 @@
         <v>108554.28290000001</v>
       </c>
       <c r="K16">
+        <f t="shared" si="1"/>
+        <v>109926.84871074211</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="0"/>
-        <v>109853.546426</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>109.85354642600001</v>
+        <v>109.92684871074211</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -9901,12 +9904,12 @@
         <v>15852.17619</v>
       </c>
       <c r="K17">
+        <f t="shared" si="1"/>
+        <v>19622.579587742101</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
-        <v>19505.261180000001</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>19.505261180000002</v>
+        <v>19.622579587742102</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -9941,12 +9944,12 @@
         <v>5105.481863</v>
       </c>
       <c r="K18">
+        <f t="shared" si="1"/>
+        <v>8862.9868197420983</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="0"/>
-        <v>8783.778667999999</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>8.7837786680000001</v>
+        <v>8.8629868197420993</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -9981,12 +9984,12 @@
         <v>3968.6090949999998</v>
       </c>
       <c r="K19">
+        <f t="shared" si="1"/>
+        <v>7749.2361237420992</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
-        <v>7646.1002829999998</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>7.646100283</v>
+        <v>7.749236123742099</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10021,12 +10024,12 @@
         <v>3433.247805</v>
       </c>
       <c r="K20">
+        <f t="shared" si="1"/>
+        <v>7203.6416688420995</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
-        <v>7101.5684601000003</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>7.1015684601000002</v>
+        <v>7.2036416688421001</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10061,12 +10064,12 @@
         <v>3565.777302</v>
       </c>
       <c r="K21">
+        <f t="shared" si="1"/>
+        <v>7302.0599057420986</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="0"/>
-        <v>7209.5432289999999</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>7.2095432290000003</v>
+        <v>7.302059905742099</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10101,12 +10104,12 @@
         <v>4055.8426380000001</v>
       </c>
       <c r="K22">
+        <f t="shared" si="1"/>
+        <v>7824.6076267420995</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
-        <v>7706.9783210000005</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>7.7069783210000002</v>
+        <v>7.8246076267420994</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10141,12 +10144,12 @@
         <v>624390.10049999994</v>
       </c>
       <c r="K23">
+        <f t="shared" si="1"/>
+        <v>621888.13596574205</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="0"/>
-        <v>621808.06879199995</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>621.80806879199997</v>
+        <v>621.88813596574209</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10181,12 +10184,12 @@
         <v>65182.193520000001</v>
       </c>
       <c r="K24">
+        <f t="shared" si="1"/>
+        <v>63533.8246977421</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="0"/>
-        <v>63441.801546999995</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>63.441801546999997</v>
+        <v>63.533824697742105</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -10221,12 +10224,12 @@
         <v>14302.798269999999</v>
       </c>
       <c r="K25">
+        <f t="shared" si="1"/>
+        <v>12533.929125742099</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="0"/>
-        <v>12426.962853000001</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>12.426962853000001</v>
+        <v>12.5339291257421</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10261,12 +10264,12 @@
         <v>17801.388500000001</v>
       </c>
       <c r="K26">
+        <f t="shared" si="1"/>
+        <v>7216.769949742099</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="0"/>
-        <v>7086.7440699999997</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>7.08674407</v>
+        <v>7.2167699497420994</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -10301,12 +10304,12 @@
         <v>16797.16516</v>
       </c>
       <c r="K27">
+        <f t="shared" si="1"/>
+        <v>6617.5601639421002</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="0"/>
-        <v>6544.2092412000002</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>6.5442092411999999</v>
+        <v>6.6175601639421</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -10341,12 +10344,12 @@
         <v>15554.19397</v>
       </c>
       <c r="K28">
+        <f t="shared" si="1"/>
+        <v>6534.6505800420991</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="0"/>
-        <v>6394.8528762999995</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>6.3948528762999999</v>
+        <v>6.5346505800420989</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -10381,12 +10384,12 @@
         <v>29545.798299999999</v>
       </c>
       <c r="K29">
+        <f t="shared" si="1"/>
+        <v>6525.8760612420992</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="0"/>
-        <v>6434.0016845</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>6.4340016845000001</v>
+        <v>6.5258760612420996</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -10421,12 +10424,12 @@
         <v>881506.02049999998</v>
       </c>
       <c r="K30">
+        <f t="shared" si="1"/>
+        <v>880787.43485984206</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="0"/>
-        <v>880689.69109409989</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>880.68969109409989</v>
+        <v>880.78743485984205</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -10461,12 +10464,12 @@
         <v>107876.9448</v>
       </c>
       <c r="K31">
+        <f t="shared" si="1"/>
+        <v>110503.56893404209</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="0"/>
-        <v>110438.5216543</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>110.4385216543</v>
+        <v>110.50356893404209</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -10501,12 +10504,12 @@
         <v>15284.48796</v>
       </c>
       <c r="K32">
+        <f t="shared" si="1"/>
+        <v>17886.087676542098</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="0"/>
-        <v>17799.2453618</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>17.799245361800001</v>
+        <v>17.886087676542097</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -10541,12 +10544,12 @@
         <v>4623.739243</v>
       </c>
       <c r="K33">
+        <f t="shared" si="1"/>
+        <v>7302.5489012420994</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="0"/>
-        <v>7229.5870775000003</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>7.2295870775000006</v>
+        <v>7.3025489012420994</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -10581,12 +10584,12 @@
         <v>3807.5251579999999</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="2">SUM(H34,G34,E34)</f>
-        <v>6312.0768071000002</v>
+        <f t="shared" si="1"/>
+        <v>6423.1877488420996</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="3">PRODUCT(K34,0.001)</f>
-        <v>6.3120768071000004</v>
+        <f t="shared" ref="L34:L65" si="2">PRODUCT(K34,0.001)</f>
+        <v>6.4231877488420999</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -10621,12 +10624,12 @@
         <v>3753.0865669999998</v>
       </c>
       <c r="K35">
+        <f t="shared" si="1"/>
+        <v>6373.6188572420988</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="2"/>
-        <v>6255.5918695</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="3"/>
-        <v>6.2555918694999999</v>
+        <v>6.3736188572420991</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -10661,12 +10664,12 @@
         <v>3943.9973829999999</v>
       </c>
       <c r="K36">
+        <f t="shared" si="1"/>
+        <v>6574.7506779420992</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="2"/>
-        <v>6543.8933372000001</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="3"/>
-        <v>6.5438933372000001</v>
+        <v>6.5747506779420997</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -10701,12 +10704,12 @@
         <v>1994187.267</v>
       </c>
       <c r="K37">
+        <f t="shared" si="1"/>
+        <v>1994930.7454517421</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="2"/>
-        <v>1994863.1521000001</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="3"/>
-        <v>1994.8631521000002</v>
+        <v>1994.930745451742</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -10741,12 +10744,12 @@
         <v>206376.13250000001</v>
       </c>
       <c r="K38">
+        <f t="shared" si="1"/>
+        <v>207231.3020797421</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="2"/>
-        <v>207120.53040800002</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="3"/>
-        <v>207.12053040800004</v>
+        <v>207.23130207974211</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -10781,12 +10784,12 @@
         <v>26186.68103</v>
       </c>
       <c r="K39">
+        <f t="shared" si="1"/>
+        <v>27055.052770742099</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="2"/>
-        <v>26947.301624</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="3"/>
-        <v>26.947301624000001</v>
+        <v>27.055052770742101</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -10821,12 +10824,12 @@
         <v>7681.6015239999997</v>
       </c>
       <c r="K40">
+        <f t="shared" si="1"/>
+        <v>8545.832887742099</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="2"/>
-        <v>8437.2556199999999</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="3"/>
-        <v>8.4372556200000002</v>
+        <v>8.5458328877420993</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -10861,12 +10864,12 @@
         <v>5845.0388910000001</v>
       </c>
       <c r="K41">
+        <f t="shared" si="1"/>
+        <v>6716.6822117420988</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="2"/>
-        <v>6602.8745170000002</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="3"/>
-        <v>6.6028745170000001</v>
+        <v>6.716682211742099</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -10901,12 +10904,12 @@
         <v>5631.4826009999997</v>
       </c>
       <c r="K42">
+        <f t="shared" si="1"/>
+        <v>6496.9744838420993</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="2"/>
-        <v>6356.2030790999997</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="3"/>
-        <v>6.3562030791000002</v>
+        <v>6.4969744838420995</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -10941,12 +10944,12 @@
         <v>5647.7861400000002</v>
       </c>
       <c r="K43">
+        <f t="shared" si="1"/>
+        <v>6508.5816539420994</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="2"/>
-        <v>6398.0114451999998</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="3"/>
-        <v>6.3980114451999999</v>
+        <v>6.5085816539420991</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -10981,12 +10984,12 @@
         <v>1277663.7520000001</v>
       </c>
       <c r="K44">
+        <f t="shared" si="1"/>
+        <v>1279229.204896742</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="2"/>
-        <v>1279097.5508569998</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="3"/>
-        <v>1279.0975508569998</v>
+        <v>1279.229204896742</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11021,12 +11024,12 @@
         <v>136079.5331</v>
       </c>
       <c r="K45">
+        <f t="shared" si="1"/>
+        <v>137663.5244337421</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="2"/>
-        <v>137528.465776</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="3"/>
-        <v>137.52846577599999</v>
+        <v>137.66352443374211</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11061,12 +11064,12 @@
         <v>18873.563529999999</v>
       </c>
       <c r="K46">
+        <f t="shared" si="1"/>
+        <v>20441.578644742098</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="2"/>
-        <v>20331.601621999998</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="3"/>
-        <v>20.331601621999997</v>
+        <v>20.441578644742098</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11101,12 +11104,12 @@
         <v>7181.29468</v>
       </c>
       <c r="K47">
+        <f t="shared" si="1"/>
+        <v>8740.6101387420986</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="2"/>
-        <v>8607.0144179999988</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="3"/>
-        <v>8.6070144179999986</v>
+        <v>8.7406101387420989</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11141,12 +11144,12 @@
         <v>5924.4644639999997</v>
       </c>
       <c r="K48">
+        <f t="shared" si="1"/>
+        <v>7474.3445077420993</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="2"/>
-        <v>7360.4688640000004</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="3"/>
-        <v>7.3604688640000004</v>
+        <v>7.4743445077420994</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11181,12 +11184,12 @@
         <v>5873.433113</v>
       </c>
       <c r="K49">
+        <f t="shared" si="1"/>
+        <v>7415.7929577420991</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="2"/>
-        <v>7302.5929919999999</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="3"/>
-        <v>7.3025929920000001</v>
+        <v>7.4157929577420996</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -11221,12 +11224,12 @@
         <v>6482.6602940000002</v>
       </c>
       <c r="K50">
+        <f t="shared" si="1"/>
+        <v>7300.2071537420998</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="2"/>
-        <v>7163.2485390000002</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="3"/>
-        <v>7.1632485390000005</v>
+        <v>7.3002071537421003</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -11261,12 +11264,12 @@
         <v>105997.55929999999</v>
       </c>
       <c r="K51">
+        <f t="shared" si="1"/>
+        <v>109773.25084774211</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="2"/>
-        <v>109629.71664800002</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="3"/>
-        <v>109.62971664800001</v>
+        <v>109.7732508477421</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -11301,12 +11304,12 @@
         <v>15703.71199</v>
       </c>
       <c r="K52">
+        <f t="shared" si="1"/>
+        <v>19487.175954742099</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="2"/>
-        <v>19348.453756999999</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="3"/>
-        <v>19.348453757000001</v>
+        <v>19.487175954742099</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -11341,12 +11344,12 @@
         <v>5350.0876429999998</v>
       </c>
       <c r="K53">
+        <f t="shared" si="1"/>
+        <v>9131.0954257420999</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="2"/>
-        <v>8993.0074219999988</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="3"/>
-        <v>8.9930074219999998</v>
+        <v>9.1310954257420995</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -11381,12 +11384,12 @@
         <v>4008.6033339999999</v>
       </c>
       <c r="K54">
+        <f t="shared" si="1"/>
+        <v>7783.6601897420987</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="2"/>
-        <v>7641.1626340000003</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="3"/>
-        <v>7.6411626340000005</v>
+        <v>7.7836601897420987</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -11421,12 +11424,12 @@
         <v>3813.8957019999998</v>
       </c>
       <c r="K55">
+        <f t="shared" si="1"/>
+        <v>7595.8414237420993</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="2"/>
-        <v>7477.6093959999998</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="3"/>
-        <v>7.4776093960000001</v>
+        <v>7.5958414237420993</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -11461,12 +11464,12 @@
         <v>3748.1091019999999</v>
       </c>
       <c r="K56">
+        <f t="shared" si="1"/>
+        <v>7526.2162847420987</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="2"/>
-        <v>7388.2970810000006</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="3"/>
-        <v>7.388297081000001</v>
+        <v>7.526216284742099</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -11501,12 +11504,12 @@
         <v>4030.877352</v>
       </c>
       <c r="K57">
+        <f t="shared" si="1"/>
+        <v>7814.9132897420986</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="2"/>
-        <v>7674.6985920000006</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="3"/>
-        <v>7.6746985920000004</v>
+        <v>7.8149132897420985</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -11541,12 +11544,12 @@
         <v>584023.21889999998</v>
       </c>
       <c r="K58">
+        <f t="shared" si="1"/>
+        <v>582652.3702697421</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="2"/>
-        <v>582520.03745199996</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="3"/>
-        <v>582.520037452</v>
+        <v>582.65237026974216</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -11581,12 +11584,12 @@
         <v>65728.48749</v>
       </c>
       <c r="K59">
+        <f t="shared" si="1"/>
+        <v>63723.398462742101</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="2"/>
-        <v>63648.765087</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="3"/>
-        <v>63.648765087000001</v>
+        <v>63.723398462742104</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -11621,12 +11624,12 @@
         <v>14330.11413</v>
       </c>
       <c r="K60">
+        <f t="shared" si="1"/>
+        <v>12472.612397742099</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="2"/>
-        <v>12355.419160000001</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="3"/>
-        <v>12.355419160000002</v>
+        <v>12.4726123977421</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -11661,12 +11664,12 @@
         <v>17397.609469999999</v>
       </c>
       <c r="K61">
+        <f t="shared" si="1"/>
+        <v>7158.7045354420989</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="2"/>
-        <v>7015.6879427000003</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="3"/>
-        <v>7.0156879427000005</v>
+        <v>7.1587045354420988</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -11701,12 +11704,12 @@
         <v>16918.4339</v>
       </c>
       <c r="K62">
+        <f t="shared" si="1"/>
+        <v>6596.239106442099</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="2"/>
-        <v>6488.3379937</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="3"/>
-        <v>6.4883379937000001</v>
+        <v>6.5962391064420993</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -11741,12 +11744,12 @@
         <v>15646.83366</v>
       </c>
       <c r="K63">
+        <f t="shared" si="1"/>
+        <v>6501.368300542099</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="2"/>
-        <v>6385.0290777999999</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="3"/>
-        <v>6.3850290777999996</v>
+        <v>6.501368300542099</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -11781,12 +11784,12 @@
         <v>29441.38336</v>
       </c>
       <c r="K64">
+        <f t="shared" si="1"/>
+        <v>6700.313107442099</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="2"/>
-        <v>6591.2780767000004</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="3"/>
-        <v>6.5912780767000001</v>
+        <v>6.7003131074420992</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -11821,12 +11824,12 @@
         <v>1041629.057</v>
       </c>
       <c r="K65">
+        <f t="shared" si="1"/>
+        <v>1044093.3953604421</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="2"/>
-        <v>1043962.7135907001</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="3"/>
-        <v>1043.9627135907001</v>
+        <v>1044.0933953604422</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -11861,12 +11864,12 @@
         <v>107952.9047</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K92" si="4">SUM(H66,G66,E66)</f>
-        <v>110300.1442371</v>
+        <f t="shared" si="1"/>
+        <v>110381.93136284209</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L92" si="5">PRODUCT(K66,0.001)</f>
-        <v>110.3001442371</v>
+        <f t="shared" ref="L66:L92" si="3">PRODUCT(K66,0.001)</f>
+        <v>110.3819313628421</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -11901,12 +11904,12 @@
         <v>14164.080379999999</v>
       </c>
       <c r="K67">
-        <f t="shared" si="4"/>
-        <v>16573.427914100001</v>
+        <f t="shared" ref="K67:K127" si="4">SUM($E$129,H67,G67)</f>
+        <v>16669.921889842099</v>
       </c>
       <c r="L67">
-        <f t="shared" si="5"/>
-        <v>16.573427914100002</v>
+        <f t="shared" si="3"/>
+        <v>16.669921889842097</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -11942,11 +11945,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>7191.1294457000004</v>
+        <v>7293.9522424420993</v>
       </c>
       <c r="L68">
-        <f t="shared" si="5"/>
-        <v>7.1911294457000006</v>
+        <f t="shared" si="3"/>
+        <v>7.2939522424420993</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -11982,11 +11985,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>6242.7690029000005</v>
+        <v>6280.9102696420987</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
-        <v>6.2427690029000003</v>
+        <f t="shared" si="3"/>
+        <v>6.2809102696420984</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -12022,11 +12025,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>6079.4575211000001</v>
+        <v>6172.2843808420994</v>
       </c>
       <c r="L70">
-        <f t="shared" si="5"/>
-        <v>6.0794575211000002</v>
+        <f t="shared" si="3"/>
+        <v>6.1722843808420995</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -12062,11 +12065,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>6118.2551380000004</v>
+        <v>6166.9888657420988</v>
       </c>
       <c r="L71">
-        <f t="shared" si="5"/>
-        <v>6.1182551380000003</v>
+        <f t="shared" si="3"/>
+        <v>6.1669888657420993</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -12102,11 +12105,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
-        <v>3093151.211738585</v>
+        <v>3090539.8237866135</v>
       </c>
       <c r="L72">
-        <f t="shared" si="5"/>
-        <v>3093.1512117385851</v>
+        <f t="shared" si="3"/>
+        <v>3090.5398237866134</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -12142,11 +12145,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
-        <v>317128.95655631996</v>
+        <v>317128.24680030183</v>
       </c>
       <c r="L73">
-        <f t="shared" si="5"/>
-        <v>317.12895655631996</v>
+        <f t="shared" si="3"/>
+        <v>317.12824680030184</v>
       </c>
       <c r="M73" t="s">
         <v>31</v>
@@ -12188,11 +12191,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
-        <v>40036.865711212165</v>
+        <v>39986.585156320099</v>
       </c>
       <c r="L74">
-        <f t="shared" si="5"/>
-        <v>40.036865711212165</v>
+        <f t="shared" si="3"/>
+        <v>39.986585156320103</v>
       </c>
       <c r="M74">
         <v>48.903340101241994</v>
@@ -12234,11 +12237,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
-        <v>11876.44362449646</v>
+        <v>12003.052489160069</v>
       </c>
       <c r="L75">
-        <f t="shared" si="5"/>
-        <v>11.87644362449646</v>
+        <f t="shared" si="3"/>
+        <v>12.003052489160069</v>
       </c>
       <c r="M75">
         <v>11.918773412704461</v>
@@ -12280,11 +12283,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
-        <v>9058.5074424743598</v>
+        <v>9168.80680739737</v>
       </c>
       <c r="L76">
-        <f t="shared" si="5"/>
-        <v>9.0585074424743599</v>
+        <f t="shared" si="3"/>
+        <v>9.1688068073973703</v>
       </c>
       <c r="M76">
         <v>8.8168323040008403</v>
@@ -12326,11 +12329,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="4"/>
-        <v>8757.7855587005615</v>
+        <v>8880.0633114562097</v>
       </c>
       <c r="L77">
-        <f t="shared" si="5"/>
-        <v>8.7577855587005615</v>
+        <f t="shared" si="3"/>
+        <v>8.88006331145621</v>
       </c>
       <c r="M77">
         <v>8.4758715629577495</v>
@@ -12372,11 +12375,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="4"/>
-        <v>9056.4334392547607</v>
+        <v>9151.4651936278387</v>
       </c>
       <c r="L78">
-        <f t="shared" si="5"/>
-        <v>9.0564334392547607</v>
+        <f t="shared" si="3"/>
+        <v>9.1514651936278391</v>
       </c>
       <c r="M78">
         <v>8.6376621723174907</v>
@@ -12434,11 +12437,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="4"/>
-        <v>48903.340101241993</v>
+        <v>46235.416905282429</v>
       </c>
       <c r="L81">
-        <f t="shared" si="5"/>
-        <v>48.903340101241994</v>
+        <f t="shared" si="3"/>
+        <v>46.235416905282428</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -12474,11 +12477,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="4"/>
-        <v>11918.77341270446</v>
+        <v>12001.350418923859</v>
       </c>
       <c r="L82">
-        <f t="shared" si="5"/>
-        <v>11.918773412704461</v>
+        <f t="shared" si="3"/>
+        <v>12.00135041892386</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -12514,11 +12517,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="4"/>
-        <v>8816.8323040008399</v>
+        <v>8944.1585701689692</v>
       </c>
       <c r="L83">
-        <f t="shared" si="5"/>
-        <v>8.8168323040008403</v>
+        <f t="shared" si="3"/>
+        <v>8.9441585701689696</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -12554,11 +12557,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="4"/>
-        <v>8475.8715629577491</v>
+        <v>8419.3589848265601</v>
       </c>
       <c r="L84">
-        <f t="shared" si="5"/>
-        <v>8.4758715629577495</v>
+        <f t="shared" si="3"/>
+        <v>8.4193589848265606</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -12594,11 +12597,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="4"/>
-        <v>8637.6621723174903</v>
+        <v>8571.1810749754895</v>
       </c>
       <c r="L85">
-        <f t="shared" si="5"/>
-        <v>8.6376621723174907</v>
+        <f t="shared" si="3"/>
+        <v>8.57118107497549</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -12650,11 +12653,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="4"/>
-        <v>46486.214637756246</v>
+        <v>45950.010792611509</v>
       </c>
       <c r="L88">
-        <f t="shared" si="5"/>
-        <v>46.486214637756248</v>
+        <f t="shared" si="3"/>
+        <v>45.950010792611508</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -12690,11 +12693,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="4"/>
-        <v>11935.306549072258</v>
+        <v>12040.0200051055</v>
       </c>
       <c r="L89">
-        <f t="shared" si="5"/>
-        <v>11.935306549072259</v>
+        <f t="shared" si="3"/>
+        <v>12.0400200051055</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -12730,11 +12733,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="4"/>
-        <v>8720.3114032745198</v>
+        <v>8794.3809193358393</v>
       </c>
       <c r="L90">
-        <f t="shared" si="5"/>
-        <v>8.7203114032745201</v>
+        <f t="shared" si="3"/>
+        <v>8.7943809193358398</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -12770,11 +12773,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="4"/>
-        <v>8351.7563343048005</v>
+        <v>8415.019528268338</v>
       </c>
       <c r="L91">
-        <f t="shared" si="5"/>
-        <v>8.3517563343048007</v>
+        <f t="shared" si="3"/>
+        <v>8.4150195282683384</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -12810,11 +12813,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="4"/>
-        <v>8548.6278533935401</v>
+        <v>8610.3024643645294</v>
       </c>
       <c r="L92">
-        <f t="shared" si="5"/>
-        <v>8.5486278533935405</v>
+        <f t="shared" si="3"/>
+        <v>8.6103024643645298</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -12849,12 +12852,12 @@
         <v>2300035.1150000002</v>
       </c>
       <c r="K93">
-        <f t="shared" ref="K93:K111" si="6">SUM(H93,G93,E93)</f>
-        <v>2301680.6059099999</v>
+        <f t="shared" si="4"/>
+        <v>2301718.0188077423</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L127" si="7">PRODUCT(K93,0.001)</f>
-        <v>2301.6806059099999</v>
+        <f t="shared" ref="L93:L127" si="5">PRODUCT(K93,0.001)</f>
+        <v>2301.7180188077423</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -12889,12 +12892,12 @@
         <v>212720.5527</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
-        <v>214282.173178</v>
+        <f t="shared" si="4"/>
+        <v>214427.08591374211</v>
       </c>
       <c r="L94">
-        <f t="shared" si="7"/>
-        <v>214.28217317799999</v>
+        <f t="shared" si="5"/>
+        <v>214.4270859137421</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -12929,12 +12932,12 @@
         <v>25449.657439999999</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
-        <v>27038.985732000001</v>
+        <f t="shared" si="4"/>
+        <v>27146.930713742098</v>
       </c>
       <c r="L95">
-        <f t="shared" si="7"/>
-        <v>27.038985732</v>
+        <f t="shared" si="5"/>
+        <v>27.146930713742098</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -12969,12 +12972,12 @@
         <v>6972.0728399999998</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
-        <v>8536.054372999999</v>
+        <f t="shared" si="4"/>
+        <v>8677.6542827420999</v>
       </c>
       <c r="L96">
-        <f t="shared" si="7"/>
-        <v>8.5360543729999989</v>
+        <f t="shared" si="5"/>
+        <v>8.6776542827421004</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -13009,12 +13012,12 @@
         <v>4983.2086559999998</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
-        <v>6603.8095952000003</v>
+        <f t="shared" si="4"/>
+        <v>6713.4692829420992</v>
       </c>
       <c r="L97">
-        <f t="shared" si="7"/>
-        <v>6.6038095952000004</v>
+        <f t="shared" si="5"/>
+        <v>6.713469282942099</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -13049,12 +13052,12 @@
         <v>4794.060469</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
-        <v>6370.6183432999997</v>
+        <f t="shared" si="4"/>
+        <v>6512.7582710420993</v>
       </c>
       <c r="L98">
-        <f t="shared" si="7"/>
-        <v>6.3706183432999994</v>
+        <f t="shared" si="5"/>
+        <v>6.5127582710420997</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -13089,12 +13092,12 @@
         <v>4715.5094150000004</v>
       </c>
       <c r="K99">
-        <f t="shared" si="6"/>
-        <v>6342.9629800000002</v>
+        <f t="shared" si="4"/>
+        <v>6457.3149837420997</v>
       </c>
       <c r="L99">
-        <f t="shared" si="7"/>
-        <v>6.3429629800000003</v>
+        <f t="shared" si="5"/>
+        <v>6.4573149837420996</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -13129,12 +13132,12 @@
         <v>1280500.9920000001</v>
       </c>
       <c r="K100">
-        <f t="shared" si="6"/>
-        <v>1282271.460367</v>
+        <f t="shared" si="4"/>
+        <v>1282383.905022742</v>
       </c>
       <c r="L100">
-        <f t="shared" si="7"/>
-        <v>1282.2714603669999</v>
+        <f t="shared" si="5"/>
+        <v>1282.3839050227421</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -13169,12 +13172,12 @@
         <v>137532.0914</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
-        <v>139300.518794</v>
+        <f t="shared" si="4"/>
+        <v>139408.6492647421</v>
       </c>
       <c r="L101">
-        <f t="shared" si="7"/>
-        <v>139.300518794</v>
+        <f t="shared" si="5"/>
+        <v>139.40864926474211</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -13209,12 +13212,12 @@
         <v>22567.996500000001</v>
       </c>
       <c r="K102">
-        <f t="shared" si="6"/>
-        <v>24307.734256</v>
+        <f t="shared" si="4"/>
+        <v>24419.498464742101</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
-        <v>24.307734256</v>
+        <f t="shared" si="5"/>
+        <v>24.419498464742102</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -13249,12 +13252,12 @@
         <v>6831.4285280000004</v>
       </c>
       <c r="K103">
-        <f t="shared" si="6"/>
-        <v>8569.636344999999</v>
+        <f t="shared" si="4"/>
+        <v>8709.0919177421001</v>
       </c>
       <c r="L103">
-        <f t="shared" si="7"/>
-        <v>8.5696363449999993</v>
+        <f t="shared" si="5"/>
+        <v>8.7090919177421</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -13289,12 +13292,12 @@
         <v>5573.5557079999999</v>
       </c>
       <c r="K104">
-        <f t="shared" si="6"/>
-        <v>7324.6850959999992</v>
+        <f t="shared" si="4"/>
+        <v>7466.1235967420998</v>
       </c>
       <c r="L104">
-        <f t="shared" si="7"/>
-        <v>7.3246850959999996</v>
+        <f t="shared" si="5"/>
+        <v>7.4661235967420998</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -13329,12 +13332,12 @@
         <v>5596.435547</v>
       </c>
       <c r="K105">
-        <f t="shared" si="6"/>
-        <v>7249.6931560000003</v>
+        <f t="shared" si="4"/>
+        <v>7391.2754227420992</v>
       </c>
       <c r="L105">
-        <f t="shared" si="7"/>
-        <v>7.2496931560000002</v>
+        <f t="shared" si="5"/>
+        <v>7.3912754227420994</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -13369,12 +13372,12 @@
         <v>6127.1011829999998</v>
       </c>
       <c r="K106">
-        <f t="shared" si="6"/>
-        <v>7167.3526760000004</v>
+        <f t="shared" si="4"/>
+        <v>7272.5515527420994</v>
       </c>
       <c r="L106">
-        <f t="shared" si="7"/>
-        <v>7.1673526760000001</v>
+        <f t="shared" si="5"/>
+        <v>7.2725515527420992</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -13409,12 +13412,12 @@
         <v>107222.5554</v>
       </c>
       <c r="K107">
-        <f t="shared" si="6"/>
-        <v>110775.064505</v>
+        <f t="shared" si="4"/>
+        <v>110919.7867447421</v>
       </c>
       <c r="L107">
-        <f t="shared" si="7"/>
-        <v>110.775064505</v>
+        <f t="shared" si="5"/>
+        <v>110.9197867447421</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -13449,12 +13452,12 @@
         <v>19721.07387</v>
       </c>
       <c r="K108">
-        <f t="shared" si="6"/>
-        <v>23308.330531</v>
+        <f t="shared" si="4"/>
+        <v>23419.655810742101</v>
       </c>
       <c r="L108">
-        <f t="shared" si="7"/>
-        <v>23.308330530999999</v>
+        <f t="shared" si="5"/>
+        <v>23.4196558107421</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -13489,12 +13492,12 @@
         <v>5915.7001970000001</v>
       </c>
       <c r="K109">
-        <f t="shared" si="6"/>
-        <v>9494.5847990000002</v>
+        <f t="shared" si="4"/>
+        <v>9606.2357587420993</v>
       </c>
       <c r="L109">
-        <f t="shared" si="7"/>
-        <v>9.4945847990000001</v>
+        <f t="shared" si="5"/>
+        <v>9.6062357587421001</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -13529,12 +13532,12 @@
         <v>3933.0866339999998</v>
       </c>
       <c r="K110">
-        <f t="shared" si="6"/>
-        <v>7486.1135489999997</v>
+        <f t="shared" si="4"/>
+        <v>7628.7753747420993</v>
       </c>
       <c r="L110">
-        <f t="shared" si="7"/>
-        <v>7.4861135489999997</v>
+        <f t="shared" si="5"/>
+        <v>7.6287753747420997</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -13569,12 +13572,12 @@
         <v>3709.2885970000002</v>
       </c>
       <c r="K111">
-        <f t="shared" si="6"/>
-        <v>7283.057213</v>
+        <f t="shared" si="4"/>
+        <v>7390.7871407420989</v>
       </c>
       <c r="L111">
-        <f t="shared" si="7"/>
-        <v>7.2830572130000002</v>
+        <f t="shared" si="5"/>
+        <v>7.3907871407420993</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -13609,12 +13612,12 @@
         <v>3738.3356090000002</v>
       </c>
       <c r="K112">
-        <f t="shared" ref="K112:K127" si="8">SUM(H112,G112,E112)</f>
-        <v>7311.5293980000006</v>
+        <f t="shared" si="4"/>
+        <v>7437.5968137420987</v>
       </c>
       <c r="L112">
-        <f t="shared" si="7"/>
-        <v>7.3115293980000011</v>
+        <f t="shared" si="5"/>
+        <v>7.4375968137420987</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -13649,12 +13652,12 @@
         <v>4102.4031640000003</v>
       </c>
       <c r="K113">
-        <f t="shared" si="8"/>
-        <v>7685.3516099999997</v>
+        <f t="shared" si="4"/>
+        <v>7792.1400227420991</v>
       </c>
       <c r="L113">
-        <f t="shared" si="7"/>
-        <v>7.6853516099999997</v>
+        <f t="shared" si="5"/>
+        <v>7.7921400227420996</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -13689,12 +13692,12 @@
         <v>597956.77709999995</v>
       </c>
       <c r="K114">
-        <f t="shared" si="8"/>
-        <v>597106.59457100008</v>
+        <f t="shared" si="4"/>
+        <v>597253.91247374215</v>
       </c>
       <c r="L114">
-        <f t="shared" si="7"/>
-        <v>597.10659457100007</v>
+        <f t="shared" si="5"/>
+        <v>597.25391247374216</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -13729,12 +13732,12 @@
         <v>65366.665119999998</v>
       </c>
       <c r="K115">
-        <f t="shared" si="8"/>
-        <v>64014.260050999997</v>
+        <f t="shared" si="4"/>
+        <v>64161.600602742095</v>
       </c>
       <c r="L115">
-        <f t="shared" si="7"/>
-        <v>64.014260050999994</v>
+        <f t="shared" si="5"/>
+        <v>64.161600602742098</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -13769,12 +13772,12 @@
         <v>13748.37804</v>
       </c>
       <c r="K116">
-        <f t="shared" si="8"/>
-        <v>12476.638079</v>
+        <f t="shared" si="4"/>
+        <v>12588.422076742099</v>
       </c>
       <c r="L116">
-        <f t="shared" si="7"/>
-        <v>12.476638079000001</v>
+        <f t="shared" si="5"/>
+        <v>12.5884220767421</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -13809,12 +13812,12 @@
         <v>16797.98126</v>
       </c>
       <c r="K117">
-        <f t="shared" si="8"/>
-        <v>7028.6846162000002</v>
+        <f t="shared" si="4"/>
+        <v>7163.5196369420992</v>
       </c>
       <c r="L117">
-        <f t="shared" si="7"/>
-        <v>7.0286846162000005</v>
+        <f t="shared" si="5"/>
+        <v>7.163519636942099</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -13849,12 +13852,12 @@
         <v>16220.546480000001</v>
       </c>
       <c r="K118">
-        <f t="shared" si="8"/>
-        <v>6433.2587719999992</v>
+        <f t="shared" si="4"/>
+        <v>6580.4395837420989</v>
       </c>
       <c r="L118">
-        <f t="shared" si="7"/>
-        <v>6.4332587719999994</v>
+        <f t="shared" si="5"/>
+        <v>6.5804395837420993</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -13889,12 +13892,12 @@
         <v>14949.79405</v>
       </c>
       <c r="K119">
-        <f t="shared" si="8"/>
-        <v>6345.1008794999998</v>
+        <f t="shared" si="4"/>
+        <v>6490.3094932420991</v>
       </c>
       <c r="L119">
-        <f t="shared" si="7"/>
-        <v>6.3451008795000003</v>
+        <f t="shared" si="5"/>
+        <v>6.4903094932420995</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -13929,12 +13932,12 @@
         <v>28548.825980000001</v>
       </c>
       <c r="K120">
-        <f t="shared" si="8"/>
-        <v>6355.3135395999998</v>
+        <f t="shared" si="4"/>
+        <v>6499.170558342099</v>
       </c>
       <c r="L120">
-        <f t="shared" si="7"/>
-        <v>6.3553135396</v>
+        <f t="shared" si="5"/>
+        <v>6.4991705583420991</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -13969,12 +13972,12 @@
         <v>902502.21660000004</v>
       </c>
       <c r="K121">
-        <f t="shared" si="8"/>
-        <v>905044.84772579989</v>
+        <f t="shared" si="4"/>
+        <v>905162.23980454204</v>
       </c>
       <c r="L121">
-        <f t="shared" si="7"/>
-        <v>905.04484772579985</v>
+        <f t="shared" si="5"/>
+        <v>905.16223980454208</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -14009,12 +14012,12 @@
         <v>113990.6323</v>
       </c>
       <c r="K122">
-        <f t="shared" si="8"/>
-        <v>116462.1634853</v>
+        <f t="shared" si="4"/>
+        <v>116576.6254000421</v>
       </c>
       <c r="L122">
-        <f t="shared" si="7"/>
-        <v>116.4621634853</v>
+        <f t="shared" si="5"/>
+        <v>116.5766254000421</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -14049,12 +14052,12 @@
         <v>14208.23216</v>
       </c>
       <c r="K123">
-        <f t="shared" si="8"/>
-        <v>16712.338684399998</v>
+        <f t="shared" si="4"/>
+        <v>16852.8766781421</v>
       </c>
       <c r="L123">
-        <f t="shared" si="7"/>
-        <v>16.712338684399999</v>
+        <f t="shared" si="5"/>
+        <v>16.852876678142099</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -14089,12 +14092,12 @@
         <v>4651.6790389999996</v>
       </c>
       <c r="K124">
-        <f t="shared" si="8"/>
-        <v>7213.2391938999999</v>
+        <f t="shared" si="4"/>
+        <v>7335.001723642099</v>
       </c>
       <c r="L124">
-        <f t="shared" si="7"/>
-        <v>7.2132391938999998</v>
+        <f t="shared" si="5"/>
+        <v>7.3350017236420992</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -14129,12 +14132,12 @@
         <v>3833.3027360000001</v>
       </c>
       <c r="K125">
-        <f t="shared" si="8"/>
-        <v>6326.4319892999993</v>
+        <f t="shared" si="4"/>
+        <v>6418.6027210420989</v>
       </c>
       <c r="L125">
-        <f t="shared" si="7"/>
-        <v>6.3264319892999996</v>
+        <f t="shared" si="5"/>
+        <v>6.4186027210420988</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -14169,12 +14172,12 @@
         <v>3725.7914540000002</v>
       </c>
       <c r="K126">
-        <f t="shared" si="8"/>
-        <v>6310.5320933999992</v>
+        <f t="shared" si="4"/>
+        <v>6377.1052521420988</v>
       </c>
       <c r="L126">
-        <f t="shared" si="7"/>
-        <v>6.3105320933999991</v>
+        <f t="shared" si="5"/>
+        <v>6.3771052521420986</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -14209,12 +14212,21 @@
         <v>3878.4744740000001</v>
       </c>
       <c r="K127">
-        <f t="shared" si="8"/>
-        <v>6399.7800354999999</v>
+        <f t="shared" si="4"/>
+        <v>6544.4924992420993</v>
       </c>
       <c r="L127">
-        <f t="shared" si="7"/>
-        <v>6.3997800355000001</v>
+        <f t="shared" si="5"/>
+        <v>6.5444924992420992</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129">
+        <f>AVERAGE('10_trees'!E2:E127,'500_trees'!E2:E127,'1600_trees'!E2:E127)</f>
+        <v>5093.7583607420993</v>
       </c>
     </row>
   </sheetData>
@@ -14273,10 +14285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L70" sqref="A70:L70"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14354,12 +14366,12 @@
         <v>1903286.5430000001</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="0">SUM(H2,G2,E2)</f>
-        <v>1898119.4380709999</v>
+        <f>SUM($E$129,H2,G2)</f>
+        <v>1898111.1866587421</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L33" si="1">PRODUCT(K2,0.001)</f>
-        <v>1898.1194380709999</v>
+        <f t="shared" ref="L2:L33" si="0">PRODUCT(K2,0.001)</f>
+        <v>1898.1111866587421</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -14394,12 +14406,12 @@
         <v>203077.7776</v>
       </c>
       <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">SUM($E$129,H3,G3)</f>
+        <v>201281.00923474209</v>
+      </c>
+      <c r="L3">
         <f t="shared" si="0"/>
-        <v>201241.47846499999</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
-        <v>201.241478465</v>
+        <v>201.2810092347421</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -14434,12 +14446,12 @@
         <v>28127.564910000001</v>
       </c>
       <c r="K4">
+        <f t="shared" si="1"/>
+        <v>26226.778045742099</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
-        <v>26296.727895000004</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>26.296727895000004</v>
+        <v>26.226778045742101</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -14474,12 +14486,12 @@
         <v>12753.523349999999</v>
       </c>
       <c r="K5">
+        <f t="shared" si="1"/>
+        <v>10911.425844742098</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>10982.108593000001</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>10.982108593000001</v>
+        <v>10.911425844742098</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -14514,12 +14526,12 @@
         <v>12318.32242</v>
       </c>
       <c r="K6">
+        <f t="shared" si="1"/>
+        <v>10535.867945742099</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
-        <v>10597.287655</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>10.597287655000001</v>
+        <v>10.535867945742099</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -14554,12 +14566,12 @@
         <v>12172.83654</v>
       </c>
       <c r="K7">
+        <f t="shared" si="1"/>
+        <v>10376.9114177421</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>10430.578232</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>10.430578232</v>
+        <v>10.3769114177421</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -14599,12 +14611,12 @@
         <v>1244555.9650000001</v>
       </c>
       <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1243472.888663742</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>1243512.5860559999</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>1243.5125860559999</v>
+        <v>1243.472888663742</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -14639,12 +14651,12 @@
         <v>134409.9448</v>
       </c>
       <c r="K10">
+        <f t="shared" si="1"/>
+        <v>133421.3061727421</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>133579.47041900002</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>133.57947041900002</v>
+        <v>133.42130617274211</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -14679,12 +14691,12 @@
         <v>21240.678790000002</v>
       </c>
       <c r="K11">
+        <f t="shared" si="1"/>
+        <v>20217.1390237421</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>20278.396369999999</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>20.278396369999999</v>
+        <v>20.217139023742099</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -14719,12 +14731,12 @@
         <v>11030.842070000001</v>
       </c>
       <c r="K12">
+        <f t="shared" si="1"/>
+        <v>9996.1168927420986</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>10084.569931</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>10.084569931000001</v>
+        <v>9.9961168927420996</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -14759,12 +14771,12 @@
         <v>10508.002280000001</v>
       </c>
       <c r="K13">
+        <f t="shared" si="1"/>
+        <v>9449.5008157420998</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
-        <v>9499.8850829999992</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>9.4998850829999988</v>
+        <v>9.4495008157421001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -14809,12 +14821,12 @@
         <v>189191.26420000001</v>
       </c>
       <c r="K16">
+        <f t="shared" si="1"/>
+        <v>185048.3479637421</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="0"/>
-        <v>185061.62810100001</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>185.06162810100003</v>
+        <v>185.04834796374209</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -14849,12 +14861,12 @@
         <v>321994.88569999998</v>
       </c>
       <c r="K17">
+        <f t="shared" si="1"/>
+        <v>320305.36393774208</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
-        <v>320324.52299999999</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>320.324523</v>
+        <v>320.30536393774207</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -14889,12 +14901,12 @@
         <v>38534.679170000003</v>
       </c>
       <c r="K18">
+        <f t="shared" si="1"/>
+        <v>33104.100000742095</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="0"/>
-        <v>33127.944227</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>33.127944227</v>
+        <v>33.104100000742093</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -14929,12 +14941,12 @@
         <v>26582.7055</v>
       </c>
       <c r="K19">
+        <f t="shared" si="1"/>
+        <v>24936.606657742101</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
-        <v>24990.831610000001</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>24.990831610000001</v>
+        <v>24.9366066577421</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -14969,12 +14981,12 @@
         <v>24431.71501</v>
       </c>
       <c r="K20">
+        <f t="shared" si="1"/>
+        <v>22656.193750742099</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
-        <v>22681.021452999998</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>22.681021453</v>
+        <v>22.656193750742098</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -15009,12 +15021,12 @@
         <v>26950.255389999998</v>
       </c>
       <c r="K21">
+        <f t="shared" si="1"/>
+        <v>25766.908659742101</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="0"/>
-        <v>25832.916972999999</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>25.832916973</v>
+        <v>25.7669086597421</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -15049,12 +15061,12 @@
         <v>28567.281480000001</v>
       </c>
       <c r="K22">
+        <f t="shared" si="1"/>
+        <v>26295.392765742101</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
-        <v>26323.248146000002</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>26.323248146000001</v>
+        <v>26.2953927657421</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -15089,12 +15101,12 @@
         <v>595917.51150000002</v>
       </c>
       <c r="K23">
+        <f t="shared" si="1"/>
+        <v>590882.56405174208</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="0"/>
-        <v>590900.18650700001</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>590.90018650700006</v>
+        <v>590.88256405174207</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -15129,12 +15141,12 @@
         <v>77032.773730000001</v>
       </c>
       <c r="K24">
+        <f t="shared" si="1"/>
+        <v>64212.536114742099</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="0"/>
-        <v>64246.331694</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>64.246331694000006</v>
+        <v>64.212536114742107</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -15169,12 +15181,12 @@
         <v>26242.291929999999</v>
       </c>
       <c r="K25">
+        <f t="shared" si="1"/>
+        <v>13504.882828742098</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="0"/>
-        <v>13545.523644000001</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>13.545523644000001</v>
+        <v>13.504882828742099</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -15209,12 +15221,12 @@
         <v>19176.12672</v>
       </c>
       <c r="K26">
+        <f t="shared" si="1"/>
+        <v>7738.2481257420986</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="0"/>
-        <v>7749.051571</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>7.7490515709999999</v>
+        <v>7.738248125742099</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -15249,12 +15261,12 @@
         <v>21178.017619999999</v>
       </c>
       <c r="K27">
+        <f t="shared" si="1"/>
+        <v>7241.5929007420991</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="0"/>
-        <v>7257.1969039999994</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>7.2571969039999997</v>
+        <v>7.2415929007420994</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -15289,12 +15301,12 @@
         <v>46115.511420000003</v>
       </c>
       <c r="K28">
+        <f t="shared" si="1"/>
+        <v>7186.4037678420991</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="0"/>
-        <v>7190.5994420999996</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>7.1905994420999999</v>
+        <v>7.1864037678420996</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -15334,12 +15346,12 @@
         <v>914164.87150000001</v>
       </c>
       <c r="K30">
+        <f t="shared" si="1"/>
+        <v>913352.19125934201</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="0"/>
-        <v>915929.19972859998</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>915.9291997286</v>
+        <v>913.35219125934202</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -15374,12 +15386,12 @@
         <v>114700.4595</v>
       </c>
       <c r="K31">
+        <f t="shared" si="1"/>
+        <v>117189.51276944211</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="0"/>
-        <v>117251.29296769999</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>117.2512929677</v>
+        <v>117.18951276944212</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -15414,12 +15426,12 @@
         <v>15664.607760000001</v>
       </c>
       <c r="K32">
+        <f t="shared" si="1"/>
+        <v>18124.914657342099</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="0"/>
-        <v>18199.4891116</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>18.199489111600002</v>
+        <v>18.124914657342099</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -15454,12 +15466,12 @@
         <v>5532.4988370000001</v>
       </c>
       <c r="K33">
+        <f t="shared" si="1"/>
+        <v>8001.3725921420992</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="0"/>
-        <v>8065.5429364000001</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>8.0655429364</v>
+        <v>8.0013725921420988</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -15494,12 +15506,12 @@
         <v>4343.2235719999999</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="2">SUM(H34,G34,E34)</f>
-        <v>6887.3171809000005</v>
+        <f t="shared" si="1"/>
+        <v>6821.7091726420986</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="3">PRODUCT(K34,0.001)</f>
-        <v>6.8873171809000002</v>
+        <f t="shared" ref="L34:L65" si="2">PRODUCT(K34,0.001)</f>
+        <v>6.8217091726420991</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -15534,12 +15546,12 @@
         <v>4255.2566530000004</v>
       </c>
       <c r="K35">
+        <f t="shared" si="1"/>
+        <v>6717.247502542099</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="2"/>
-        <v>6781.2299727999998</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="3"/>
-        <v>6.7812299728000003</v>
+        <v>6.717247502542099</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -15574,12 +15586,12 @@
         <v>4463.2501599999996</v>
       </c>
       <c r="K36">
+        <f t="shared" si="1"/>
+        <v>6937.5410239420989</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="2"/>
-        <v>7021.7232702000001</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="3"/>
-        <v>7.0217232701999999</v>
+        <v>6.9375410239420994</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -15614,12 +15626,12 @@
         <v>2061831.2990000001</v>
       </c>
       <c r="K37">
+        <f t="shared" si="1"/>
+        <v>2037367.648973742</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="2"/>
-        <v>2037439.943431</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="3"/>
-        <v>2037.4399434310001</v>
+        <v>2037.367648973742</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -15654,12 +15666,12 @@
         <v>227208.75880000001</v>
       </c>
       <c r="K38">
+        <f t="shared" si="1"/>
+        <v>206026.2861177421</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="2"/>
-        <v>206043.725229</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="3"/>
-        <v>206.04372522900002</v>
+        <v>206.0262861177421</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -15694,12 +15706,12 @@
         <v>47782.164570000001</v>
       </c>
       <c r="K39">
+        <f t="shared" si="1"/>
+        <v>26959.630033742098</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="2"/>
-        <v>27004.269367000001</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="3"/>
-        <v>27.004269367000003</v>
+        <v>26.959630033742098</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -15734,12 +15746,12 @@
         <v>31561.147929999999</v>
       </c>
       <c r="K40">
+        <f t="shared" si="1"/>
+        <v>10797.966972742099</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="2"/>
-        <v>10748.253107</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="3"/>
-        <v>10.748253107</v>
+        <v>10.797966972742099</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -15774,12 +15786,12 @@
         <v>31247.363570000001</v>
       </c>
       <c r="K41">
+        <f t="shared" si="1"/>
+        <v>10394.144312742101</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="2"/>
-        <v>10334.671496999999</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="3"/>
-        <v>10.334671497</v>
+        <v>10.394144312742101</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -15814,12 +15826,12 @@
         <v>31410.327430000001</v>
       </c>
       <c r="K42">
+        <f t="shared" si="1"/>
+        <v>10312.433497742099</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="2"/>
-        <v>10265.48934</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="3"/>
-        <v>10.26548934</v>
+        <v>10.312433497742099</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -15859,12 +15871,12 @@
         <v>1332733.121</v>
       </c>
       <c r="K44">
+        <f t="shared" si="1"/>
+        <v>1312506.417287742</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="2"/>
-        <v>1312448.7740969998</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="3"/>
-        <v>1312.4487740969998</v>
+        <v>1312.5064172877421</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -15899,12 +15911,12 @@
         <v>162035.6948</v>
       </c>
       <c r="K45">
+        <f t="shared" si="1"/>
+        <v>141225.40592474211</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="2"/>
-        <v>141235.067106</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="3"/>
-        <v>141.235067106</v>
+        <v>141.22540592474212</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -15939,12 +15951,12 @@
         <v>41379.474399999999</v>
       </c>
       <c r="K46">
+        <f t="shared" si="1"/>
+        <v>20717.234146742099</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="2"/>
-        <v>20721.652027</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="3"/>
-        <v>20.721652027000001</v>
+        <v>20.717234146742101</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -15979,12 +15991,12 @@
         <v>30767.40885</v>
       </c>
       <c r="K47">
+        <f t="shared" si="1"/>
+        <v>10224.222914742099</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="2"/>
-        <v>10250.446319999999</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="3"/>
-        <v>10.25044632</v>
+        <v>10.224222914742098</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -16019,12 +16031,12 @@
         <v>30295.279500000001</v>
       </c>
       <c r="K48">
+        <f t="shared" si="1"/>
+        <v>9702.9493007421006</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="2"/>
-        <v>9705.8866020000005</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="3"/>
-        <v>9.7058866020000014</v>
+        <v>9.7029493007420999</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -16069,12 +16081,12 @@
         <v>179867.24540000001</v>
       </c>
       <c r="K51">
+        <f t="shared" si="1"/>
+        <v>175970.87359374212</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="2"/>
-        <v>176011.93450200002</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="3"/>
-        <v>176.01193450200003</v>
+        <v>175.97087359374211</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -16109,12 +16121,12 @@
         <v>274775.6054</v>
       </c>
       <c r="K52">
+        <f t="shared" si="1"/>
+        <v>273898.16836974211</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="2"/>
-        <v>273898.89362300001</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="3"/>
-        <v>273.89889362299999</v>
+        <v>273.89816836974211</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -16149,12 +16161,12 @@
         <v>28977.34809</v>
       </c>
       <c r="K53">
+        <f t="shared" si="1"/>
+        <v>28188.091054742101</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="2"/>
-        <v>28179.465293000001</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="3"/>
-        <v>28.179465293000003</v>
+        <v>28.188091054742102</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -16189,12 +16201,12 @@
         <v>27023.506880000001</v>
       </c>
       <c r="K54">
+        <f t="shared" si="1"/>
+        <v>25684.4241737421</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="2"/>
-        <v>25702.081913999999</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="3"/>
-        <v>25.702081914000001</v>
+        <v>25.684424173742102</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -16229,12 +16241,12 @@
         <v>26092.872139999999</v>
       </c>
       <c r="K55">
+        <f t="shared" si="1"/>
+        <v>25313.281314742097</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="2"/>
-        <v>25343.607426999999</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="3"/>
-        <v>25.343607426999998</v>
+        <v>25.313281314742095</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -16269,12 +16281,12 @@
         <v>23061.48791</v>
       </c>
       <c r="K56">
+        <f t="shared" si="1"/>
+        <v>22095.0553527421</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="2"/>
-        <v>22128.747696999999</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="3"/>
-        <v>22.128747696999998</v>
+        <v>22.095055352742101</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -16309,12 +16321,12 @@
         <v>25932.854889999999</v>
       </c>
       <c r="K57">
+        <f t="shared" si="1"/>
+        <v>25118.079197742096</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="2"/>
-        <v>25220.971104</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="3"/>
-        <v>25.220971104</v>
+        <v>25.118079197742098</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -16349,12 +16361,12 @@
         <v>615228.73120000004</v>
       </c>
       <c r="K58">
+        <f t="shared" si="1"/>
+        <v>590909.13752774207</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="2"/>
-        <v>590909.8196269999</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="3"/>
-        <v>590.90981962699993</v>
+        <v>590.90913752774213</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -16389,12 +16401,12 @@
         <v>97964.389800000004</v>
       </c>
       <c r="K59">
+        <f t="shared" si="1"/>
+        <v>65264.421000742099</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="2"/>
-        <v>65255.463836999996</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="3"/>
-        <v>65.255463836999994</v>
+        <v>65.264421000742104</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -16429,12 +16441,12 @@
         <v>45703.934430000001</v>
       </c>
       <c r="K60">
+        <f t="shared" si="1"/>
+        <v>13528.223053742098</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="2"/>
-        <v>13519.357443000001</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="3"/>
-        <v>13.519357443000001</v>
+        <v>13.528223053742099</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -16469,12 +16481,12 @@
         <v>39107.012750000002</v>
       </c>
       <c r="K61">
+        <f t="shared" si="1"/>
+        <v>7818.4027837420999</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="2"/>
-        <v>8018.1903839999995</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="3"/>
-        <v>8.0181903840000004</v>
+        <v>7.8184027837421004</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -16509,12 +16521,12 @@
         <v>40733.67095</v>
       </c>
       <c r="K62">
+        <f t="shared" si="1"/>
+        <v>7184.0756102420992</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="2"/>
-        <v>7180.6511885</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="3"/>
-        <v>7.1806511884999997</v>
+        <v>7.1840756102420995</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -16549,12 +16561,12 @@
         <v>65567.905660000004</v>
       </c>
       <c r="K63">
+        <f t="shared" si="1"/>
+        <v>7082.3853177420997</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="2"/>
-        <v>7082.3962690000008</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="3"/>
-        <v>7.0823962690000011</v>
+        <v>7.0823853177420997</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -16594,12 +16606,12 @@
         <v>1073088.73</v>
       </c>
       <c r="K65">
+        <f t="shared" si="1"/>
+        <v>1072083.8545962421</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="2"/>
-        <v>1074378.1694415</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="3"/>
-        <v>1074.3781694414999</v>
+        <v>1072.0838545962422</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -16634,12 +16646,12 @@
         <v>112227.3455</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K71" si="4">SUM(H66,G66,E66)</f>
-        <v>114611.61469230001</v>
+        <f t="shared" si="1"/>
+        <v>114616.4982360421</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L71" si="5">PRODUCT(K66,0.001)</f>
-        <v>114.61161469230001</v>
+        <f t="shared" ref="L66:L71" si="3">PRODUCT(K66,0.001)</f>
+        <v>114.6164982360421</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -16674,12 +16686,12 @@
         <v>14899.73402</v>
       </c>
       <c r="K67">
-        <f t="shared" si="4"/>
-        <v>17299.954417500001</v>
+        <f t="shared" ref="K67:K127" si="4">SUM($E$129,H67,G67)</f>
+        <v>17312.031526242099</v>
       </c>
       <c r="L67">
-        <f t="shared" si="5"/>
-        <v>17.2999544175</v>
+        <f t="shared" si="3"/>
+        <v>17.312031526242098</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -16715,11 +16727,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>8381.2668324999995</v>
+        <v>8213.8047382420991</v>
       </c>
       <c r="L68">
-        <f t="shared" si="5"/>
-        <v>8.3812668324999997</v>
+        <f t="shared" si="3"/>
+        <v>8.2138047382421</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -16755,11 +16767,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>6493.4320446000002</v>
+        <v>6505.7137173420988</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
-        <v>6.4934320446000005</v>
+        <f t="shared" si="3"/>
+        <v>6.5057137173420987</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -16795,11 +16807,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>6414.5376684999992</v>
+        <v>6420.1908272420987</v>
       </c>
       <c r="L70">
-        <f t="shared" si="5"/>
-        <v>6.4145376684999995</v>
+        <f t="shared" si="3"/>
+        <v>6.4201908272420987</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -16835,11 +16847,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>6422.2459789000004</v>
+        <v>6410.1634186420997</v>
       </c>
       <c r="L71">
-        <f t="shared" si="5"/>
-        <v>6.4222459789000004</v>
+        <f t="shared" si="3"/>
+        <v>6.4101634186420995</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -16882,12 +16894,12 @@
         <v>3566736.17863655</v>
       </c>
       <c r="K73">
-        <f t="shared" ref="K73:K78" si="6">SUM(H73,G73,E73)</f>
-        <v>3571806.1664104452</v>
+        <f t="shared" si="4"/>
+        <v>3571827.9884022451</v>
       </c>
       <c r="L73">
-        <f t="shared" ref="L73:L78" si="7">PRODUCT(K73,0.001)</f>
-        <v>3571.8061664104453</v>
+        <f t="shared" ref="L73:L78" si="5">PRODUCT(K73,0.001)</f>
+        <v>3571.827988402245</v>
       </c>
       <c r="M73" t="s">
         <v>31</v>
@@ -16928,12 +16940,12 @@
         <v>359321.03562355001</v>
       </c>
       <c r="K74">
-        <f t="shared" si="6"/>
-        <v>364391.15381240891</v>
+        <f t="shared" si="4"/>
+        <v>364412.83418357279</v>
       </c>
       <c r="L74">
-        <f t="shared" si="7"/>
-        <v>364.3911538124089</v>
+        <f t="shared" si="5"/>
+        <v>364.41283418357278</v>
       </c>
       <c r="M74">
         <v>273.70096755027771</v>
@@ -16974,12 +16986,12 @@
         <v>38333.165407180801</v>
       </c>
       <c r="K75">
-        <f t="shared" si="6"/>
-        <v>43328.27448844914</v>
+        <f t="shared" si="4"/>
+        <v>43424.957053063925</v>
       </c>
       <c r="L75">
-        <f t="shared" si="7"/>
-        <v>43.328274488449139</v>
+        <f t="shared" si="5"/>
+        <v>43.424957053063928</v>
       </c>
       <c r="M75">
         <v>34.558240652084272</v>
@@ -17020,12 +17032,12 @@
         <v>7471.4643955230704</v>
       </c>
       <c r="K76">
-        <f t="shared" si="6"/>
-        <v>12460.995435714722</v>
+        <f t="shared" si="4"/>
+        <v>12563.296334146029</v>
       </c>
       <c r="L76">
-        <f t="shared" si="7"/>
-        <v>12.460995435714722</v>
+        <f t="shared" si="5"/>
+        <v>12.563296334146029</v>
       </c>
       <c r="M76">
         <v>11.21430921554564</v>
@@ -17066,12 +17078,12 @@
         <v>4479.39133644104</v>
       </c>
       <c r="K77">
-        <f t="shared" si="6"/>
-        <v>9470.5295562744195</v>
+        <f t="shared" si="4"/>
+        <v>9571.1941879973492</v>
       </c>
       <c r="L77">
-        <f t="shared" si="7"/>
-        <v>9.4705295562744194</v>
+        <f t="shared" si="5"/>
+        <v>9.5711941879973494</v>
       </c>
       <c r="M77">
         <v>8.9317996501922501</v>
@@ -17112,12 +17124,12 @@
         <v>4341.99929237366</v>
       </c>
       <c r="K78">
-        <f t="shared" si="6"/>
-        <v>9338.173151016239</v>
+        <f t="shared" si="4"/>
+        <v>9433.7828320250592</v>
       </c>
       <c r="L78">
-        <f t="shared" si="7"/>
-        <v>9.3381731510162389</v>
+        <f t="shared" si="5"/>
+        <v>9.4337828320250594</v>
       </c>
       <c r="M78">
         <v>9.0050983428955007</v>
@@ -17174,12 +17186,12 @@
         <v>268549.559116363</v>
       </c>
       <c r="K81">
-        <f>SUM(H81,G81,E81)</f>
-        <v>273700.96755027771</v>
+        <f t="shared" si="4"/>
+        <v>273642.11632430408</v>
       </c>
       <c r="L81">
         <f>PRODUCT(K81,0.001)</f>
-        <v>273.70096755027771</v>
+        <v>273.64211632430408</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -17214,12 +17226,12 @@
         <v>29419.627428054799</v>
       </c>
       <c r="K82">
-        <f>SUM(H82,G82,E82)</f>
-        <v>34558.240652084271</v>
+        <f t="shared" si="4"/>
+        <v>34512.198464272908</v>
       </c>
       <c r="L82">
         <f>PRODUCT(K82,0.001)</f>
-        <v>34.558240652084272</v>
+        <v>34.512198464272906</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -17254,12 +17266,12 @@
         <v>6068.8333511352503</v>
       </c>
       <c r="K83">
-        <f>SUM(H83,G83,E83)</f>
-        <v>11214.30921554564</v>
+        <f t="shared" si="4"/>
+        <v>11161.352888940328</v>
       </c>
       <c r="L83">
         <f>PRODUCT(K83,0.001)</f>
-        <v>11.21430921554564</v>
+        <v>11.161352888940328</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -17294,12 +17306,12 @@
         <v>3797.4779605865401</v>
       </c>
       <c r="K84">
-        <f>SUM(H84,G84,E84)</f>
-        <v>8931.7996501922498</v>
+        <f t="shared" si="4"/>
+        <v>8889.9812859282501</v>
       </c>
       <c r="L84">
         <f>PRODUCT(K84,0.001)</f>
-        <v>8.9317996501922501</v>
+        <v>8.8899812859282505</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -17334,12 +17346,12 @@
         <v>3857.59449005126</v>
       </c>
       <c r="K85">
-        <f>SUM(H85,G85,E85)</f>
-        <v>9005.0983428955005</v>
+        <f t="shared" si="4"/>
+        <v>8950.1276177153595</v>
       </c>
       <c r="L85">
         <f>PRODUCT(K85,0.001)</f>
-        <v>9.0050983428955007</v>
+        <v>8.9501276177153599</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -17390,12 +17402,12 @@
         <v>263232.18154907197</v>
       </c>
       <c r="K88">
-        <f>SUM(H88,G88,E88)</f>
-        <v>268244.8832988732</v>
+        <f t="shared" si="4"/>
+        <v>268323.91239821701</v>
       </c>
       <c r="L88">
         <f>PRODUCT(K88,0.001)</f>
-        <v>268.24488329887322</v>
+        <v>268.32391239821703</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -17430,12 +17442,12 @@
         <v>29182.560682296698</v>
       </c>
       <c r="K89">
-        <f>SUM(H89,G89,E89)</f>
-        <v>34213.563919067317</v>
+        <f t="shared" si="4"/>
+        <v>34274.3475598082</v>
       </c>
       <c r="L89">
         <f>PRODUCT(K89,0.001)</f>
-        <v>34.213563919067319</v>
+        <v>34.274347559808199</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -17470,12 +17482,12 @@
         <v>6031.3422679901096</v>
       </c>
       <c r="K90">
-        <f>SUM(H90,G90,E90)</f>
-        <v>11086.391448974591</v>
+        <f t="shared" si="4"/>
+        <v>11123.033539651389</v>
       </c>
       <c r="L90">
         <f>PRODUCT(K90,0.001)</f>
-        <v>11.086391448974592</v>
+        <v>11.12303353965139</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -17510,12 +17522,12 @@
         <v>3900.0315666198699</v>
       </c>
       <c r="K91">
-        <f>SUM(H91,G91,E91)</f>
-        <v>8940.4599666595295</v>
+        <f t="shared" si="4"/>
+        <v>8991.7619389281208</v>
       </c>
       <c r="L91">
         <f>PRODUCT(K91,0.001)</f>
-        <v>8.9404599666595299</v>
+        <v>8.9917619389281214</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -17550,12 +17562,12 @@
         <v>3801.95069313049</v>
       </c>
       <c r="K92">
-        <f>SUM(H92,G92,E92)</f>
-        <v>8820.0173377990595</v>
+        <f t="shared" si="4"/>
+        <v>8893.6953705534888</v>
       </c>
       <c r="L92">
         <f>PRODUCT(K92,0.001)</f>
-        <v>8.8200173377990598</v>
+        <v>8.8936953705534894</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -17590,12 +17602,12 @@
         <v>2041732.8829999999</v>
       </c>
       <c r="K93">
-        <f t="shared" ref="K93:K111" si="8">SUM(H93,G93,E93)</f>
-        <v>2033401.888058</v>
+        <f t="shared" si="4"/>
+        <v>2033410.9060187421</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L127" si="9">PRODUCT(K93,0.001)</f>
-        <v>2033.4018880579999</v>
+        <f t="shared" ref="L93:L127" si="6">PRODUCT(K93,0.001)</f>
+        <v>2033.4109060187423</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -17630,12 +17642,12 @@
         <v>223982.69149999999</v>
       </c>
       <c r="K94">
-        <f t="shared" si="8"/>
-        <v>218522.71504499999</v>
+        <f t="shared" si="4"/>
+        <v>218538.17841374208</v>
       </c>
       <c r="L94">
-        <f t="shared" si="9"/>
-        <v>218.52271504499998</v>
+        <f t="shared" si="6"/>
+        <v>218.53817841374209</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -17670,12 +17682,12 @@
         <v>32912.001129999997</v>
       </c>
       <c r="K95">
-        <f t="shared" si="8"/>
-        <v>27428.367851999999</v>
+        <f t="shared" si="4"/>
+        <v>27418.995395742098</v>
       </c>
       <c r="L95">
-        <f t="shared" si="9"/>
-        <v>27.428367852000001</v>
+        <f t="shared" si="6"/>
+        <v>27.418995395742098</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -17710,12 +17722,12 @@
         <v>16268.245940000001</v>
       </c>
       <c r="K96">
-        <f t="shared" si="8"/>
-        <v>10849.403619000001</v>
+        <f t="shared" si="4"/>
+        <v>10860.6548467421</v>
       </c>
       <c r="L96">
-        <f t="shared" si="9"/>
-        <v>10.849403619</v>
+        <f t="shared" si="6"/>
+        <v>10.860654846742101</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -17750,12 +17762,12 @@
         <v>15781.90041</v>
       </c>
       <c r="K97">
-        <f t="shared" si="8"/>
-        <v>10359.729051999999</v>
+        <f t="shared" si="4"/>
+        <v>10368.0718107421</v>
       </c>
       <c r="L97">
-        <f t="shared" si="9"/>
-        <v>10.359729051999999</v>
+        <f t="shared" si="6"/>
+        <v>10.3680718107421</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -17790,12 +17802,12 @@
         <v>15761.388059999999</v>
       </c>
       <c r="K98">
-        <f t="shared" si="8"/>
-        <v>10415.970564000001</v>
+        <f t="shared" si="4"/>
+        <v>10313.7216727421</v>
       </c>
       <c r="L98">
-        <f t="shared" si="9"/>
-        <v>10.415970564000002</v>
+        <f t="shared" si="6"/>
+        <v>10.313721672742099</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -17835,12 +17847,12 @@
         <v>1353737.0789999999</v>
       </c>
       <c r="K100">
-        <f t="shared" si="8"/>
-        <v>1348309.4857269998</v>
+        <f t="shared" si="4"/>
+        <v>1348311.131546742</v>
       </c>
       <c r="L100">
-        <f t="shared" si="9"/>
-        <v>1348.3094857269998</v>
+        <f t="shared" si="6"/>
+        <v>1348.311131546742</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -17875,12 +17887,12 @@
         <v>151244.77929999999</v>
       </c>
       <c r="K101">
-        <f t="shared" si="8"/>
-        <v>146000.67685600001</v>
+        <f t="shared" si="4"/>
+        <v>146009.40346874209</v>
       </c>
       <c r="L101">
-        <f t="shared" si="9"/>
-        <v>146.00067685600001</v>
+        <f t="shared" si="6"/>
+        <v>146.00940346874211</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -17915,12 +17927,12 @@
         <v>26104.001049999999</v>
       </c>
       <c r="K102">
-        <f t="shared" si="8"/>
-        <v>20841.285464000001</v>
+        <f t="shared" si="4"/>
+        <v>20833.6591847421</v>
       </c>
       <c r="L102">
-        <f t="shared" si="9"/>
-        <v>20.841285464000002</v>
+        <f t="shared" si="6"/>
+        <v>20.8336591847421</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -17955,12 +17967,12 @@
         <v>15483.28161</v>
       </c>
       <c r="K103">
-        <f t="shared" si="8"/>
-        <v>10221.475124000001</v>
+        <f t="shared" si="4"/>
+        <v>10216.2892977421</v>
       </c>
       <c r="L103">
-        <f t="shared" si="9"/>
-        <v>10.221475124000001</v>
+        <f t="shared" si="6"/>
+        <v>10.216289297742099</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -17995,12 +18007,12 @@
         <v>15088.93585</v>
       </c>
       <c r="K104">
-        <f t="shared" si="8"/>
-        <v>9762.5069619999995</v>
+        <f t="shared" si="4"/>
+        <v>9763.3831667421</v>
       </c>
       <c r="L104">
-        <f t="shared" si="9"/>
-        <v>9.7625069619999998</v>
+        <f t="shared" si="6"/>
+        <v>9.7633831667421003</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -18045,12 +18057,12 @@
         <v>182151.77770000001</v>
       </c>
       <c r="K107">
-        <f t="shared" si="8"/>
-        <v>179468.589771</v>
+        <f t="shared" si="4"/>
+        <v>179380.2344847421</v>
       </c>
       <c r="L107">
-        <f t="shared" si="9"/>
-        <v>179.46858977100001</v>
+        <f t="shared" si="6"/>
+        <v>179.38023448474212</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -18085,12 +18097,12 @@
         <v>296531.67320000002</v>
       </c>
       <c r="K108">
-        <f t="shared" si="8"/>
-        <v>296000.65997600002</v>
+        <f t="shared" si="4"/>
+        <v>296020.23320374213</v>
       </c>
       <c r="L108">
-        <f t="shared" si="9"/>
-        <v>296.00065997600001</v>
+        <f t="shared" si="6"/>
+        <v>296.02023320374212</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -18125,12 +18137,12 @@
         <v>30457.030770000001</v>
       </c>
       <c r="K109">
-        <f t="shared" si="8"/>
-        <v>29916.008707000001</v>
+        <f t="shared" si="4"/>
+        <v>29931.184065742098</v>
       </c>
       <c r="L109">
-        <f t="shared" si="9"/>
-        <v>29.916008707000003</v>
+        <f t="shared" si="6"/>
+        <v>29.931184065742098</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -18165,12 +18177,12 @@
         <v>27012.124540000001</v>
       </c>
       <c r="K110">
-        <f t="shared" si="8"/>
-        <v>26437.063934000002</v>
+        <f t="shared" si="4"/>
+        <v>26460.006492742097</v>
       </c>
       <c r="L110">
-        <f t="shared" si="9"/>
-        <v>26.437063934000001</v>
+        <f t="shared" si="6"/>
+        <v>26.460006492742099</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -18205,12 +18217,12 @@
         <v>24129.776000000002</v>
       </c>
       <c r="K111">
-        <f t="shared" si="8"/>
-        <v>23763.825658999998</v>
+        <f t="shared" si="4"/>
+        <v>23668.253918742099</v>
       </c>
       <c r="L111">
-        <f t="shared" si="9"/>
-        <v>23.763825658999998</v>
+        <f t="shared" si="6"/>
+        <v>23.668253918742099</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -18245,12 +18257,12 @@
         <v>24798.740389999999</v>
       </c>
       <c r="K112">
-        <f t="shared" ref="K112:K127" si="10">SUM(H112,G112,E112)</f>
-        <v>24377.096885999999</v>
+        <f t="shared" si="4"/>
+        <v>24388.817082742102</v>
       </c>
       <c r="L112">
-        <f t="shared" si="9"/>
-        <v>24.377096886</v>
+        <f t="shared" si="6"/>
+        <v>24.388817082742101</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -18285,12 +18297,12 @@
         <v>21376.916410000002</v>
       </c>
       <c r="K113">
-        <f t="shared" si="10"/>
-        <v>20944.317814000002</v>
+        <f t="shared" si="4"/>
+        <v>20950.371277742099</v>
       </c>
       <c r="L113">
-        <f t="shared" si="9"/>
-        <v>20.944317814000001</v>
+        <f t="shared" si="6"/>
+        <v>20.9503712777421</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -18325,12 +18337,12 @@
         <v>595265.62089999998</v>
       </c>
       <c r="K114">
-        <f t="shared" si="10"/>
-        <v>586378.40127099992</v>
+        <f t="shared" si="4"/>
+        <v>586378.02577774203</v>
       </c>
       <c r="L114">
-        <f t="shared" si="9"/>
-        <v>586.37840127099992</v>
+        <f t="shared" si="6"/>
+        <v>586.3780257777421</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -18365,12 +18377,12 @@
         <v>82676.686530000006</v>
       </c>
       <c r="K115">
-        <f t="shared" si="10"/>
-        <v>65974.177601000003</v>
+        <f t="shared" si="4"/>
+        <v>65987.681645742094</v>
       </c>
       <c r="L115">
-        <f t="shared" si="9"/>
-        <v>65.974177601000008</v>
+        <f t="shared" si="6"/>
+        <v>65.9876816457421</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -18405,12 +18417,12 @@
         <v>30390.121459999998</v>
       </c>
       <c r="K116">
-        <f t="shared" si="10"/>
-        <v>13679.381131999999</v>
+        <f t="shared" si="4"/>
+        <v>13681.702391742099</v>
       </c>
       <c r="L116">
-        <f t="shared" si="9"/>
-        <v>13.679381132</v>
+        <f t="shared" si="6"/>
+        <v>13.6817023917421</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -18445,12 +18457,12 @@
         <v>22934.057710000001</v>
       </c>
       <c r="K117">
-        <f t="shared" si="10"/>
-        <v>7724.0257270000002</v>
+        <f t="shared" si="4"/>
+        <v>7706.2471077420996</v>
       </c>
       <c r="L117">
-        <f t="shared" si="9"/>
-        <v>7.7240257270000008</v>
+        <f t="shared" si="6"/>
+        <v>7.7062471077421</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -18485,12 +18497,12 @@
         <v>25006.521219999999</v>
       </c>
       <c r="K118">
-        <f t="shared" si="10"/>
-        <v>7292.925596</v>
+        <f t="shared" si="4"/>
+        <v>7193.9089457420996</v>
       </c>
       <c r="L118">
-        <f t="shared" si="9"/>
-        <v>7.2929255959999999</v>
+        <f t="shared" si="6"/>
+        <v>7.1939089457421002</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -18525,12 +18537,12 @@
         <v>50304.579259999999</v>
       </c>
       <c r="K119">
-        <f t="shared" si="10"/>
-        <v>7171.4205734999996</v>
+        <f t="shared" si="4"/>
+        <v>7179.7931352420992</v>
       </c>
       <c r="L119">
-        <f t="shared" si="9"/>
-        <v>7.1714205734999998</v>
+        <f t="shared" si="6"/>
+        <v>7.1797931352420994</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -18570,12 +18582,12 @@
         <v>912023.3665</v>
       </c>
       <c r="K121">
-        <f t="shared" si="10"/>
-        <v>913220.07985490002</v>
+        <f t="shared" si="4"/>
+        <v>911144.8502266421</v>
       </c>
       <c r="L121">
-        <f t="shared" si="9"/>
-        <v>913.22007985490006</v>
+        <f t="shared" si="6"/>
+        <v>911.14485022664212</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -18610,12 +18622,12 @@
         <v>111861.8639</v>
       </c>
       <c r="K122">
-        <f t="shared" si="10"/>
-        <v>114339.35623210001</v>
+        <f t="shared" si="4"/>
+        <v>114332.3133638421</v>
       </c>
       <c r="L122">
-        <f t="shared" si="9"/>
-        <v>114.3393562321</v>
+        <f t="shared" si="6"/>
+        <v>114.3323133638421</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -18650,12 +18662,12 @@
         <v>15442.16871</v>
       </c>
       <c r="K123">
-        <f t="shared" si="10"/>
-        <v>17851.552250299999</v>
+        <f t="shared" si="4"/>
+        <v>17923.420448042099</v>
       </c>
       <c r="L123">
-        <f t="shared" si="9"/>
-        <v>17.851552250299999</v>
+        <f t="shared" si="6"/>
+        <v>17.923420448042101</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -18690,12 +18702,12 @@
         <v>5387.1972560000004</v>
       </c>
       <c r="K124">
-        <f t="shared" si="10"/>
-        <v>7812.3331063000005</v>
+        <f t="shared" si="4"/>
+        <v>7868.8776650420996</v>
       </c>
       <c r="L124">
-        <f t="shared" si="9"/>
-        <v>7.8123331063000006</v>
+        <f t="shared" si="6"/>
+        <v>7.8688776650421</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -18730,12 +18742,12 @@
         <v>4321.2533000000003</v>
       </c>
       <c r="K125">
-        <f t="shared" si="10"/>
-        <v>6733.9510915000001</v>
+        <f t="shared" si="4"/>
+        <v>6787.5583332420993</v>
       </c>
       <c r="L125">
-        <f t="shared" si="9"/>
-        <v>6.7339510914999998</v>
+        <f t="shared" si="6"/>
+        <v>6.7875583332420995</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -18770,12 +18782,12 @@
         <v>4278.3284190000004</v>
       </c>
       <c r="K126">
-        <f t="shared" si="10"/>
-        <v>6633.7940693999999</v>
+        <f t="shared" si="4"/>
+        <v>6720.0904051420994</v>
       </c>
       <c r="L126">
-        <f t="shared" si="9"/>
-        <v>6.6337940694000004</v>
+        <f t="shared" si="6"/>
+        <v>6.7200904051420993</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -18810,12 +18822,21 @@
         <v>4471.761227</v>
       </c>
       <c r="K127">
-        <f t="shared" si="10"/>
-        <v>6899.8439314999996</v>
+        <f t="shared" si="4"/>
+        <v>6925.1125022420993</v>
       </c>
       <c r="L127">
-        <f t="shared" si="9"/>
-        <v>6.8998439314999995</v>
+        <f t="shared" si="6"/>
+        <v>6.925112502242099</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129">
+        <f>'10_trees'!E129</f>
+        <v>5093.7583607420993</v>
       </c>
     </row>
   </sheetData>
@@ -18886,10 +18907,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView topLeftCell="D106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L64" sqref="K64:L64"/>
+    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18967,12 +18988,12 @@
         <v>1832061.4620000001</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="0">SUM(H2,G2,E2)</f>
-        <v>1821864.9826799999</v>
+        <f>SUM($E$129,H2,G2)</f>
+        <v>1821615.855546742</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L33" si="1">PRODUCT(K2,0.001)</f>
-        <v>1821.8649826799999</v>
+        <f t="shared" ref="L2:L33" si="0">PRODUCT(K2,0.001)</f>
+        <v>1821.6158555467421</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -19007,12 +19028,12 @@
         <v>204010.53450000001</v>
       </c>
       <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">SUM($E$129,H3,G3)</f>
+        <v>196798.73918274208</v>
+      </c>
+      <c r="L3">
         <f t="shared" si="0"/>
-        <v>196771.95283899998</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
-        <v>196.77195283899999</v>
+        <v>196.79873918274208</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -19047,12 +19068,12 @@
         <v>33405.318740000002</v>
       </c>
       <c r="K4">
+        <f t="shared" si="1"/>
+        <v>26227.800381742098</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
-        <v>26106.130120000002</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>26.106130120000003</v>
+        <v>26.227800381742099</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -19087,12 +19108,12 @@
         <v>26956.736089999999</v>
       </c>
       <c r="K5">
+        <f t="shared" si="1"/>
+        <v>19772.904408742099</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>19652.133223000001</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>19.652133223</v>
+        <v>19.7729044087421</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -19127,12 +19148,12 @@
         <v>26475.39401</v>
       </c>
       <c r="K6">
+        <f t="shared" si="1"/>
+        <v>19278.9788407421</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
-        <v>19154.314040999998</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>19.154314040999999</v>
+        <v>19.278978840742102</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -19167,12 +19188,12 @@
         <v>26571.916819999999</v>
       </c>
       <c r="K7">
+        <f t="shared" si="1"/>
+        <v>19327.105539742101</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>19203.073025999998</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>19.203073025999998</v>
+        <v>19.327105539742099</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -19182,6 +19203,10 @@
       <c r="B8">
         <v>2200000</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -19215,12 +19240,12 @@
         <v>1184632.2220000001</v>
       </c>
       <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1178049.530541742</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>1177931.9756230002</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>1177.9319756230002</v>
+        <v>1178.0495305417421</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -19255,12 +19280,12 @@
         <v>138654.32569999999</v>
       </c>
       <c r="K10">
+        <f t="shared" si="1"/>
+        <v>132147.92966174209</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>132036.178805</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>132.03617880500002</v>
+        <v>132.1479296617421</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -19295,12 +19320,12 @@
         <v>27271.778109999999</v>
       </c>
       <c r="K11">
+        <f t="shared" si="1"/>
+        <v>20549.4966677421</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>20437.777759000001</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>20.437777758999999</v>
+        <v>20.549496667742101</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -19335,12 +19360,12 @@
         <v>21863.90424</v>
       </c>
       <c r="K12">
+        <f t="shared" si="1"/>
+        <v>15458.408609742099</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>15340.180873000001</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>15.340180873000001</v>
+        <v>15.458408609742099</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -19375,12 +19400,12 @@
         <v>21818.848129999998</v>
       </c>
       <c r="K13">
+        <f t="shared" si="1"/>
+        <v>14812.138811742099</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
-        <v>14693.790436000001</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>14.693790436000002</v>
+        <v>14.8121388117421</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -19390,6 +19415,10 @@
       <c r="B14">
         <v>100000</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -19398,6 +19427,10 @@
       <c r="B15">
         <v>2200000</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -19431,12 +19464,12 @@
         <v>450530.38189999998</v>
       </c>
       <c r="K16">
+        <f t="shared" si="1"/>
+        <v>437823.8034287421</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="0"/>
-        <v>437704.73645899998</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>437.704736459</v>
+        <v>437.82380342874211</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -19471,12 +19504,12 @@
         <v>1264159.9669999999</v>
       </c>
       <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1254160.0850447421</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
-        <v>1254060.8237449999</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>1254.0608237449999</v>
+        <v>1254.1600850447421</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -19511,12 +19544,12 @@
         <v>106046.9298</v>
       </c>
       <c r="K18">
+        <f t="shared" si="1"/>
+        <v>95979.584714742101</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="0"/>
-        <v>95844.982390000005</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>95.844982390000013</v>
+        <v>95.979584714742103</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -19551,12 +19584,12 @@
         <v>81560.005430000005</v>
       </c>
       <c r="K19">
+        <f t="shared" si="1"/>
+        <v>71531.563295742104</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
-        <v>71408.551928999994</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>71.408551928999998</v>
+        <v>71.531563295742103</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -19591,12 +19624,12 @@
         <v>67092.581269999995</v>
       </c>
       <c r="K20">
+        <f t="shared" si="1"/>
+        <v>57030.8506607421</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
-        <v>56912.603850999993</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>56.912603850999993</v>
+        <v>57.030850660742104</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -19631,12 +19664,12 @@
         <v>67306.847099999999</v>
       </c>
       <c r="K21">
+        <f t="shared" si="1"/>
+        <v>57277.994410742103</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="0"/>
-        <v>57152.301788999997</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>57.152301788999999</v>
+        <v>57.277994410742103</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -19671,12 +19704,12 @@
         <v>67597.706789999997</v>
       </c>
       <c r="K22">
+        <f t="shared" si="1"/>
+        <v>57581.774488742099</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
-        <v>57463.597058999992</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>57.463597058999994</v>
+        <v>57.581774488742099</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -19711,12 +19744,12 @@
         <v>588829.01639999996</v>
       </c>
       <c r="K23">
+        <f t="shared" si="1"/>
+        <v>576836.85085974215</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="0"/>
-        <v>576712.15148900007</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>576.71215148900012</v>
+        <v>576.83685085974219</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -19751,12 +19784,12 @@
         <v>78836.935039999997</v>
       </c>
       <c r="K24">
+        <f t="shared" si="1"/>
+        <v>66739.267367742097</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="0"/>
-        <v>66619.650842999996</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>66.619650843000002</v>
+        <v>66.739267367742102</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -19791,12 +19824,12 @@
         <v>27037.155869999999</v>
       </c>
       <c r="K25">
+        <f t="shared" si="1"/>
+        <v>14989.148632742101</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="0"/>
-        <v>14860.020876</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>14.860020876</v>
+        <v>14.989148632742101</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -19831,12 +19864,12 @@
         <v>27727.82993</v>
       </c>
       <c r="K26">
+        <f t="shared" si="1"/>
+        <v>10349.7188247421</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="0"/>
-        <v>10231.124877</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>10.231124877000001</v>
+        <v>10.3497188247421</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -19871,12 +19904,12 @@
         <v>36268.080470000001</v>
       </c>
       <c r="K27">
+        <f t="shared" si="1"/>
+        <v>9868.4992947420997</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="0"/>
-        <v>9757.5602529999996</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>9.7575602529999994</v>
+        <v>9.8684992947420991</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -19911,12 +19944,12 @@
         <v>116360.59359999999</v>
       </c>
       <c r="K28">
+        <f t="shared" si="1"/>
+        <v>9715.7643007420993</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="0"/>
-        <v>9604.6972280000009</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>9.6046972280000009</v>
+        <v>9.7157643007420997</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -19926,6 +19959,10 @@
       <c r="B29">
         <v>2200000</v>
       </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -19959,12 +19996,12 @@
         <v>1045479.105</v>
       </c>
       <c r="K30">
+        <f t="shared" si="1"/>
+        <v>1044371.3352353422</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="0"/>
-        <v>1046738.4428486</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>1046.7384428486</v>
+        <v>1044.3713352353423</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -19999,12 +20036,12 @@
         <v>128557.1404</v>
       </c>
       <c r="K31">
+        <f t="shared" si="1"/>
+        <v>130871.10762714209</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="0"/>
-        <v>130740.03318239999</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>130.7400331824</v>
+        <v>130.87110762714209</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -20039,12 +20076,12 @@
         <v>17687.60109</v>
       </c>
       <c r="K32">
+        <f t="shared" si="1"/>
+        <v>20005.6131046421</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="0"/>
-        <v>19903.6355019</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>19.903635501900002</v>
+        <v>20.005613104642102</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -20079,12 +20116,12 @@
         <v>6468.4078689999997</v>
       </c>
       <c r="K33">
+        <f t="shared" si="1"/>
+        <v>8782.6972168420998</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="0"/>
-        <v>8661.8523600999997</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>8.6618523600999993</v>
+        <v>8.7826972168421005</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -20119,12 +20156,12 @@
         <v>6828.5350799999997</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="2">SUM(H34,G34,E34)</f>
-        <v>8999.5896815999986</v>
+        <f t="shared" si="1"/>
+        <v>9117.0997783420989</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="3">PRODUCT(K34,0.001)</f>
-        <v>8.9995896815999981</v>
+        <f t="shared" ref="L34:L65" si="2">PRODUCT(K34,0.001)</f>
+        <v>9.1170997783420997</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -20159,12 +20196,12 @@
         <v>6915.2355189999998</v>
       </c>
       <c r="K35">
+        <f t="shared" si="1"/>
+        <v>9226.0413327420993</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="2"/>
-        <v>9108.7713240000012</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="3"/>
-        <v>9.108771324000001</v>
+        <v>9.2260413327420991</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -20199,12 +20236,12 @@
         <v>7199.8329160000003</v>
       </c>
       <c r="K36">
+        <f t="shared" si="1"/>
+        <v>9477.5519531420996</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="2"/>
-        <v>9363.2285594000004</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="3"/>
-        <v>9.3632285594000013</v>
+        <v>9.4775519531421004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -20239,12 +20276,12 @@
         <v>2014958.909</v>
       </c>
       <c r="K37">
+        <f t="shared" si="1"/>
+        <v>1946450.9372397419</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="2"/>
-        <v>1946329.3137080001</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="3"/>
-        <v>1946.3293137080002</v>
+        <v>1946.450937239742</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -20279,12 +20316,12 @@
         <v>272118.27020000003</v>
       </c>
       <c r="K38">
+        <f t="shared" si="1"/>
+        <v>206698.71543874207</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="2"/>
-        <v>206573.54256899998</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="3"/>
-        <v>206.57354256899998</v>
+        <v>206.69871543874208</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -20319,12 +20356,12 @@
         <v>93083.325620000003</v>
       </c>
       <c r="K39">
+        <f t="shared" si="1"/>
+        <v>26926.585208742101</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="2"/>
-        <v>26814.880842999999</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="3"/>
-        <v>26.814880843000001</v>
+        <v>26.9265852087421</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -20359,12 +20396,12 @@
         <v>84891.578439999997</v>
       </c>
       <c r="K40">
+        <f t="shared" si="1"/>
+        <v>19513.469709742098</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="2"/>
-        <v>19417.434689999998</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="3"/>
-        <v>19.41743469</v>
+        <v>19.513469709742097</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -20399,12 +20436,12 @@
         <v>84024.214269999997</v>
       </c>
       <c r="K41">
+        <f t="shared" si="1"/>
+        <v>19014.278901742098</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="2"/>
-        <v>18834.965464000001</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="3"/>
-        <v>18.834965464</v>
+        <v>19.014278901742099</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -20439,12 +20476,12 @@
         <v>83892.570730000007</v>
       </c>
       <c r="K42">
+        <f t="shared" si="1"/>
+        <v>19049.374357742097</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="2"/>
-        <v>18890.810965999997</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="3"/>
-        <v>18.890810965999997</v>
+        <v>19.049374357742099</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -20454,6 +20491,10 @@
       <c r="B43">
         <v>2200000</v>
       </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -20487,12 +20528,12 @@
         <v>1322958.5530000001</v>
       </c>
       <c r="K44">
+        <f t="shared" si="1"/>
+        <v>1259429.1218077422</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="2"/>
-        <v>1259252.302467</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="3"/>
-        <v>1259.2523024669999</v>
+        <v>1259.4291218077421</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -20527,12 +20568,12 @@
         <v>204505.07430000001</v>
       </c>
       <c r="K45">
+        <f t="shared" si="1"/>
+        <v>139622.0109377421</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="2"/>
-        <v>139507.87160300001</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="3"/>
-        <v>139.50787160300001</v>
+        <v>139.62201093774212</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -20567,12 +20608,12 @@
         <v>84767.756699999998</v>
       </c>
       <c r="K46">
+        <f t="shared" si="1"/>
+        <v>20467.435376742098</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="2"/>
-        <v>20362.254859000001</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="3"/>
-        <v>20.362254859</v>
+        <v>20.467435376742099</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -20607,12 +20648,12 @@
         <v>80895.8652</v>
       </c>
       <c r="K47">
+        <f t="shared" si="1"/>
+        <v>15379.961506742098</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="2"/>
-        <v>15264.725923999998</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="3"/>
-        <v>15.264725923999999</v>
+        <v>15.379961506742099</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -20647,12 +20688,12 @@
         <v>79604.261159999995</v>
       </c>
       <c r="K48">
+        <f t="shared" si="1"/>
+        <v>14832.573429742099</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="2"/>
-        <v>14711.517811000002</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="3"/>
-        <v>14.711517811000002</v>
+        <v>14.8325734297421</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -20662,6 +20703,10 @@
       <c r="B49">
         <v>100000</v>
       </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -20670,6 +20715,10 @@
       <c r="B50">
         <v>2200000</v>
       </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -20703,12 +20752,12 @@
         <v>397787.4644</v>
       </c>
       <c r="K51">
+        <f t="shared" si="1"/>
+        <v>386813.57747274212</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="2"/>
-        <v>386683.98885300005</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="3"/>
-        <v>386.68398885300007</v>
+        <v>386.81357747274211</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -20743,12 +20792,12 @@
         <v>1065262.9040000001</v>
       </c>
       <c r="K52">
+        <f t="shared" si="1"/>
+        <v>1056878.6131547419</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="2"/>
-        <v>1056763.0580909997</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="3"/>
-        <v>1056.7630580909997</v>
+        <v>1056.878613154742</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -20783,12 +20832,12 @@
         <v>78600.554940000002</v>
       </c>
       <c r="K53">
+        <f t="shared" si="1"/>
+        <v>70239.858165742102</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="2"/>
-        <v>70117.326973999996</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="3"/>
-        <v>70.117326973999994</v>
+        <v>70.239858165742106</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -20823,12 +20872,12 @@
         <v>60567.445760000002</v>
       </c>
       <c r="K54">
+        <f t="shared" si="1"/>
+        <v>52155.147809742099</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="2"/>
-        <v>52027.596476000006</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="3"/>
-        <v>52.027596476000006</v>
+        <v>52.155147809742097</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -20863,12 +20912,12 @@
         <v>54950.39415</v>
       </c>
       <c r="K55">
+        <f t="shared" si="1"/>
+        <v>46541.690608742101</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="2"/>
-        <v>46417.740588000001</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="3"/>
-        <v>46.417740588000001</v>
+        <v>46.541690608742101</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -20903,12 +20952,12 @@
         <v>53400.678630000002</v>
       </c>
       <c r="K56">
+        <f t="shared" si="1"/>
+        <v>45455.772179742104</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="2"/>
-        <v>45338.332893999999</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="3"/>
-        <v>45.338332893999997</v>
+        <v>45.455772179742105</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -20943,12 +20992,12 @@
         <v>55722.251179999999</v>
       </c>
       <c r="K57">
+        <f t="shared" si="1"/>
+        <v>47325.886740742098</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="2"/>
-        <v>47198.606727999999</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="3"/>
-        <v>47.198606728000001</v>
+        <v>47.325886740742099</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -20983,12 +21032,12 @@
         <v>657595.25419999997</v>
       </c>
       <c r="K58">
+        <f t="shared" si="1"/>
+        <v>587627.37896174216</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="2"/>
-        <v>587501.413589</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="3"/>
-        <v>587.50141358899998</v>
+        <v>587.62737896174212</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -21023,12 +21072,12 @@
         <v>136336.48800000001</v>
       </c>
       <c r="K59">
+        <f t="shared" si="1"/>
+        <v>66398.454204742098</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="2"/>
-        <v>66292.508363000001</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="3"/>
-        <v>66.292508362999996</v>
+        <v>66.398454204742094</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -21063,12 +21112,12 @@
         <v>84366.404060000001</v>
       </c>
       <c r="K60">
+        <f t="shared" si="1"/>
+        <v>14551.502005742099</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="2"/>
-        <v>14440.184593000002</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="3"/>
-        <v>14.440184593000001</v>
+        <v>14.551502005742099</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -21103,12 +21152,12 @@
         <v>84918.293950000007</v>
       </c>
       <c r="K61">
+        <f t="shared" si="1"/>
+        <v>9164.7203127420998</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="2"/>
-        <v>9040.2431489999999</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="3"/>
-        <v>9.0402431490000001</v>
+        <v>9.1647203127420998</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -21143,12 +21192,12 @@
         <v>93071.166280000005</v>
       </c>
       <c r="K62">
+        <f t="shared" si="1"/>
+        <v>8798.9669007420998</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="2"/>
-        <v>8678.9548400000003</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="3"/>
-        <v>8.6789548400000012</v>
+        <v>8.7989669007420996</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -21183,12 +21232,12 @@
         <v>172731.20569999999</v>
       </c>
       <c r="K63">
+        <f t="shared" si="1"/>
+        <v>8822.5879827420995</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="2"/>
-        <v>8696.42353</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="3"/>
-        <v>8.6964235300000006</v>
+        <v>8.8225879827420997</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -21198,6 +21247,10 @@
       <c r="B64">
         <v>2200000</v>
       </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -21231,12 +21284,12 @@
         <v>1139585.3829999999</v>
       </c>
       <c r="K65">
+        <f t="shared" si="1"/>
+        <v>1138462.6439971421</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="2"/>
-        <v>1140698.5095744</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="3"/>
-        <v>1140.6985095744001</v>
+        <v>1138.4626439971421</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -21271,12 +21324,12 @@
         <v>119378.87239999999</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K92" si="4">SUM(H66,G66,E66)</f>
-        <v>121663.41259030001</v>
+        <f t="shared" si="1"/>
+        <v>121786.0238910421</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L92" si="5">PRODUCT(K66,0.001)</f>
-        <v>121.66341259030001</v>
+        <f t="shared" ref="L66:L92" si="3">PRODUCT(K66,0.001)</f>
+        <v>121.78602389104211</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -21311,12 +21364,12 @@
         <v>15796.519759999999</v>
       </c>
       <c r="K67">
-        <f t="shared" si="4"/>
-        <v>18095.693586099998</v>
+        <f t="shared" ref="K67:K127" si="4">SUM($E$129,H67,G67)</f>
+        <v>18221.4613098421</v>
       </c>
       <c r="L67">
-        <f t="shared" si="5"/>
-        <v>18.095693586099998</v>
+        <f t="shared" si="3"/>
+        <v>18.221461309842098</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -21352,11 +21405,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>7945.1096058999992</v>
+        <v>8068.7735246420998</v>
       </c>
       <c r="L68">
-        <f t="shared" si="5"/>
-        <v>7.945109605899999</v>
+        <f t="shared" si="3"/>
+        <v>8.0687735246421006</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -21392,11 +21445,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>6857.2597506000002</v>
+        <v>6987.4959153420996</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
-        <v>6.8572597505999999</v>
+        <f t="shared" si="3"/>
+        <v>6.9874959153420999</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -21432,11 +21485,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>6883.2218647999998</v>
+        <v>7002.3741885420986</v>
       </c>
       <c r="L70">
-        <f t="shared" si="5"/>
-        <v>6.8832218648000003</v>
+        <f t="shared" si="3"/>
+        <v>7.0023741885420989</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -21472,11 +21525,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>7002.7244094999996</v>
+        <v>7116.9865292421</v>
       </c>
       <c r="L71">
-        <f t="shared" si="5"/>
-        <v>7.0027244094999999</v>
+        <f t="shared" si="3"/>
+        <v>7.1169865292420997</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -21512,11 +21565,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
-        <v>84658019.252777129</v>
+        <v>84655501.039282709</v>
       </c>
       <c r="L72">
-        <f t="shared" si="5"/>
-        <v>84658.019252777129</v>
+        <f t="shared" si="3"/>
+        <v>84655.50103928271</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -21552,11 +21605,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
-        <v>9484740.7276630439</v>
+        <v>9484832.9970997591</v>
       </c>
       <c r="L73">
-        <f t="shared" si="5"/>
-        <v>9484.7407276630438</v>
+        <f t="shared" si="3"/>
+        <v>9484.8329970997584</v>
       </c>
       <c r="M73" t="s">
         <v>31</v>
@@ -21598,11 +21651,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
-        <v>950549.54290389968</v>
+        <v>950667.00030982308</v>
       </c>
       <c r="L74">
-        <f t="shared" si="5"/>
-        <v>950.54954290389969</v>
+        <f t="shared" si="3"/>
+        <v>950.66700030982315</v>
       </c>
       <c r="M74">
         <v>736.38901042938164</v>
@@ -21644,11 +21697,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
-        <v>100659.90853309631</v>
+        <v>100774.74238097525</v>
       </c>
       <c r="L75">
-        <f t="shared" si="5"/>
-        <v>100.65990853309631</v>
+        <f t="shared" si="3"/>
+        <v>100.77474238097525</v>
       </c>
       <c r="M75">
         <v>81.215068578720093</v>
@@ -21690,11 +21743,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
-        <v>16267.709970474229</v>
+        <v>16395.033375619409</v>
       </c>
       <c r="L76">
-        <f t="shared" si="5"/>
-        <v>16.267709970474229</v>
+        <f t="shared" si="3"/>
+        <v>16.395033375619409</v>
       </c>
       <c r="M76">
         <v>15.905364751815782</v>
@@ -21736,11 +21789,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="4"/>
-        <v>9396.9423770904614</v>
+        <v>9491.9963043913995</v>
       </c>
       <c r="L77">
-        <f t="shared" si="5"/>
-        <v>9.3969423770904612</v>
+        <f t="shared" si="3"/>
+        <v>9.4919963043913995</v>
       </c>
       <c r="M77">
         <v>10.028391599655141</v>
@@ -21782,11 +21835,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="4"/>
-        <v>8909.0313911438006</v>
+        <v>9025.6381195769391</v>
       </c>
       <c r="L78">
-        <f t="shared" si="5"/>
-        <v>8.9090313911438006</v>
+        <f t="shared" si="3"/>
+        <v>9.0256381195769393</v>
       </c>
       <c r="M78">
         <v>9.7003445625304998</v>
@@ -21802,6 +21855,10 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -21810,6 +21867,10 @@
       <c r="B80">
         <v>10</v>
       </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -21844,11 +21905,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="4"/>
-        <v>736389.01042938163</v>
+        <v>736321.80096328049</v>
       </c>
       <c r="L81">
-        <f t="shared" si="5"/>
-        <v>736.38901042938164</v>
+        <f t="shared" si="3"/>
+        <v>736.32180096328045</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -21884,11 +21945,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="4"/>
-        <v>81215.068578720093</v>
+        <v>81151.288763879304</v>
       </c>
       <c r="L82">
-        <f t="shared" si="5"/>
-        <v>81.215068578720093</v>
+        <f t="shared" si="3"/>
+        <v>81.151288763879307</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -21924,11 +21985,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="4"/>
-        <v>15905.364751815781</v>
+        <v>15821.09548270559</v>
       </c>
       <c r="L83">
-        <f t="shared" si="5"/>
-        <v>15.905364751815782</v>
+        <f t="shared" si="3"/>
+        <v>15.821095482705591</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -21964,11 +22025,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="4"/>
-        <v>10028.39159965514</v>
+        <v>9928.5223644957587</v>
       </c>
       <c r="L84">
-        <f t="shared" si="5"/>
-        <v>10.028391599655141</v>
+        <f t="shared" si="3"/>
+        <v>9.928522364495759</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -22004,11 +22065,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="4"/>
-        <v>9700.3445625304994</v>
+        <v>9578.4635704741395</v>
       </c>
       <c r="L85">
-        <f t="shared" si="5"/>
-        <v>9.7003445625304998</v>
+        <f t="shared" si="3"/>
+        <v>9.5784635704741401</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -22018,6 +22079,10 @@
       <c r="B86">
         <v>1</v>
       </c>
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -22026,6 +22091,10 @@
       <c r="B87">
         <v>10</v>
       </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -22060,11 +22129,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="4"/>
-        <v>736544.94738578785</v>
+        <v>736582.04032599775</v>
       </c>
       <c r="L88">
-        <f t="shared" si="5"/>
-        <v>736.54494738578785</v>
+        <f t="shared" si="3"/>
+        <v>736.58204032599781</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -22100,11 +22169,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="4"/>
-        <v>79957.713842391968</v>
+        <v>80028.362051843171</v>
       </c>
       <c r="L89">
-        <f t="shared" si="5"/>
-        <v>79.957713842391968</v>
+        <f t="shared" si="3"/>
+        <v>80.028362051843175</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -22140,11 +22209,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="4"/>
-        <v>15872.192859649651</v>
+        <v>15648.721234200959</v>
       </c>
       <c r="L90">
-        <f t="shared" si="5"/>
-        <v>15.872192859649651</v>
+        <f t="shared" si="3"/>
+        <v>15.648721234200959</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -22180,11 +22249,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="4"/>
-        <v>10040.660381317131</v>
+        <v>10064.321295617579</v>
       </c>
       <c r="L91">
-        <f t="shared" si="5"/>
-        <v>10.040660381317132</v>
+        <f t="shared" si="3"/>
+        <v>10.06432129561758</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -22220,11 +22289,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="4"/>
-        <v>9434.36598777769</v>
+        <v>9508.3713692412293</v>
       </c>
       <c r="L92">
-        <f t="shared" si="5"/>
-        <v>9.4343659877776904</v>
+        <f t="shared" si="3"/>
+        <v>9.5083713692412299</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -22259,12 +22328,12 @@
         <v>2073278.2520000001</v>
       </c>
       <c r="K93">
-        <f t="shared" ref="K93:K111" si="6">SUM(H93,G93,E93)</f>
-        <v>2049816.650986</v>
+        <f t="shared" si="4"/>
+        <v>2049935.9010607421</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L127" si="7">PRODUCT(K93,0.001)</f>
-        <v>2049.8166509859998</v>
+        <f t="shared" ref="L93:L127" si="5">PRODUCT(K93,0.001)</f>
+        <v>2049.9359010607423</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -22299,12 +22368,12 @@
         <v>232407.80230000001</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
-        <v>211696.68077700003</v>
+        <f t="shared" si="4"/>
+        <v>211823.64273974212</v>
       </c>
       <c r="L94">
-        <f t="shared" si="7"/>
-        <v>211.69668077700004</v>
+        <f t="shared" si="5"/>
+        <v>211.82364273974213</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -22339,12 +22408,12 @@
         <v>48388.55171</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
-        <v>27741.438152999999</v>
+        <f t="shared" si="4"/>
+        <v>27865.695256742099</v>
       </c>
       <c r="L95">
-        <f t="shared" si="7"/>
-        <v>27.741438153000001</v>
+        <f t="shared" si="5"/>
+        <v>27.8656952567421</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -22379,12 +22448,12 @@
         <v>39977.045539999999</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
-        <v>19413.097381</v>
+        <f t="shared" si="4"/>
+        <v>19537.6756347421</v>
       </c>
       <c r="L96">
-        <f t="shared" si="7"/>
-        <v>19.413097381</v>
+        <f t="shared" si="5"/>
+        <v>19.537675634742101</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -22419,12 +22488,12 @@
         <v>39523.671869999998</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
-        <v>18897.471901999997</v>
+        <f t="shared" si="4"/>
+        <v>19025.662435742099</v>
       </c>
       <c r="L97">
-        <f t="shared" si="7"/>
-        <v>18.897471901999999</v>
+        <f t="shared" si="5"/>
+        <v>19.025662435742099</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -22459,12 +22528,12 @@
         <v>39460.392</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
-        <v>18975.958103999998</v>
+        <f t="shared" si="4"/>
+        <v>19075.271617742099</v>
       </c>
       <c r="L98">
-        <f t="shared" si="7"/>
-        <v>18.975958103999996</v>
+        <f t="shared" si="5"/>
+        <v>19.0752716177421</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -22474,6 +22543,10 @@
       <c r="B99">
         <v>2200000</v>
       </c>
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -22507,12 +22580,12 @@
         <v>1310608.03</v>
       </c>
       <c r="K100">
-        <f t="shared" si="6"/>
-        <v>1290186.0132599999</v>
+        <f t="shared" si="4"/>
+        <v>1290311.218315742</v>
       </c>
       <c r="L100">
-        <f t="shared" si="7"/>
-        <v>1290.18601326</v>
+        <f t="shared" si="5"/>
+        <v>1290.3112183157421</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -22547,12 +22620,12 @@
         <v>162289.2475</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
-        <v>141821.92470100001</v>
+        <f t="shared" si="4"/>
+        <v>141952.3253747421</v>
       </c>
       <c r="L101">
-        <f t="shared" si="7"/>
-        <v>141.821924701</v>
+        <f t="shared" si="5"/>
+        <v>141.95232537474209</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -22587,12 +22660,12 @@
         <v>41285.354140000003</v>
       </c>
       <c r="K102">
-        <f t="shared" si="6"/>
-        <v>20806.101326</v>
+        <f t="shared" si="4"/>
+        <v>20932.204027742097</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
-        <v>20.806101326</v>
+        <f t="shared" si="5"/>
+        <v>20.932204027742095</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -22627,12 +22700,12 @@
         <v>35826.987029999997</v>
       </c>
       <c r="K103">
-        <f t="shared" si="6"/>
-        <v>15415.726185</v>
+        <f t="shared" si="4"/>
+        <v>15519.285694742099</v>
       </c>
       <c r="L103">
-        <f t="shared" si="7"/>
-        <v>15.415726185</v>
+        <f t="shared" si="5"/>
+        <v>15.519285694742099</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -22667,12 +22740,12 @@
         <v>35365.650179999997</v>
       </c>
       <c r="K104">
-        <f t="shared" si="6"/>
-        <v>14698.477268000001</v>
+        <f t="shared" si="4"/>
+        <v>14822.770134742099</v>
       </c>
       <c r="L104">
-        <f t="shared" si="7"/>
-        <v>14.698477268000001</v>
+        <f t="shared" si="5"/>
+        <v>14.822770134742099</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -22682,6 +22755,10 @@
       <c r="B105">
         <v>100000</v>
       </c>
+      <c r="K105">
+        <f t="shared" si="4"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
@@ -22690,6 +22767,10 @@
       <c r="B106">
         <v>2200000</v>
       </c>
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -22723,12 +22804,12 @@
         <v>418734.42550000001</v>
       </c>
       <c r="K107">
-        <f t="shared" si="6"/>
-        <v>408530.13472199999</v>
+        <f t="shared" si="4"/>
+        <v>408674.19868774211</v>
       </c>
       <c r="L107">
-        <f t="shared" si="7"/>
-        <v>408.53013472200001</v>
+        <f t="shared" si="5"/>
+        <v>408.67419868774215</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -22763,12 +22844,12 @@
         <v>1141993.6340000001</v>
       </c>
       <c r="K108">
-        <f t="shared" si="6"/>
-        <v>1134387.6718869999</v>
+        <f t="shared" si="4"/>
+        <v>1134518.552497742</v>
       </c>
       <c r="L108">
-        <f t="shared" si="7"/>
-        <v>1134.3876718869999</v>
+        <f t="shared" si="5"/>
+        <v>1134.5185524977421</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -22803,12 +22884,12 @@
         <v>75553.234100000001</v>
       </c>
       <c r="K109">
-        <f t="shared" si="6"/>
-        <v>67888.349533000001</v>
+        <f t="shared" si="4"/>
+        <v>68022.938505742102</v>
       </c>
       <c r="L109">
-        <f t="shared" si="7"/>
-        <v>67.888349532999996</v>
+        <f t="shared" si="5"/>
+        <v>68.022938505742104</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -22843,12 +22924,12 @@
         <v>57955.09863</v>
       </c>
       <c r="K110">
-        <f t="shared" si="6"/>
-        <v>50392.097238000002</v>
+        <f t="shared" si="4"/>
+        <v>50516.982336742098</v>
       </c>
       <c r="L110">
-        <f t="shared" si="7"/>
-        <v>50.392097238000005</v>
+        <f t="shared" si="5"/>
+        <v>50.516982336742096</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -22883,12 +22964,12 @@
         <v>53155.117030000001</v>
       </c>
       <c r="K111">
-        <f t="shared" si="6"/>
-        <v>45575.148109000002</v>
+        <f t="shared" si="4"/>
+        <v>45703.2416057421</v>
       </c>
       <c r="L111">
-        <f t="shared" si="7"/>
-        <v>45.575148109000004</v>
+        <f t="shared" si="5"/>
+        <v>45.7032416057421</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -22923,12 +23004,12 @@
         <v>53001.777650000004</v>
       </c>
       <c r="K112">
-        <f t="shared" ref="K112:K127" si="8">SUM(H112,G112,E112)</f>
-        <v>45403.706308000001</v>
+        <f t="shared" si="4"/>
+        <v>45534.358274742095</v>
       </c>
       <c r="L112">
-        <f t="shared" si="7"/>
-        <v>45.403706308000004</v>
+        <f t="shared" si="5"/>
+        <v>45.534358274742097</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -22963,12 +23044,12 @@
         <v>53443.68982</v>
       </c>
       <c r="K113">
-        <f t="shared" si="8"/>
-        <v>45831.948283999998</v>
+        <f t="shared" si="4"/>
+        <v>45942.383785742095</v>
       </c>
       <c r="L113">
-        <f t="shared" si="7"/>
-        <v>45.831948283999999</v>
+        <f t="shared" si="5"/>
+        <v>45.942383785742095</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -23003,12 +23084,12 @@
         <v>616424.18720000004</v>
       </c>
       <c r="K114">
-        <f t="shared" si="8"/>
-        <v>590830.61576399999</v>
+        <f t="shared" si="4"/>
+        <v>590966.41924074211</v>
       </c>
       <c r="L114">
-        <f t="shared" si="7"/>
-        <v>590.83061576399996</v>
+        <f t="shared" si="5"/>
+        <v>590.96641924074208</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -23043,12 +23124,12 @@
         <v>91507.617710000006</v>
       </c>
       <c r="K115">
-        <f t="shared" si="8"/>
-        <v>65952.916624000005</v>
+        <f t="shared" si="4"/>
+        <v>66061.414021742108</v>
       </c>
       <c r="L115">
-        <f t="shared" si="7"/>
-        <v>65.952916624000011</v>
+        <f t="shared" si="5"/>
+        <v>66.06141402174211</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -23083,12 +23164,12 @@
         <v>39874.749179999999</v>
       </c>
       <c r="K116">
-        <f t="shared" si="8"/>
-        <v>14419.331073000001</v>
+        <f t="shared" si="4"/>
+        <v>14542.129293742099</v>
       </c>
       <c r="L116">
-        <f t="shared" si="7"/>
-        <v>14.419331073000002</v>
+        <f t="shared" si="5"/>
+        <v>14.542129293742098</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -23123,12 +23204,12 @@
         <v>40027.718780000003</v>
       </c>
       <c r="K117">
-        <f t="shared" si="8"/>
-        <v>9099.7145170000003</v>
+        <f t="shared" si="4"/>
+        <v>9238.8188997421003</v>
       </c>
       <c r="L117">
-        <f t="shared" si="7"/>
-        <v>9.0997145170000007</v>
+        <f t="shared" si="5"/>
+        <v>9.2388188997420997</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -23163,12 +23244,12 @@
         <v>48485.754249999998</v>
       </c>
       <c r="K118">
-        <f t="shared" si="8"/>
-        <v>8633.550643999999</v>
+        <f t="shared" si="4"/>
+        <v>8763.3750597420985</v>
       </c>
       <c r="L118">
-        <f t="shared" si="7"/>
-        <v>8.6335506439999996</v>
+        <f t="shared" si="5"/>
+        <v>8.7633750597420992</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -23203,12 +23284,12 @@
         <v>128442.8153</v>
       </c>
       <c r="K119">
-        <f t="shared" si="8"/>
-        <v>8647.8836540000011</v>
+        <f t="shared" si="4"/>
+        <v>8779.5701187421</v>
       </c>
       <c r="L119">
-        <f t="shared" si="7"/>
-        <v>8.647883654000001</v>
+        <f t="shared" si="5"/>
+        <v>8.7795701187421002</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -23218,6 +23299,10 @@
       <c r="B120">
         <v>2200000</v>
       </c>
+      <c r="K120">
+        <f t="shared" si="4"/>
+        <v>5093.7583607420993</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -23251,12 +23336,12 @@
         <v>1059995.317</v>
       </c>
       <c r="K121">
-        <f t="shared" si="8"/>
-        <v>1060548.2356924</v>
+        <f t="shared" si="4"/>
+        <v>1058558.4741171421</v>
       </c>
       <c r="L121">
-        <f t="shared" si="7"/>
-        <v>1060.5482356924001</v>
+        <f t="shared" si="5"/>
+        <v>1058.5584741171422</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -23291,12 +23376,12 @@
         <v>126623.61930000001</v>
       </c>
       <c r="K122">
-        <f t="shared" si="8"/>
-        <v>128585.74934569999</v>
+        <f t="shared" si="4"/>
+        <v>128717.69997844209</v>
       </c>
       <c r="L122">
-        <f t="shared" si="7"/>
-        <v>128.58574934570001</v>
+        <f t="shared" si="5"/>
+        <v>128.71769997844208</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -23331,12 +23416,12 @@
         <v>17735.21399</v>
       </c>
       <c r="K123">
-        <f t="shared" si="8"/>
-        <v>19703.334091000001</v>
+        <f t="shared" si="4"/>
+        <v>19839.070572742101</v>
       </c>
       <c r="L123">
-        <f t="shared" si="7"/>
-        <v>19.703334091000002</v>
+        <f t="shared" si="5"/>
+        <v>19.839070572742102</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -23371,12 +23456,12 @@
         <v>6474.95532</v>
       </c>
       <c r="K124">
-        <f t="shared" si="8"/>
-        <v>8452.3515704000001</v>
+        <f t="shared" si="4"/>
+        <v>8579.9675151420997</v>
       </c>
       <c r="L124">
-        <f t="shared" si="7"/>
-        <v>8.4523515704000012</v>
+        <f t="shared" si="5"/>
+        <v>8.5799675151420995</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -23411,12 +23496,12 @@
         <v>6103.3842560000003</v>
       </c>
       <c r="K125">
-        <f t="shared" si="8"/>
-        <v>8050.4450804000007</v>
+        <f t="shared" si="4"/>
+        <v>8184.5886871420989</v>
       </c>
       <c r="L125">
-        <f t="shared" si="7"/>
-        <v>8.0504450804000012</v>
+        <f t="shared" si="5"/>
+        <v>8.1845886871420994</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -23451,12 +23536,12 @@
         <v>6174.473524</v>
       </c>
       <c r="K126">
-        <f t="shared" si="8"/>
-        <v>8152.9219154000002</v>
+        <f t="shared" si="4"/>
+        <v>8279.3970271420985</v>
       </c>
       <c r="L126">
-        <f t="shared" si="7"/>
-        <v>8.1529219154000003</v>
+        <f t="shared" si="5"/>
+        <v>8.2793970271420996</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -23491,12 +23576,21 @@
         <v>6528.9182659999997</v>
       </c>
       <c r="K127">
-        <f t="shared" si="8"/>
-        <v>8514.6555907000002</v>
+        <f t="shared" si="4"/>
+        <v>8642.2751114420989</v>
       </c>
       <c r="L127">
-        <f t="shared" si="7"/>
-        <v>8.5146555907000003</v>
+        <f t="shared" si="5"/>
+        <v>8.6422751114420997</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129">
+        <f>'10_trees'!E129</f>
+        <v>5093.7583607420993</v>
       </c>
     </row>
   </sheetData>
@@ -23557,7 +23651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -23606,19 +23700,19 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L8)</f>
-        <v>6.3441569811000003</v>
+        <v>6.4706611798421001</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L9:'10_trees'!L15)</f>
-        <v>6.8843429097</v>
+        <v>6.9676096604420996</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L23:'10_trees'!L29)</f>
-        <v>6.3948528762999999</v>
+        <v>6.5258760612420996</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L30:'10_trees'!L36)</f>
-        <v>6.2555918694999999</v>
+        <v>6.3736188572420991</v>
       </c>
       <c r="H3">
         <v>8.3000000000000007</v>
@@ -23649,19 +23743,19 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L8)</f>
-        <v>10.430578232</v>
+        <v>10.3769114177421</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L9:'500_trees'!L15)</f>
-        <v>9.4998850829999988</v>
+        <v>9.4495008157421001</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L23:'500_trees'!L29)</f>
-        <v>7.1905994420999999</v>
+        <v>7.1864037678420996</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L30:'500_trees'!L36)</f>
-        <v>6.7812299728000003</v>
+        <v>6.717247502542099</v>
       </c>
       <c r="H4">
         <v>20.3</v>
@@ -23692,19 +23786,19 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L8)</f>
-        <v>19.154314040999999</v>
+        <v>19.278978840742102</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L9:'1600_trees'!L15)</f>
-        <v>14.693790436000002</v>
+        <v>14.8121388117421</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L23:'1600_trees'!L29)</f>
-        <v>9.6046972280000009</v>
+        <v>9.7157643007420997</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L30:'1600_trees'!L36)</f>
-        <v>8.6618523600999993</v>
+        <v>8.7826972168421005</v>
       </c>
       <c r="H5">
         <v>45.2</v>
@@ -23778,24 +23872,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L37:'10_trees'!L43)</f>
-        <v>6.3562030791000002</v>
+        <v>6.4969744838420995</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L44:'10_trees'!L50)</f>
-        <v>7.1632485390000005</v>
+        <v>7.3002071537421003</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L58:'10_trees'!L64)</f>
-        <v>6.3850290777999996</v>
+        <v>6.501368300542099</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L65:'10_trees'!L71)</f>
-        <v>6.0794575211000002</v>
+        <v>6.1669888657420993</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L86:'10_trees'!L92)</f>
-        <v>8.3517563343048007</v>
+        <v>8.4150195282683384</v>
       </c>
       <c r="H9">
         <v>8.1</v>
@@ -23831,24 +23925,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L37:'500_trees'!L43)</f>
-        <v>10.26548934</v>
+        <v>10.312433497742099</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L44:'500_trees'!L50)</f>
-        <v>9.7058866020000014</v>
+        <v>9.7029493007420999</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L58:'500_trees'!L64)</f>
-        <v>7.0823962690000011</v>
+        <v>7.0823853177420997</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L65:'500_trees'!L71)</f>
-        <v>6.4145376684999995</v>
+        <v>6.4101634186420995</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L86:'500_trees'!L92)</f>
-        <v>8.8200173377990598</v>
+        <v>8.8936953705534894</v>
       </c>
       <c r="H10">
         <v>19.100000000000001</v>
@@ -23884,24 +23978,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L37:'1600_trees'!L43)</f>
-        <v>18.834965464</v>
+        <v>19.014278901742099</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L44:'1600_trees'!L50)</f>
-        <v>14.711517811000002</v>
+        <v>14.8325734297421</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L58:'1600_trees'!L64)</f>
-        <v>8.6789548400000012</v>
+        <v>8.7989669007420996</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L65:'1600_trees'!L71)</f>
-        <v>6.8572597505999999</v>
+        <v>6.9874959153420999</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L86:'1600_trees'!L92)</f>
-        <v>9.4343659877776904</v>
+        <v>9.5083713692412299</v>
       </c>
       <c r="H11">
         <v>35.799999999999997</v>
@@ -23974,19 +24068,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L93:'10_trees'!L99)</f>
-        <v>6.3429629800000003</v>
+        <v>6.4573149837420996</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L100:'10_trees'!L106)</f>
-        <v>7.1673526760000001</v>
+        <v>7.2725515527420992</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L114:'10_trees'!L120)</f>
-        <v>6.3451008795000003</v>
+        <v>6.4903094932420995</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L121:'10_trees'!L127)</f>
-        <v>6.3105320933999991</v>
+        <v>6.3771052521420986</v>
       </c>
       <c r="H15">
         <v>8.1</v>
@@ -24017,19 +24111,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L93:'500_trees'!L99)</f>
-        <v>10.359729051999999</v>
+        <v>10.313721672742099</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L100:'500_trees'!L106)</f>
-        <v>9.7625069619999998</v>
+        <v>9.7633831667421003</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L114:'500_trees'!L120)</f>
-        <v>7.1714205734999998</v>
+        <v>7.1797931352420994</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L121:'500_trees'!L127)</f>
-        <v>6.6337940694000004</v>
+        <v>6.7200904051420993</v>
       </c>
       <c r="H16">
         <v>14.5</v>
@@ -24060,19 +24154,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L93:'1600_trees'!L99)</f>
-        <v>18.897471901999999</v>
+        <v>19.025662435742099</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L100:'1600_trees'!L106)</f>
-        <v>14.698477268000001</v>
+        <v>14.822770134742099</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L114:'1600_trees'!L120)</f>
-        <v>8.6335506439999996</v>
+        <v>8.7633750597420992</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L121:'1600_trees'!L127)</f>
-        <v>8.0504450804000012</v>
+        <v>8.1845886871420994</v>
       </c>
       <c r="H17">
         <v>29.5</v>

--- a/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/higgs/higgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\higgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F919B21-4AF8-41B4-97F6-BA4D06E1E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118892C2-EBDA-4F88-9E67-AE08634651BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10104" yWindow="2448" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="34">
   <si>
     <t>query size</t>
   </si>
@@ -2139,13 +2139,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.4706611798421001</c:v>
+                  <c:v>6.3955107630081534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.3769114177421</c:v>
+                  <c:v>10.298581450908154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.278978840742102</c:v>
+                  <c:v>19.18461307890815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,13 +2263,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.9676096604420996</c:v>
+                  <c:v>6.8904519976081531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4495008157421001</c:v>
+                  <c:v>9.3555293979081533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.8121388117421</c:v>
+                  <c:v>14.696943133908153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,13 +2387,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.5258760612420996</c:v>
+                  <c:v>6.4342294634081529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1864037678420996</c:v>
+                  <c:v>7.0863519610081536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7157643007420997</c:v>
+                  <c:v>9.6046441499081521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,13 +2511,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3736188572420991</c:v>
+                  <c:v>6.8262923659081522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.717247502542099</c:v>
+                  <c:v>7.1539746229081524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7826972168421005</c:v>
+                  <c:v>9.2234004439081527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3307,13 +3307,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.4969744838420995</c:v>
+                  <c:v>6.3956554831081522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.312433497742099</c:v>
+                  <c:v>10.232473224908153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.014278901742099</c:v>
+                  <c:v>18.938006248908152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3431,13 +3431,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.3002071537421003</c:v>
+                  <c:v>7.2207144199081528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7029493007420999</c:v>
+                  <c:v>9.5767260489081529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.8325734297421</c:v>
+                  <c:v>14.718031733908152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3555,13 +3555,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.501368300542099</c:v>
+                  <c:v>6.4284790457081531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0823853177420997</c:v>
+                  <c:v>6.9898951949081534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7989669007420996</c:v>
+                  <c:v>8.6701541839081528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,13 +3679,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.1669888657420993</c:v>
+                  <c:v>6.606784194808152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4101634186420995</c:v>
+                  <c:v>6.8575681151081529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9874959153420999</c:v>
+                  <c:v>7.4357026519081533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,13 +3803,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.4150195282683384</c:v>
+                  <c:v>8.3649340571076145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8936953705534894</c:v>
+                  <c:v>8.8314033449799236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5083713692412299</c:v>
+                  <c:v>9.4475110472351744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4467,13 +4467,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.4573149837420996</c:v>
+                  <c:v>6.3958507479081526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.313721672742099</c:v>
+                  <c:v>10.233374446908154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.025662435742099</c:v>
+                  <c:v>18.92940386890815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4591,13 +4591,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.2725515527420992</c:v>
+                  <c:v>7.2043171829081531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7633831667421003</c:v>
+                  <c:v>9.5731092399081543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.822770134742099</c:v>
+                  <c:v>14.725384324908154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4715,13 +4715,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.4903094932420995</c:v>
+                  <c:v>6.4125576914081526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1797931352420994</c:v>
+                  <c:v>7.091015428408153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7633750597420992</c:v>
+                  <c:v>8.6824110449081537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4839,13 +4839,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3771052521420986</c:v>
+                  <c:v>6.8122693003081523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7200904051420993</c:v>
+                  <c:v>7.1465075909081524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1845886871420994</c:v>
+                  <c:v>8.6251271669081522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9225,8 +9225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9304,12 +9304,12 @@
         <v>1839956.3770000001</v>
       </c>
       <c r="K2">
-        <f>SUM($E$129,H2,G2)</f>
-        <v>1837208.8916737421</v>
+        <f>SUM($E$129,$H$129,G2)</f>
+        <v>1837135.1400589081</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L33" si="0">PRODUCT(K2,0.001)</f>
-        <v>1837.2088916737421</v>
+        <v>1837.1351400589083</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -9344,12 +9344,12 @@
         <v>263155.71860000002</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">SUM($E$129,H3,G3)</f>
-        <v>264360.59838374209</v>
+        <f t="shared" ref="K3:K66" si="1">SUM($E$129,$H$129,G3)</f>
+        <v>264265.08725890814</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>264.36059838374211</v>
+        <v>264.26508725890812</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -9385,11 +9385,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>32566.741954742098</v>
+        <v>32424.67864890815</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>32.566741954742099</v>
+        <v>32.424678648908149</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -9425,11 +9425,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>8553.9765517421001</v>
+        <v>8464.6128119081532</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>8.5539765517420996</v>
+        <v>8.4646128119081538</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -9465,11 +9465,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>6785.5751672420993</v>
+        <v>6711.0155524081529</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>6.785575167242099</v>
+        <v>6.7110155524081527</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9505,11 +9505,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>6524.955765842099</v>
+        <v>6443.3580340081526</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>6.5249557658420994</v>
+        <v>6.4433580340081527</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -9545,11 +9545,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>6470.6611798421</v>
+        <v>6395.5107630081529</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>6.4706611798421001</v>
+        <v>6.3955107630081534</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -9585,11 +9585,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>1277816.9094597423</v>
+        <v>1277663.7160589083</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>1277.8169094597422</v>
+        <v>1277.6637160589082</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -9625,11 +9625,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>166618.22132374209</v>
+        <v>166377.09795890813</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>166.61822132374209</v>
+        <v>166.37709795890814</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -9665,11 +9665,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>19472.611440742097</v>
+        <v>19378.125038908154</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>19.472611440742099</v>
+        <v>19.378125038908156</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -9705,11 +9705,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>8315.0379817420999</v>
+        <v>8211.8113939081522</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>8.3150379817420994</v>
+        <v>8.2118113939081532</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -9745,11 +9745,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>7199.6216937420986</v>
+        <v>7029.9356879081524</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>7.1996216937420989</v>
+        <v>7.0299356879081527</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -9785,11 +9785,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>7360.2450052421</v>
+        <v>6992.2991694081529</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>7.3602450052421</v>
+        <v>6.9922991694081533</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -9825,11 +9825,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>6967.6096604420991</v>
+        <v>6890.4519976081529</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>6.9676096604420996</v>
+        <v>6.8904519976081531</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -9865,11 +9865,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>109926.84871074211</v>
+        <v>109760.23925890816</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>109.92684871074211</v>
+        <v>109.76023925890816</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -9905,11 +9905,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>19622.579587742101</v>
+        <v>19451.846208908151</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>19.622579587742102</v>
+        <v>19.451846208908151</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -9945,11 +9945,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>8862.9868197420983</v>
+        <v>8780.0215189081537</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>8.8629868197420993</v>
+        <v>8.7800215189081534</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -9985,11 +9985,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>7749.2361237420992</v>
+        <v>7501.917928908153</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>7.749236123742099</v>
+        <v>7.5019179289081528</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10025,11 +10025,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>7203.6416688420995</v>
+        <v>7124.2080630081527</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>7.2036416688421001</v>
+        <v>7.1242080630081528</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10065,11 +10065,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>7302.0599057420986</v>
+        <v>7232.050031908153</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>7.302059905742099</v>
+        <v>7.2320500319081535</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10105,11 +10105,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>7824.6076267420995</v>
+        <v>7763.9389929081526</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>7.8246076267420994</v>
+        <v>7.7639389929081526</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10145,11 +10145,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>621888.13596574205</v>
+        <v>621643.31925890816</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>621.88813596574209</v>
+        <v>621.64331925890815</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10185,11 +10185,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>63533.8246977421</v>
+        <v>63391.847698908154</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>63.533824697742105</v>
+        <v>63.391847698908158</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -10225,11 +10225,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>12533.929125742099</v>
+        <v>12450.840085908152</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>12.5339291257421</v>
+        <v>12.450840085908153</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10265,11 +10265,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>7216.769949742099</v>
+        <v>7131.6784319081526</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>7.2167699497420994</v>
+        <v>7.1316784319081528</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -10305,11 +10305,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>6617.5601639421002</v>
+        <v>6514.7522391081529</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>6.6175601639421</v>
+        <v>6.5147522391081534</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -10345,11 +10345,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>6534.6505800420991</v>
+        <v>6438.0792082081525</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>6.5346505800420989</v>
+        <v>6.438079208208153</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -10385,11 +10385,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>6525.8760612420992</v>
+        <v>6434.2294634081527</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>6.5258760612420996</v>
+        <v>6.4342294634081529</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -10425,11 +10425,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>880787.43485984206</v>
+        <v>881233.92855890817</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>880.78743485984205</v>
+        <v>881.23392855890813</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -10465,11 +10465,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>110503.56893404209</v>
+        <v>110955.34145890815</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>110.50356893404209</v>
+        <v>110.95534145890815</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -10505,11 +10505,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>17886.087676542098</v>
+        <v>18331.709478908153</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>17.886087676542097</v>
+        <v>18.331709478908152</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -10545,11 +10545,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>7302.5489012420994</v>
+        <v>7753.2003819081528</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>7.3025489012420994</v>
+        <v>7.7532003819081527</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -10585,11 +10585,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>6423.1877488420996</v>
+        <v>6872.8848399081526</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34:L65" si="2">PRODUCT(K34,0.001)</f>
-        <v>6.4231877488420999</v>
+        <v>6.8728848399081528</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -10625,11 +10625,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>6373.6188572420988</v>
+        <v>6826.2923659081525</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>6.3736188572420991</v>
+        <v>6.8262923659081522</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -10665,11 +10665,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>6574.7506779420992</v>
+        <v>7023.5882701081528</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>6.5747506779420997</v>
+        <v>7.0235882701081529</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -10705,11 +10705,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>1994930.7454517421</v>
+        <v>1994864.2150589081</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1994.930745451742</v>
+        <v>1994.864215058908</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -10745,11 +10745,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>207231.3020797421</v>
+        <v>207144.60695890815</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>207.23130207974211</v>
+        <v>207.14460695890816</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -10785,11 +10785,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>27055.052770742099</v>
+        <v>26920.32941890815</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>27.055052770742101</v>
+        <v>26.92032941890815</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -10825,11 +10825,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>8545.832887742099</v>
+        <v>8468.6661659081528</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>8.5458328877420993</v>
+        <v>8.4686661659081537</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -10865,11 +10865,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>6716.6822117420988</v>
+        <v>6638.7484969081524</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>6.716682211742099</v>
+        <v>6.6387484969081525</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -10905,11 +10905,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>6496.9744838420993</v>
+        <v>6435.2761210081526</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>6.4969744838420995</v>
+        <v>6.4352761210081528</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -10945,11 +10945,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>6508.5816539420994</v>
+        <v>6395.6554831081521</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>6.5085816539420991</v>
+        <v>6.3956554831081522</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -10985,11 +10985,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>1279229.204896742</v>
+        <v>1279103.8840589081</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>1279.229204896742</v>
+        <v>1279.1038840589081</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11025,11 +11025,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>137663.5244337421</v>
+        <v>137576.35795890813</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>137.66352443374211</v>
+        <v>137.57635795890815</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11065,11 +11065,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>20441.578644742098</v>
+        <v>20365.32148890815</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>20.441578644742098</v>
+        <v>20.365321488908151</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11105,11 +11105,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>8740.6101387420986</v>
+        <v>8653.1735359081522</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>8.7406101387420989</v>
+        <v>8.6531735359081523</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11145,11 +11145,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>7474.3445077420993</v>
+        <v>7395.2277599081526</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>7.4743445077420994</v>
+        <v>7.3952277599081526</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11185,11 +11185,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>7415.7929577420991</v>
+        <v>7294.6473059081527</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
-        <v>7.4157929577420996</v>
+        <v>7.2946473059081525</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -11225,11 +11225,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>7300.2071537420998</v>
+        <v>7220.7144199081522</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>7.3002071537421003</v>
+        <v>7.2207144199081528</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -11265,11 +11265,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>109773.25084774211</v>
+        <v>109694.23375890816</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>109.7732508477421</v>
+        <v>109.69423375890815</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -11305,11 +11305,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>19487.175954742099</v>
+        <v>19389.206018908153</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>19.487175954742099</v>
+        <v>19.389206018908155</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -11345,11 +11345,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>9131.0954257420999</v>
+        <v>9045.8634799081519</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>9.1310954257420995</v>
+        <v>9.045863479908153</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -11385,11 +11385,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>7783.6601897420987</v>
+        <v>7708.6423339081521</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>7.7836601897420987</v>
+        <v>7.708642333908152</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -11425,11 +11425,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>7595.8414237420993</v>
+        <v>7491.5452899081529</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>7.5958414237420993</v>
+        <v>7.4915452899081529</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -11465,11 +11465,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>7526.2162847420987</v>
+        <v>7455.3204479081523</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>7.526216284742099</v>
+        <v>7.4553204479081527</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -11505,11 +11505,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
-        <v>7814.9132897420986</v>
+        <v>7742.7087729081522</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>7.8149132897420985</v>
+        <v>7.7427087729081521</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -11545,11 +11545,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>582652.3702697421</v>
+        <v>582576.16365890822</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
-        <v>582.65237026974216</v>
+        <v>582.57616365890829</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -11585,11 +11585,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>63723.398462742101</v>
+        <v>63555.531828908155</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
-        <v>63.723398462742104</v>
+        <v>63.555531828908158</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -11625,11 +11625,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>12472.612397742099</v>
+        <v>12360.559791908152</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
-        <v>12.4726123977421</v>
+        <v>12.360559791908152</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -11665,11 +11665,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>7158.7045354420989</v>
+        <v>7078.259557608153</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>7.1587045354420988</v>
+        <v>7.0782595576081535</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -11705,11 +11705,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
-        <v>6596.239106442099</v>
+        <v>6515.2953566081524</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
-        <v>6.5962391064420993</v>
+        <v>6.5152953566081528</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -11745,11 +11745,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>6501.368300542099</v>
+        <v>6428.4790457081526</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
-        <v>6.501368300542099</v>
+        <v>6.4284790457081531</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -11785,11 +11785,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="1"/>
-        <v>6700.313107442099</v>
+        <v>6436.0459746081524</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
-        <v>6.7003131074420992</v>
+        <v>6.4360459746081524</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -11825,11 +11825,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>1044093.3953604421</v>
+        <v>1044539.0810589083</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
-        <v>1044.0933953604422</v>
+        <v>1044.5390810589083</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -11865,11 +11865,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="1"/>
-        <v>110381.93136284209</v>
+        <v>110822.67845890815</v>
       </c>
       <c r="L66">
         <f t="shared" ref="L66:L92" si="3">PRODUCT(K66,0.001)</f>
-        <v>110.3819313628421</v>
+        <v>110.82267845890816</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -11904,12 +11904,12 @@
         <v>14164.080379999999</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K127" si="4">SUM($E$129,H67,G67)</f>
-        <v>16669.921889842099</v>
+        <f t="shared" ref="K67:K127" si="4">SUM($E$129,$H$129,G67)</f>
+        <v>17117.175428908151</v>
       </c>
       <c r="L67">
         <f t="shared" si="3"/>
-        <v>16.669921889842097</v>
+        <v>17.117175428908151</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -11945,11 +11945,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>7293.9522424420993</v>
+        <v>7732.379048908153</v>
       </c>
       <c r="L68">
         <f t="shared" si="3"/>
-        <v>7.2939522424420993</v>
+        <v>7.732379048908153</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -11985,11 +11985,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>6280.9102696420987</v>
+        <v>6723.4171332081523</v>
       </c>
       <c r="L69">
         <f t="shared" si="3"/>
-        <v>6.2809102696420984</v>
+        <v>6.7234171332081525</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -12025,11 +12025,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>6172.2843808420994</v>
+        <v>6615.1631774081525</v>
       </c>
       <c r="L70">
         <f t="shared" si="3"/>
-        <v>6.1722843808420995</v>
+        <v>6.615163177408153</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -12065,11 +12065,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>6166.9888657420988</v>
+        <v>6606.7841948081523</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
-        <v>6.1669888657420993</v>
+        <v>6.606784194808152</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -12105,11 +12105,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
-        <v>3090539.8237866135</v>
+        <v>3090458.4806860583</v>
       </c>
       <c r="L72">
         <f t="shared" si="3"/>
-        <v>3090.5398237866134</v>
+        <v>3090.4584806860585</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -12145,11 +12145,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
-        <v>317128.24680030183</v>
+        <v>317052.75139223615</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>317.12824680030184</v>
+        <v>317.05275139223613</v>
       </c>
       <c r="M73" t="s">
         <v>31</v>
@@ -12191,11 +12191,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
-        <v>39986.585156320099</v>
+        <v>39922.153800836255</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>39.986585156320103</v>
+        <v>39.922153800836256</v>
       </c>
       <c r="M74">
         <v>48.903340101241994</v>
@@ -12237,11 +12237,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
-        <v>12003.052489160069</v>
+        <v>11896.269172540353</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
-        <v>12.003052489160069</v>
+        <v>11.896269172540354</v>
       </c>
       <c r="M75">
         <v>11.918773412704461</v>
@@ -12283,11 +12283,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
-        <v>9168.80680739737</v>
+        <v>9120.7030714661323</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>9.1688068073973703</v>
+        <v>9.1207030714661332</v>
       </c>
       <c r="M76">
         <v>8.8168323040008403</v>
@@ -12329,11 +12329,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="4"/>
-        <v>8880.0633114562097</v>
+        <v>8817.1332777649623</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>8.88006331145621</v>
+        <v>8.8171332777649631</v>
       </c>
       <c r="M77">
         <v>8.4758715629577495</v>
@@ -12375,11 +12375,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="4"/>
-        <v>9151.4651936278387</v>
+        <v>9007.4969233185529</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>9.1514651936278391</v>
+        <v>9.0074969233185538</v>
       </c>
       <c r="M78">
         <v>8.6376621723174907</v>
@@ -12395,6 +12395,10 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>6127.6460589081526</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -12403,6 +12407,10 @@
       <c r="B80">
         <v>10</v>
       </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>6127.6460589081526</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -12437,11 +12445,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="4"/>
-        <v>46235.416905282429</v>
+        <v>45994.715303292855</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>46.235416905282428</v>
+        <v>45.994715303292857</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -12477,11 +12485,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="4"/>
-        <v>12001.350418923859</v>
+        <v>11939.498037210153</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>12.00135041892386</v>
+        <v>11.939498037210154</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -12517,11 +12525,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="4"/>
-        <v>8944.1585701689692</v>
+        <v>8743.8388765961317</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>8.9441585701689696</v>
+        <v>8.7438388765961328</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -12557,11 +12565,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="4"/>
-        <v>8419.3589848265601</v>
+        <v>8350.9448469788222</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>8.4193589848265606</v>
+        <v>8.3509448469788232</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -12597,11 +12605,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="4"/>
-        <v>8571.1810749754895</v>
+        <v>8523.486942163152</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>8.57118107497549</v>
+        <v>8.5234869421631529</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -12611,6 +12619,10 @@
       <c r="B86">
         <v>1</v>
       </c>
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>6127.6460589081526</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -12619,6 +12631,10 @@
       <c r="B87">
         <v>10</v>
       </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>6127.6460589081526</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -12653,11 +12669,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="4"/>
-        <v>45950.010792611509</v>
+        <v>45813.157647958353</v>
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
-        <v>45.950010792611508</v>
+        <v>45.813157647958356</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -12693,11 +12709,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="4"/>
-        <v>12040.0200051055</v>
+        <v>11976.170152536082</v>
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
-        <v>12.0400200051055</v>
+        <v>11.976170152536083</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -12733,11 +12749,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="4"/>
-        <v>8794.3809193358393</v>
+        <v>8740.6714857727729</v>
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
-        <v>8.7943809193358398</v>
+        <v>8.7406714857727739</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -12773,11 +12789,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="4"/>
-        <v>8415.019528268338</v>
+        <v>8364.9340571076136</v>
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
-        <v>8.4150195282683384</v>
+        <v>8.3649340571076145</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -12813,11 +12829,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="4"/>
-        <v>8610.3024643645294</v>
+        <v>8543.122857919383</v>
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
-        <v>8.6103024643645298</v>
+        <v>8.5431228579193839</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -12853,11 +12869,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="4"/>
-        <v>2301718.0188077423</v>
+        <v>2301641.6400589081</v>
       </c>
       <c r="L93">
         <f t="shared" ref="L93:L127" si="5">PRODUCT(K93,0.001)</f>
-        <v>2301.7180188077423</v>
+        <v>2301.6416400589083</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -12893,11 +12909,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="4"/>
-        <v>214427.08591374211</v>
+        <v>214290.03535890815</v>
       </c>
       <c r="L94">
         <f t="shared" si="5"/>
-        <v>214.4270859137421</v>
+        <v>214.29003535890814</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -12933,11 +12949,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="4"/>
-        <v>27146.930713742098</v>
+        <v>27072.633358908155</v>
       </c>
       <c r="L95">
         <f t="shared" si="5"/>
-        <v>27.146930713742098</v>
+        <v>27.072633358908156</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -12973,11 +12989,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="4"/>
-        <v>8677.6542827420999</v>
+        <v>8597.137540908152</v>
       </c>
       <c r="L96">
         <f t="shared" si="5"/>
-        <v>8.6776542827421004</v>
+        <v>8.5971375409081521</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -13013,11 +13029,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="4"/>
-        <v>6713.4692829420992</v>
+        <v>6638.5646761081525</v>
       </c>
       <c r="L97">
         <f t="shared" si="5"/>
-        <v>6.713469282942099</v>
+        <v>6.6385646761081523</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -13053,11 +13069,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="4"/>
-        <v>6512.7582710420993</v>
+        <v>6432.1862162081525</v>
       </c>
       <c r="L98">
         <f t="shared" si="5"/>
-        <v>6.5127582710420997</v>
+        <v>6.4321862162081525</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -13093,11 +13109,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="4"/>
-        <v>6457.3149837420997</v>
+        <v>6395.8507479081527</v>
       </c>
       <c r="L99">
         <f t="shared" si="5"/>
-        <v>6.4573149837420996</v>
+        <v>6.3958507479081526</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -13133,11 +13149,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="4"/>
-        <v>1282383.905022742</v>
+        <v>1282304.6640589081</v>
       </c>
       <c r="L100">
         <f t="shared" si="5"/>
-        <v>1282.3839050227421</v>
+        <v>1282.3046640589082</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -13173,11 +13189,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="4"/>
-        <v>139408.6492647421</v>
+        <v>139322.38305890813</v>
       </c>
       <c r="L101">
         <f t="shared" si="5"/>
-        <v>139.40864926474211</v>
+        <v>139.32238305890814</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -13213,11 +13229,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="4"/>
-        <v>24419.498464742101</v>
+        <v>24336.594198908155</v>
       </c>
       <c r="L102">
         <f t="shared" si="5"/>
-        <v>24.419498464742102</v>
+        <v>24.336594198908156</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -13253,11 +13269,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="4"/>
-        <v>8709.0919177421001</v>
+        <v>8636.0555589081523</v>
       </c>
       <c r="L103">
         <f t="shared" si="5"/>
-        <v>8.7090919177421</v>
+        <v>8.6360555589081525</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -13293,11 +13309,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="4"/>
-        <v>7466.1235967420998</v>
+        <v>7389.0653549081526</v>
       </c>
       <c r="L104">
         <f t="shared" si="5"/>
-        <v>7.4661235967420998</v>
+        <v>7.3890653549081531</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -13333,11 +13349,11 @@
       </c>
       <c r="K105">
         <f t="shared" si="4"/>
-        <v>7391.2754227420992</v>
+        <v>7315.6784479081525</v>
       </c>
       <c r="L105">
         <f t="shared" si="5"/>
-        <v>7.3912754227420994</v>
+        <v>7.3156784479081525</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -13373,11 +13389,11 @@
       </c>
       <c r="K106">
         <f t="shared" si="4"/>
-        <v>7272.5515527420994</v>
+        <v>7204.317182908153</v>
       </c>
       <c r="L106">
         <f t="shared" si="5"/>
-        <v>7.2725515527420992</v>
+        <v>7.2043171829081531</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -13413,11 +13429,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="4"/>
-        <v>110919.7867447421</v>
+        <v>110856.46045890816</v>
       </c>
       <c r="L107">
         <f t="shared" si="5"/>
-        <v>110.9197867447421</v>
+        <v>110.85646045890816</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -13453,11 +13469,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="4"/>
-        <v>23419.655810742101</v>
+        <v>23352.021778908151</v>
       </c>
       <c r="L108">
         <f t="shared" si="5"/>
-        <v>23.4196558107421</v>
+        <v>23.352021778908153</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -13493,11 +13509,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="4"/>
-        <v>9606.2357587420993</v>
+        <v>9529.9836099081531</v>
       </c>
       <c r="L109">
         <f t="shared" si="5"/>
-        <v>9.6062357587421001</v>
+        <v>9.5299836099081539</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -13533,11 +13549,11 @@
       </c>
       <c r="K110">
         <f t="shared" si="4"/>
-        <v>7628.7753747420993</v>
+        <v>7522.9443019081527</v>
       </c>
       <c r="L110">
         <f t="shared" si="5"/>
-        <v>7.6287753747420997</v>
+        <v>7.5229443019081526</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -13573,11 +13589,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="4"/>
-        <v>7390.7871407420989</v>
+        <v>7147.3537389081521</v>
       </c>
       <c r="L111">
         <f t="shared" si="5"/>
-        <v>7.3907871407420993</v>
+        <v>7.1473537389081523</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -13613,11 +13629,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="4"/>
-        <v>7437.5968137420987</v>
+        <v>7347.4813399081522</v>
       </c>
       <c r="L112">
         <f t="shared" si="5"/>
-        <v>7.4375968137420987</v>
+        <v>7.3474813399081524</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -13653,11 +13669,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="4"/>
-        <v>7792.1400227420991</v>
+        <v>7720.3577459081525</v>
       </c>
       <c r="L113">
         <f t="shared" si="5"/>
-        <v>7.7921400227420996</v>
+        <v>7.7203577459081529</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -13693,11 +13709,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="4"/>
-        <v>597253.91247374215</v>
+        <v>597166.50185890822</v>
       </c>
       <c r="L114">
         <f t="shared" si="5"/>
-        <v>597.25391247374216</v>
+        <v>597.16650185890819</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -13733,11 +13749,11 @@
       </c>
       <c r="K115">
         <f t="shared" si="4"/>
-        <v>64161.600602742095</v>
+        <v>64079.362478908151</v>
       </c>
       <c r="L115">
         <f t="shared" si="5"/>
-        <v>64.161600602742098</v>
+        <v>64.079362478908152</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -13773,11 +13789,11 @@
       </c>
       <c r="K116">
         <f t="shared" si="4"/>
-        <v>12588.422076742099</v>
+        <v>12430.018514908152</v>
       </c>
       <c r="L116">
         <f t="shared" si="5"/>
-        <v>12.5884220767421</v>
+        <v>12.430018514908152</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -13813,11 +13829,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="4"/>
-        <v>7163.5196369420992</v>
+        <v>7073.2696951081525</v>
       </c>
       <c r="L117">
         <f t="shared" si="5"/>
-        <v>7.163519636942099</v>
+        <v>7.0732696951081531</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -13853,11 +13869,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="4"/>
-        <v>6580.4395837420989</v>
+        <v>6505.5845679081522</v>
       </c>
       <c r="L118">
         <f t="shared" si="5"/>
-        <v>6.5804395837420993</v>
+        <v>6.5055845679081523</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -13893,11 +13909,11 @@
       </c>
       <c r="K119">
         <f t="shared" si="4"/>
-        <v>6490.3094932420991</v>
+        <v>6412.5576914081521</v>
       </c>
       <c r="L119">
         <f t="shared" si="5"/>
-        <v>6.4903094932420995</v>
+        <v>6.4125576914081526</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -13933,11 +13949,11 @@
       </c>
       <c r="K120">
         <f t="shared" si="4"/>
-        <v>6499.170558342099</v>
+        <v>6430.762380508153</v>
       </c>
       <c r="L120">
         <f t="shared" si="5"/>
-        <v>6.4991705583420991</v>
+        <v>6.4307623805081535</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -13973,11 +13989,11 @@
       </c>
       <c r="K121">
         <f t="shared" si="4"/>
-        <v>905162.23980454204</v>
+        <v>905602.79115890816</v>
       </c>
       <c r="L121">
         <f t="shared" si="5"/>
-        <v>905.16223980454208</v>
+        <v>905.60279115890819</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -14013,11 +14029,11 @@
       </c>
       <c r="K122">
         <f t="shared" si="4"/>
-        <v>116576.6254000421</v>
+        <v>117014.46235890816</v>
       </c>
       <c r="L122">
         <f t="shared" si="5"/>
-        <v>116.5766254000421</v>
+        <v>117.01446235890816</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -14053,11 +14069,11 @@
       </c>
       <c r="K123">
         <f t="shared" si="4"/>
-        <v>16852.8766781421</v>
+        <v>17288.402168908153</v>
       </c>
       <c r="L123">
         <f t="shared" si="5"/>
-        <v>16.852876678142099</v>
+        <v>17.288402168908153</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -14093,11 +14109,11 @@
       </c>
       <c r="K124">
         <f t="shared" si="4"/>
-        <v>7335.001723642099</v>
+        <v>7771.9195789081523</v>
       </c>
       <c r="L124">
         <f t="shared" si="5"/>
-        <v>7.3350017236420992</v>
+        <v>7.7719195789081521</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -14133,11 +14149,11 @@
       </c>
       <c r="K125">
         <f t="shared" si="4"/>
-        <v>6418.6027210420989</v>
+        <v>6857.3296965081527</v>
       </c>
       <c r="L125">
         <f t="shared" si="5"/>
-        <v>6.4186027210420988</v>
+        <v>6.8573296965081525</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -14173,11 +14189,11 @@
       </c>
       <c r="K126">
         <f t="shared" si="4"/>
-        <v>6377.1052521420988</v>
+        <v>6812.2693003081522</v>
       </c>
       <c r="L126">
         <f t="shared" si="5"/>
-        <v>6.3771052521420986</v>
+        <v>6.8122693003081523</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -14213,14 +14229,14 @@
       </c>
       <c r="K127">
         <f t="shared" si="4"/>
-        <v>6544.4924992420993</v>
+        <v>6972.8434981081527</v>
       </c>
       <c r="L127">
         <f t="shared" si="5"/>
-        <v>6.5444924992420992</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+        <v>6.9728434981081531</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>33</v>
       </c>
@@ -14228,10 +14244,17 @@
         <f>AVERAGE('10_trees'!E2:E127,'500_trees'!E2:E127,'1600_trees'!E2:E127)</f>
         <v>5093.7583607420993</v>
       </c>
+      <c r="G129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129">
+        <f>AVERAGE(H2:H127,'500_trees'!H2:H127,'1600_trees'!H2:H127)</f>
+        <v>1033.8876981660535</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G93:G127 G2:G71">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14243,7 +14266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K127">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14255,7 +14278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L127">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14267,7 +14290,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G78 G93:G127">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H127">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14287,8 +14322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14366,12 +14401,12 @@
         <v>1903286.5430000001</v>
       </c>
       <c r="K2">
-        <f>SUM($E$129,H2,G2)</f>
-        <v>1898111.1866587421</v>
+        <f>SUM($E$129,$H$129,G2)</f>
+        <v>1898026.2100589082</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L33" si="0">PRODUCT(K2,0.001)</f>
-        <v>1898.1111866587421</v>
+        <v>1898.0262100589082</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -14406,12 +14441,12 @@
         <v>203077.7776</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">SUM($E$129,H3,G3)</f>
-        <v>201281.00923474209</v>
+        <f t="shared" ref="K3:K66" si="1">SUM($E$129,$H$129,G3)</f>
+        <v>201207.46885890813</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>201.2810092347421</v>
+        <v>201.20746885890813</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -14447,11 +14482,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>26226.778045742099</v>
+        <v>26156.366198908152</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>26.226778045742101</v>
+        <v>26.156366198908152</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -14487,11 +14522,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>10911.425844742098</v>
+        <v>10836.045354908152</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>10.911425844742098</v>
+        <v>10.836045354908153</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -14527,11 +14562,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>10535.867945742099</v>
+        <v>10382.777064908152</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>10.535867945742099</v>
+        <v>10.382777064908153</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -14567,11 +14602,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>10376.9114177421</v>
+        <v>10298.581450908154</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>10.3769114177421</v>
+        <v>10.298581450908154</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -14612,11 +14647,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>1243472.888663742</v>
+        <v>1243355.1130589081</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>1243.472888663742</v>
+        <v>1243.3551130589083</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -14652,11 +14687,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>133421.3061727421</v>
+        <v>133319.28955890815</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>133.42130617274211</v>
+        <v>133.31928955890814</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -14692,11 +14727,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>20217.1390237421</v>
+        <v>20041.380258908153</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>20.217139023742099</v>
+        <v>20.041380258908152</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -14732,11 +14767,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>9996.1168927420986</v>
+        <v>9883.4346239081533</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>9.9961168927420996</v>
+        <v>9.883434623908153</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -14772,11 +14807,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>9449.5008157420998</v>
+        <v>9355.5293979081525</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>9.4495008157421001</v>
+        <v>9.3555293979081533</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -14822,11 +14857,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>185048.3479637421</v>
+        <v>184928.77825890813</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>185.04834796374209</v>
+        <v>184.92877825890812</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -14862,11 +14897,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>320305.36393774208</v>
+        <v>320157.08815890813</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>320.30536393774207</v>
+        <v>320.15708815890815</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -14902,11 +14937,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>33104.100000742095</v>
+        <v>33026.975478908149</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>33.104100000742093</v>
+        <v>33.026975478908149</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -14942,11 +14977,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>24936.606657742101</v>
+        <v>24780.448998908156</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>24.9366066577421</v>
+        <v>24.780448998908156</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -14982,11 +15017,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>22656.193750742099</v>
+        <v>22560.620398908155</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>22.656193750742098</v>
+        <v>22.560620398908156</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -15022,11 +15057,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>25766.908659742101</v>
+        <v>25696.048108908151</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>25.7669086597421</v>
+        <v>25.696048108908151</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -15062,11 +15097,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>26295.392765742101</v>
+        <v>26220.470038908155</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>26.2953927657421</v>
+        <v>26.220470038908157</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -15102,11 +15137,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>590882.56405174208</v>
+        <v>590798.7895589082</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>590.88256405174207</v>
+        <v>590.7987895589082</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -15142,11 +15177,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>64212.536114742099</v>
+        <v>64132.301898908154</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>64.212536114742107</v>
+        <v>64.132301898908153</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -15182,11 +15217,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>13504.882828742098</v>
+        <v>13417.913764908153</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>13.504882828742099</v>
+        <v>13.417913764908153</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -15222,11 +15257,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>7738.2481257420986</v>
+        <v>7666.1497059081521</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>7.738248125742099</v>
+        <v>7.6661497059081523</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -15262,11 +15297,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>7241.5929007420991</v>
+        <v>7170.2848379081524</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>7.2415929007420994</v>
+        <v>7.1702848379081523</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -15302,11 +15337,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>7186.4037678420991</v>
+        <v>7086.351961008153</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>7.1864037678420996</v>
+        <v>7.0863519610081536</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -15347,11 +15382,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>913352.19125934201</v>
+        <v>913797.05965890817</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>913.35219125934202</v>
+        <v>913.79705965890821</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -15387,11 +15422,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>117189.51276944211</v>
+        <v>117571.08365890816</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>117.18951276944212</v>
+        <v>117.57108365890817</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -15427,11 +15462,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>18124.914657342099</v>
+        <v>18574.822748908155</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>18.124914657342099</v>
+        <v>18.574822748908154</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -15467,11 +15502,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>8001.3725921420992</v>
+        <v>8444.6547929081535</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>8.0013725921420988</v>
+        <v>8.4446547929081532</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -15507,11 +15542,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>6821.7091726420986</v>
+        <v>7225.8556789081522</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34:L65" si="2">PRODUCT(K34,0.001)</f>
-        <v>6.8217091726420991</v>
+        <v>7.2258556789081521</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -15547,11 +15582,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>6717.247502542099</v>
+        <v>7153.974622908152</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>6.717247502542099</v>
+        <v>7.1539746229081524</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -15587,11 +15622,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>6937.5410239420989</v>
+        <v>7377.1711289081522</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>6.9375410239420994</v>
+        <v>7.3771711289081523</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -15627,11 +15662,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>2037367.648973742</v>
+        <v>2037201.8570589081</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>2037.367648973742</v>
+        <v>2037.2018570589082</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -15667,11 +15702,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>206026.2861177421</v>
+        <v>205953.93425890815</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>206.0262861177421</v>
+        <v>205.95393425890816</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -15707,11 +15742,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>26959.630033742098</v>
+        <v>26904.328678908154</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>26.959630033742098</v>
+        <v>26.904328678908154</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -15747,11 +15782,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>10797.966972742099</v>
+        <v>10747.101634908153</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>10.797966972742099</v>
+        <v>10.747101634908153</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -15787,11 +15822,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>10394.144312742101</v>
+        <v>10306.905120908152</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>10.394144312742101</v>
+        <v>10.306905120908151</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -15827,11 +15862,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>10312.433497742099</v>
+        <v>10232.473224908153</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>10.312433497742099</v>
+        <v>10.232473224908153</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -15872,11 +15907,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>1312506.417287742</v>
+        <v>1312340.3590589082</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>1312.5064172877421</v>
+        <v>1312.3403590589082</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -15912,11 +15947,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>141225.40592474211</v>
+        <v>141134.00775890815</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>141.22540592474212</v>
+        <v>141.13400775890815</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -15952,11 +15987,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>20717.234146742099</v>
+        <v>20643.336858908151</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>20.717234146742101</v>
+        <v>20.643336858908153</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -15992,11 +16027,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>10224.222914742099</v>
+        <v>10150.369256908152</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>10.224222914742098</v>
+        <v>10.150369256908153</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -16032,11 +16067,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>9702.9493007421006</v>
+        <v>9576.7260489081527</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>9.7029493007420999</v>
+        <v>9.5767260489081529</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -16082,11 +16117,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>175970.87359374212</v>
+        <v>175819.57895890815</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>175.97087359374211</v>
+        <v>175.81957895890815</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -16122,11 +16157,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>273898.16836974211</v>
+        <v>273817.99375890812</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>273.89816836974211</v>
+        <v>273.81799375890813</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -16162,11 +16197,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>28188.091054742101</v>
+        <v>28041.492788908152</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>28.188091054742102</v>
+        <v>28.041492788908151</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -16202,11 +16237,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>25684.4241737421</v>
+        <v>25608.934248908154</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>25.684424173742102</v>
+        <v>25.608934248908156</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -16242,11 +16277,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>25313.281314742097</v>
+        <v>25209.324688908149</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>25.313281314742095</v>
+        <v>25.209324688908151</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -16282,11 +16317,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>22095.0553527421</v>
+        <v>22024.819458908154</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>22.095055352742101</v>
+        <v>22.024819458908155</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -16322,11 +16357,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
-        <v>25118.079197742096</v>
+        <v>24993.878688908153</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>25.118079197742098</v>
+        <v>24.993878688908154</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -16362,11 +16397,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>590909.13752774207</v>
+        <v>590842.00655890815</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
-        <v>590.90913752774213</v>
+        <v>590.84200655890811</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -16402,11 +16437,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>65264.421000742099</v>
+        <v>65101.476518908152</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
-        <v>65.264421000742104</v>
+        <v>65.101476518908157</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -16442,11 +16477,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>13528.223053742098</v>
+        <v>13426.834910908154</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
-        <v>13.528223053742099</v>
+        <v>13.426834910908154</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -16482,11 +16517,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>7818.4027837420999</v>
+        <v>7606.6747609081522</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>7.8184027837421004</v>
+        <v>7.6066747609081524</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -16522,11 +16557,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
-        <v>7184.0756102420992</v>
+        <v>7114.5070494081529</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
-        <v>7.1840756102420995</v>
+        <v>7.1145070494081528</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -16562,11 +16597,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>7082.3853177420997</v>
+        <v>6989.8951949081529</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
-        <v>7.0823853177420997</v>
+        <v>6.9898951949081534</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -16607,11 +16642,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>1072083.8545962421</v>
+        <v>1072520.5180589082</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
-        <v>1072.0838545962422</v>
+        <v>1072.5205180589082</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -16647,11 +16682,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="1"/>
-        <v>114616.4982360421</v>
+        <v>115065.97645890816</v>
       </c>
       <c r="L66">
         <f t="shared" ref="L66:L71" si="3">PRODUCT(K66,0.001)</f>
-        <v>114.6164982360421</v>
+        <v>115.06597645890817</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -16686,12 +16721,12 @@
         <v>14899.73402</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K127" si="4">SUM($E$129,H67,G67)</f>
-        <v>17312.031526242099</v>
+        <f t="shared" ref="K67:K127" si="4">SUM($E$129,$H$129,G67)</f>
+        <v>17670.569988908152</v>
       </c>
       <c r="L67">
         <f t="shared" si="3"/>
-        <v>17.312031526242098</v>
+        <v>17.670569988908152</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -16727,11 +16762,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>8213.8047382420991</v>
+        <v>8657.2600309081536</v>
       </c>
       <c r="L68">
         <f t="shared" si="3"/>
-        <v>8.2138047382421</v>
+        <v>8.6572600309081533</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -16767,11 +16802,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>6505.7137173420988</v>
+        <v>6957.3517741081523</v>
       </c>
       <c r="L69">
         <f t="shared" si="3"/>
-        <v>6.5057137173420987</v>
+        <v>6.9573517741081528</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -16807,11 +16842,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>6420.1908272420987</v>
+        <v>6867.9405154081524</v>
       </c>
       <c r="L70">
         <f t="shared" si="3"/>
-        <v>6.4201908272420987</v>
+        <v>6.8679405154081525</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -16847,11 +16882,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>6410.1634186420997</v>
+        <v>6857.5681151081526</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
-        <v>6.4101634186420995</v>
+        <v>6.8575681151081529</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -16895,11 +16930,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
-        <v>3571827.9884022451</v>
+        <v>3571678.8969935081</v>
       </c>
       <c r="L73">
         <f t="shared" ref="L73:L78" si="5">PRODUCT(K73,0.001)</f>
-        <v>3571.827988402245</v>
+        <v>3571.6788969935083</v>
       </c>
       <c r="M73" t="s">
         <v>31</v>
@@ -16941,11 +16976,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
-        <v>364412.83418357279</v>
+        <v>364233.22042833915</v>
       </c>
       <c r="L74">
         <f t="shared" si="5"/>
-        <v>364.41283418357278</v>
+        <v>364.23322042833917</v>
       </c>
       <c r="M74">
         <v>273.70096755027771</v>
@@ -16987,11 +17022,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
-        <v>43424.957053063925</v>
+        <v>43370.178550592158</v>
       </c>
       <c r="L75">
         <f t="shared" si="5"/>
-        <v>43.424957053063928</v>
+        <v>43.370178550592158</v>
       </c>
       <c r="M75">
         <v>34.558240652084272</v>
@@ -17033,11 +17068,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
-        <v>12563.296334146029</v>
+        <v>12434.677213540723</v>
       </c>
       <c r="L76">
         <f t="shared" si="5"/>
-        <v>12.563296334146029</v>
+        <v>12.434677213540724</v>
       </c>
       <c r="M76">
         <v>11.21430921554564</v>
@@ -17079,11 +17114,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="4"/>
-        <v>9571.1941879973492</v>
+        <v>9390.9762800843018</v>
       </c>
       <c r="L77">
         <f t="shared" si="5"/>
-        <v>9.5711941879973494</v>
+        <v>9.3909762800843026</v>
       </c>
       <c r="M77">
         <v>8.9317996501922501</v>
@@ -17125,11 +17160,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="4"/>
-        <v>9433.7828320250592</v>
+        <v>9379.0286482483625</v>
       </c>
       <c r="L78">
         <f t="shared" si="5"/>
-        <v>9.4337828320250594</v>
+        <v>9.3790286482483634</v>
       </c>
       <c r="M78">
         <v>9.0050983428955007</v>
@@ -17187,11 +17222,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="4"/>
-        <v>273642.11632430408</v>
+        <v>273590.90599428717</v>
       </c>
       <c r="L81">
         <f>PRODUCT(K81,0.001)</f>
-        <v>273.64211632430408</v>
+        <v>273.5909059942872</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -17227,11 +17262,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="4"/>
-        <v>34512.198464272908</v>
+        <v>34390.907615533455</v>
       </c>
       <c r="L82">
         <f>PRODUCT(K82,0.001)</f>
-        <v>34.512198464272906</v>
+        <v>34.390907615533457</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -17267,11 +17302,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="4"/>
-        <v>11161.352888940328</v>
+        <v>10983.679145684882</v>
       </c>
       <c r="L83">
         <f>PRODUCT(K83,0.001)</f>
-        <v>11.161352888940328</v>
+        <v>10.983679145684883</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -17307,11 +17342,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="4"/>
-        <v>8889.9812859282501</v>
+        <v>8827.3762167603236</v>
       </c>
       <c r="L84">
         <f>PRODUCT(K84,0.001)</f>
-        <v>8.8899812859282505</v>
+        <v>8.8273762167603245</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -17347,11 +17382,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="4"/>
-        <v>8950.1276177153595</v>
+        <v>8889.2286718994819</v>
       </c>
       <c r="L85">
         <f>PRODUCT(K85,0.001)</f>
-        <v>8.9501276177153599</v>
+        <v>8.8892286718994828</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -17403,11 +17438,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="4"/>
-        <v>268323.91239821701</v>
+        <v>268245.21383654117</v>
       </c>
       <c r="L88">
         <f>PRODUCT(K88,0.001)</f>
-        <v>268.32391239821703</v>
+        <v>268.24521383654115</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -17443,11 +17478,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="4"/>
-        <v>34274.3475598082</v>
+        <v>34129.929393640152</v>
       </c>
       <c r="L89">
         <f>PRODUCT(K89,0.001)</f>
-        <v>34.274347559808199</v>
+        <v>34.129929393640154</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -17483,11 +17518,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="4"/>
-        <v>11123.033539651389</v>
+        <v>11062.846988549873</v>
       </c>
       <c r="L90">
         <f>PRODUCT(K90,0.001)</f>
-        <v>11.12303353965139</v>
+        <v>11.062846988549873</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -17523,11 +17558,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="4"/>
-        <v>8991.7619389281208</v>
+        <v>8927.5361002594618</v>
       </c>
       <c r="L91">
         <f>PRODUCT(K91,0.001)</f>
-        <v>8.9917619389281214</v>
+        <v>8.9275361002594629</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -17563,11 +17598,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="4"/>
-        <v>8893.6953705534888</v>
+        <v>8831.4033449799226</v>
       </c>
       <c r="L92">
         <f>PRODUCT(K92,0.001)</f>
-        <v>8.8936953705534894</v>
+        <v>8.8314033449799236</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -17603,11 +17638,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="4"/>
-        <v>2033410.9060187421</v>
+        <v>2033310.6360589082</v>
       </c>
       <c r="L93">
         <f t="shared" ref="L93:L127" si="6">PRODUCT(K93,0.001)</f>
-        <v>2033.4109060187423</v>
+        <v>2033.3106360589081</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -17643,11 +17678,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="4"/>
-        <v>218538.17841374208</v>
+        <v>218380.03615890813</v>
       </c>
       <c r="L94">
         <f t="shared" si="6"/>
-        <v>218.53817841374209</v>
+        <v>218.38003615890813</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -17683,11 +17718,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="4"/>
-        <v>27418.995395742098</v>
+        <v>27334.060518908154</v>
       </c>
       <c r="L95">
         <f t="shared" si="6"/>
-        <v>27.418995395742098</v>
+        <v>27.334060518908156</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -17723,11 +17758,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="4"/>
-        <v>10860.6548467421</v>
+        <v>10765.654414908153</v>
       </c>
       <c r="L96">
         <f t="shared" si="6"/>
-        <v>10.860654846742101</v>
+        <v>10.765654414908154</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -17763,11 +17798,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="4"/>
-        <v>10368.0718107421</v>
+        <v>10284.066289908153</v>
       </c>
       <c r="L97">
         <f t="shared" si="6"/>
-        <v>10.3680718107421</v>
+        <v>10.284066289908154</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -17803,11 +17838,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="4"/>
-        <v>10313.7216727421</v>
+        <v>10233.374446908154</v>
       </c>
       <c r="L98">
         <f t="shared" si="6"/>
-        <v>10.313721672742099</v>
+        <v>10.233374446908154</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -17848,11 +17883,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="4"/>
-        <v>1348311.131546742</v>
+        <v>1348230.6970589082</v>
       </c>
       <c r="L100">
         <f t="shared" si="6"/>
-        <v>1348.311131546742</v>
+        <v>1348.2306970589082</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -17888,11 +17923,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="4"/>
-        <v>146009.40346874209</v>
+        <v>145881.75065890813</v>
       </c>
       <c r="L101">
         <f t="shared" si="6"/>
-        <v>146.00940346874211</v>
+        <v>145.88175065890815</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -17928,11 +17963,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="4"/>
-        <v>20833.6591847421</v>
+        <v>20745.701398908153</v>
       </c>
       <c r="L102">
         <f t="shared" si="6"/>
-        <v>20.8336591847421</v>
+        <v>20.745701398908153</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -17968,11 +18003,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="4"/>
-        <v>10216.2892977421</v>
+        <v>10142.681449908152</v>
       </c>
       <c r="L103">
         <f t="shared" si="6"/>
-        <v>10.216289297742099</v>
+        <v>10.142681449908153</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -18008,11 +18043,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="4"/>
-        <v>9763.3831667421</v>
+        <v>9573.1092399081535</v>
       </c>
       <c r="L104">
         <f t="shared" si="6"/>
-        <v>9.7633831667421003</v>
+        <v>9.5731092399081543</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -18058,11 +18093,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="4"/>
-        <v>179380.2344847421</v>
+        <v>179308.21235890815</v>
       </c>
       <c r="L107">
         <f t="shared" si="6"/>
-        <v>179.38023448474212</v>
+        <v>179.30821235890815</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -18098,11 +18133,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="4"/>
-        <v>296020.23320374213</v>
+        <v>295906.60345890815</v>
       </c>
       <c r="L108">
         <f t="shared" si="6"/>
-        <v>296.02023320374212</v>
+        <v>295.90660345890814</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -18138,11 +18173,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="4"/>
-        <v>29931.184065742098</v>
+        <v>29836.216058908154</v>
       </c>
       <c r="L109">
         <f t="shared" si="6"/>
-        <v>29.931184065742098</v>
+        <v>29.836216058908153</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -18178,11 +18213,11 @@
       </c>
       <c r="K110">
         <f t="shared" si="4"/>
-        <v>26460.006492742097</v>
+        <v>26348.34250890815</v>
       </c>
       <c r="L110">
         <f t="shared" si="6"/>
-        <v>26.460006492742099</v>
+        <v>26.34834250890815</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -18218,11 +18253,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="4"/>
-        <v>23668.253918742099</v>
+        <v>23518.897388908154</v>
       </c>
       <c r="L111">
         <f t="shared" si="6"/>
-        <v>23.668253918742099</v>
+        <v>23.518897388908155</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -18258,11 +18293,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="4"/>
-        <v>24388.817082742102</v>
+        <v>24331.875408908156</v>
       </c>
       <c r="L112">
         <f t="shared" si="6"/>
-        <v>24.388817082742101</v>
+        <v>24.331875408908157</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -18298,11 +18333,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="4"/>
-        <v>20950.371277742099</v>
+        <v>20902.102078908152</v>
       </c>
       <c r="L113">
         <f t="shared" si="6"/>
-        <v>20.9503712777421</v>
+        <v>20.902102078908154</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -18338,11 +18373,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="4"/>
-        <v>586378.02577774203</v>
+        <v>586283.63545890816</v>
       </c>
       <c r="L114">
         <f t="shared" si="6"/>
-        <v>586.3780257777421</v>
+        <v>586.28363545890818</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -18378,11 +18413,11 @@
       </c>
       <c r="K115">
         <f t="shared" si="4"/>
-        <v>65987.681645742094</v>
+        <v>65818.683238908154</v>
       </c>
       <c r="L115">
         <f t="shared" si="6"/>
-        <v>65.9876816457421</v>
+        <v>65.81868323890815</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -18418,11 +18453,11 @@
       </c>
       <c r="K116">
         <f t="shared" si="4"/>
-        <v>13681.702391742099</v>
+        <v>13608.045190908153</v>
       </c>
       <c r="L116">
         <f t="shared" si="6"/>
-        <v>13.6817023917421</v>
+        <v>13.608045190908154</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -18458,11 +18493,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="4"/>
-        <v>7706.2471077420996</v>
+        <v>7579.912990908153</v>
       </c>
       <c r="L117">
         <f t="shared" si="6"/>
-        <v>7.7062471077421</v>
+        <v>7.5799129909081531</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -18498,11 +18533,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="4"/>
-        <v>7193.9089457420996</v>
+        <v>7135.747998908153</v>
       </c>
       <c r="L118">
         <f t="shared" si="6"/>
-        <v>7.1939089457421002</v>
+        <v>7.1357479989081529</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -18538,11 +18573,11 @@
       </c>
       <c r="K119">
         <f t="shared" si="4"/>
-        <v>7179.7931352420992</v>
+        <v>7091.0154284081527</v>
       </c>
       <c r="L119">
         <f t="shared" si="6"/>
-        <v>7.1797931352420994</v>
+        <v>7.091015428408153</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -18583,11 +18618,11 @@
       </c>
       <c r="K121">
         <f t="shared" si="4"/>
-        <v>911144.8502266421</v>
+        <v>911580.48705890821</v>
       </c>
       <c r="L121">
         <f t="shared" si="6"/>
-        <v>911.14485022664212</v>
+        <v>911.58048705890826</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -18623,11 +18658,11 @@
       </c>
       <c r="K122">
         <f t="shared" si="4"/>
-        <v>114332.3133638421</v>
+        <v>114770.16295890816</v>
       </c>
       <c r="L122">
         <f t="shared" si="6"/>
-        <v>114.3323133638421</v>
+        <v>114.77016295890816</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -18663,11 +18698,11 @@
       </c>
       <c r="K123">
         <f t="shared" si="4"/>
-        <v>17923.420448042099</v>
+        <v>18366.087528908152</v>
       </c>
       <c r="L123">
         <f t="shared" si="6"/>
-        <v>17.923420448042101</v>
+        <v>18.366087528908153</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -18703,11 +18738,11 @@
       </c>
       <c r="K124">
         <f t="shared" si="4"/>
-        <v>7868.8776650420996</v>
+        <v>8305.7571349081518</v>
       </c>
       <c r="L124">
         <f t="shared" si="6"/>
-        <v>7.8688776650421</v>
+        <v>8.305757134908152</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -18743,11 +18778,11 @@
       </c>
       <c r="K125">
         <f t="shared" si="4"/>
-        <v>6787.5583332420993</v>
+        <v>7230.7310999081528</v>
       </c>
       <c r="L125">
         <f t="shared" si="6"/>
-        <v>6.7875583332420995</v>
+        <v>7.2307310999081533</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -18783,11 +18818,11 @@
       </c>
       <c r="K126">
         <f t="shared" si="4"/>
-        <v>6720.0904051420994</v>
+        <v>7146.5075909081525</v>
       </c>
       <c r="L126">
         <f t="shared" si="6"/>
-        <v>6.7200904051420993</v>
+        <v>7.1465075909081524</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -18823,20 +18858,27 @@
       </c>
       <c r="K127">
         <f t="shared" si="4"/>
-        <v>6925.1125022420993</v>
+        <v>7348.0921689081524</v>
       </c>
       <c r="L127">
         <f t="shared" si="6"/>
-        <v>6.925112502242099</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+        <v>7.3480921689081526</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>33</v>
       </c>
       <c r="E129">
         <f>'10_trees'!E129</f>
         <v>5093.7583607420993</v>
+      </c>
+      <c r="G129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129">
+        <f>'10_trees'!H129</f>
+        <v>1033.8876981660535</v>
       </c>
     </row>
   </sheetData>
@@ -18909,8 +18951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K127"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18988,12 +19030,12 @@
         <v>1832061.4620000001</v>
       </c>
       <c r="K2">
-        <f>SUM($E$129,H2,G2)</f>
-        <v>1821615.855546742</v>
+        <f>SUM($E$129,$H$129,G2)</f>
+        <v>1821421.4810589082</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L33" si="0">PRODUCT(K2,0.001)</f>
-        <v>1821.6158555467421</v>
+        <v>1821.4214810589083</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -19028,12 +19070,12 @@
         <v>204010.53450000001</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">SUM($E$129,H3,G3)</f>
-        <v>196798.73918274208</v>
+        <f t="shared" ref="K3:K66" si="1">SUM($E$129,$H$129,G3)</f>
+        <v>196701.85595890813</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>196.79873918274208</v>
+        <v>196.70185595890814</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -19069,11 +19111,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>26227.800381742098</v>
+        <v>26061.017598908154</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>26.227800381742099</v>
+        <v>26.061017598908155</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -19109,11 +19151,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>19772.904408742099</v>
+        <v>19700.52250890815</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>19.7729044087421</v>
+        <v>19.700522508908151</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -19149,11 +19191,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>19278.9788407421</v>
+        <v>19184.613078908151</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>19.278978840742102</v>
+        <v>19.18461307890815</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -19189,11 +19231,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>19327.105539742101</v>
+        <v>19241.902918908152</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>19.327105539742099</v>
+        <v>19.241902918908153</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -19203,10 +19245,6 @@
       <c r="B8">
         <v>2200000</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -19241,11 +19279,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>1178049.530541742</v>
+        <v>1177939.3590589082</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>1178.0495305417421</v>
+        <v>1177.9393590589082</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -19281,11 +19319,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>132147.92966174209</v>
+        <v>132005.46795890815</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>132.1479296617421</v>
+        <v>132.00546795890816</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -19321,11 +19359,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>20549.4966677421</v>
+        <v>20378.665298908152</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>20.549496667742101</v>
+        <v>20.378665298908153</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -19361,11 +19399,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>15458.408609742099</v>
+        <v>15279.881804908153</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>15.458408609742099</v>
+        <v>15.279881804908154</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -19401,11 +19439,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>14812.138811742099</v>
+        <v>14696.943133908153</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>14.8121388117421</v>
+        <v>14.696943133908153</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -19415,10 +19453,6 @@
       <c r="B14">
         <v>100000</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -19427,10 +19461,6 @@
       <c r="B15">
         <v>2200000</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -19465,11 +19495,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>437823.8034287421</v>
+        <v>437691.74535890814</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>437.82380342874211</v>
+        <v>437.69174535890818</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -19505,11 +19535,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>1254160.0850447421</v>
+        <v>1254093.0470589083</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>1254.1600850447421</v>
+        <v>1254.0930470589083</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -19545,11 +19575,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>95979.584714742101</v>
+        <v>95906.039808908157</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>95.979584714742103</v>
+        <v>95.906039808908162</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -19585,11 +19615,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>71531.563295742104</v>
+        <v>71384.104338908146</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>71.531563295742103</v>
+        <v>71.384104338908145</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -19625,11 +19655,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>57030.8506607421</v>
+        <v>56963.245238908152</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>57.030850660742104</v>
+        <v>56.963245238908151</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -19665,11 +19695,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>57277.994410742103</v>
+        <v>57212.897628908155</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>57.277994410742103</v>
+        <v>57.212897628908159</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -19705,11 +19735,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>57581.774488742099</v>
+        <v>57513.629048908151</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>57.581774488742099</v>
+        <v>57.51362904890815</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -19745,11 +19775,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>576836.85085974215</v>
+        <v>576729.97765890823</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>576.83685085974219</v>
+        <v>576.7299776589083</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -19785,11 +19815,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>66739.267367742097</v>
+        <v>66618.030878908146</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>66.739267367742102</v>
+        <v>66.618030878908144</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -19825,11 +19855,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>14989.148632742101</v>
+        <v>14887.534707908153</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>14.989148632742101</v>
+        <v>14.887534707908154</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -19865,11 +19895,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>10349.7188247421</v>
+        <v>10254.248469908152</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>10.3497188247421</v>
+        <v>10.254248469908152</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -19905,11 +19935,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>9868.4992947420997</v>
+        <v>9775.1995029081518</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>9.8684992947420991</v>
+        <v>9.7751995029081513</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -19945,11 +19975,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>9715.7643007420993</v>
+        <v>9604.644149908152</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>9.7157643007420997</v>
+        <v>9.6046441499081521</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -19959,10 +19989,6 @@
       <c r="B29">
         <v>2200000</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -19997,11 +20023,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>1044371.3352353422</v>
+        <v>1044811.4600589082</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>1044.3713352353423</v>
+        <v>1044.8114600589083</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -20037,11 +20063,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>130871.10762714209</v>
+        <v>131322.67105890813</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>130.87110762714209</v>
+        <v>131.32267105890813</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -20077,11 +20103,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>20005.6131046421</v>
+        <v>20445.166438908152</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>20.005613104642102</v>
+        <v>20.445166438908153</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -20117,11 +20143,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>8782.6972168420998</v>
+        <v>9223.4004439081527</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>8.7826972168421005</v>
+        <v>9.2234004439081527</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -20157,11 +20183,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>9117.0997783420989</v>
+        <v>9550.0226919081524</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34:L65" si="2">PRODUCT(K34,0.001)</f>
-        <v>9.1170997783420997</v>
+        <v>9.5500226919081523</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -20197,11 +20223,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>9226.0413327420993</v>
+        <v>9672.9474959081526</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>9.2260413327420991</v>
+        <v>9.6729474959081525</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -20237,11 +20263,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>9477.5519531420996</v>
+        <v>9917.966216908153</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>9.4775519531421004</v>
+        <v>9.9179662169081535</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -20277,11 +20303,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>1946450.9372397419</v>
+        <v>1946371.5360589081</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1946.450937239742</v>
+        <v>1946.3715360589081</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -20317,11 +20343,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>206698.71543874207</v>
+        <v>206616.02145890813</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>206.69871543874208</v>
+        <v>206.61602145890814</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -20357,11 +20383,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>26926.585208742101</v>
+        <v>26865.305508908154</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>26.9265852087421</v>
+        <v>26.865305508908154</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -20397,11 +20423,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>19513.469709742098</v>
+        <v>19437.398758908152</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>19.513469709742097</v>
+        <v>19.437398758908152</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -20437,11 +20463,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>19014.278901742098</v>
+        <v>18938.006248908154</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>19.014278901742099</v>
+        <v>18.938006248908152</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -20477,11 +20503,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>19049.374357742097</v>
+        <v>18992.456048908152</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>19.049374357742099</v>
+        <v>18.992456048908153</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -20491,10 +20517,6 @@
       <c r="B43">
         <v>2200000</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -20529,11 +20551,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>1259429.1218077422</v>
+        <v>1259344.0350589082</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>1259.4291218077421</v>
+        <v>1259.3440350589083</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -20569,11 +20591,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>139622.0109377421</v>
+        <v>139548.52825890813</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>139.62201093774212</v>
+        <v>139.54852825890814</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -20609,11 +20631,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>20467.435376742098</v>
+        <v>20381.297678908151</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>20.467435376742099</v>
+        <v>20.381297678908151</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -20649,11 +20671,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>15379.961506742098</v>
+        <v>15283.521502908152</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>15.379961506742099</v>
+        <v>15.283521502908153</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -20689,11 +20711,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>14832.573429742099</v>
+        <v>14718.031733908152</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>14.8325734297421</v>
+        <v>14.718031733908152</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -20703,10 +20725,6 @@
       <c r="B49">
         <v>100000</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="1"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -20715,10 +20733,6 @@
       <c r="B50">
         <v>2200000</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -20753,11 +20767,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>386813.57747274212</v>
+        <v>386745.67235890817</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>386.81357747274211</v>
+        <v>386.74567235890817</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -20793,11 +20807,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>1056878.6131547419</v>
+        <v>1056805.9110589081</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>1056.878613154742</v>
+        <v>1056.8059110589081</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -20833,11 +20847,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>70239.858165742102</v>
+        <v>70122.091858908156</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>70.239858165742106</v>
+        <v>70.122091858908163</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -20873,11 +20887,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>52155.147809742099</v>
+        <v>52051.318498908156</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>52.155147809742097</v>
+        <v>52.051318498908159</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -20913,11 +20927,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>46541.690608742101</v>
+        <v>46484.953258908157</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>46.541690608742101</v>
+        <v>46.484953258908156</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -20953,11 +20967,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>45455.772179742104</v>
+        <v>45331.427188908157</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>45.455772179742105</v>
+        <v>45.331427188908158</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -20993,11 +21007,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
-        <v>47325.886740742098</v>
+        <v>47260.028688908154</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>47.325886740742099</v>
+        <v>47.260028688908157</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -21033,11 +21047,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>587627.37896174216</v>
+        <v>587535.20235890825</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
-        <v>587.62737896174212</v>
+        <v>587.53520235890824</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -21073,11 +21087,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>66398.454204742098</v>
+        <v>66315.269558908156</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
-        <v>66.398454204742094</v>
+        <v>66.315269558908156</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -21113,11 +21127,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>14551.502005742099</v>
+        <v>14455.511897908153</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
-        <v>14.551502005742099</v>
+        <v>14.455511897908153</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -21153,11 +21167,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>9164.7203127420998</v>
+        <v>9085.0950179081519</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>9.1647203127420998</v>
+        <v>9.0850950179081522</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -21193,11 +21207,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
-        <v>8798.9669007420998</v>
+        <v>8723.7592639081522</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
-        <v>8.7989669007420996</v>
+        <v>8.7237592639081516</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -21233,11 +21247,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>8822.5879827420995</v>
+        <v>8670.1541839081528</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
-        <v>8.8225879827420997</v>
+        <v>8.6701541839081528</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -21247,10 +21261,6 @@
       <c r="B64">
         <v>2200000</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="1"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -21285,11 +21295,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>1138462.6439971421</v>
+        <v>1138909.6860589082</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
-        <v>1138.4626439971421</v>
+        <v>1138.9096860589082</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -21325,11 +21335,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="1"/>
-        <v>121786.0238910421</v>
+        <v>122236.74665890816</v>
       </c>
       <c r="L66">
         <f t="shared" ref="L66:L92" si="3">PRODUCT(K66,0.001)</f>
-        <v>121.78602389104211</v>
+        <v>122.23674665890816</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -21364,12 +21374,12 @@
         <v>15796.519759999999</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K127" si="4">SUM($E$129,H67,G67)</f>
-        <v>18221.4613098421</v>
+        <f t="shared" ref="K67:K127" si="4">SUM($E$129,$H$129,G67)</f>
+        <v>18672.266808908153</v>
       </c>
       <c r="L67">
         <f t="shared" si="3"/>
-        <v>18.221461309842098</v>
+        <v>18.672266808908152</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -21405,11 +21415,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>8068.7735246420998</v>
+        <v>8517.0558399081528</v>
       </c>
       <c r="L68">
         <f t="shared" si="3"/>
-        <v>8.0687735246421006</v>
+        <v>8.5170558399081528</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -21445,11 +21455,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>6987.4959153420996</v>
+        <v>7435.7026519081528</v>
       </c>
       <c r="L69">
         <f t="shared" si="3"/>
-        <v>6.9874959153420999</v>
+        <v>7.4357026519081533</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -21485,11 +21495,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>7002.3741885420986</v>
+        <v>7450.707286908153</v>
       </c>
       <c r="L70">
         <f t="shared" si="3"/>
-        <v>7.0023741885420989</v>
+        <v>7.4507072869081528</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -21525,11 +21535,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>7116.9865292421</v>
+        <v>7552.1052779081529</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
-        <v>7.1169865292420997</v>
+        <v>7.5521052779081534</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -21565,11 +21575,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
-        <v>84655501.039282709</v>
+        <v>84655444.080203906</v>
       </c>
       <c r="L72">
         <f t="shared" si="3"/>
-        <v>84655.50103928271</v>
+        <v>84655.444080203903</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -21605,11 +21615,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
-        <v>9484832.9970997591</v>
+        <v>9484762.0097101871</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>9484.8329970997584</v>
+        <v>9484.7620097101881</v>
       </c>
       <c r="M73" t="s">
         <v>31</v>
@@ -21651,11 +21661,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
-        <v>950667.00030982308</v>
+        <v>950623.15782915615</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>950.66700030982315</v>
+        <v>950.62315782915618</v>
       </c>
       <c r="M74">
         <v>736.38901042938164</v>
@@ -21697,11 +21707,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
-        <v>100774.74238097525</v>
+        <v>100703.33656679695</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
-        <v>100.77474238097525</v>
+        <v>100.70333656679695</v>
       </c>
       <c r="M75">
         <v>81.215068578720093</v>
@@ -21743,11 +21753,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
-        <v>16395.033375619409</v>
+        <v>16377.591222634952</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>16.395033375619409</v>
+        <v>16.377591222634951</v>
       </c>
       <c r="M76">
         <v>15.905364751815782</v>
@@ -21789,11 +21799,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="4"/>
-        <v>9491.9963043913995</v>
+        <v>9435.8669222504432</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>9.4919963043913995</v>
+        <v>9.4358669222504439</v>
       </c>
       <c r="M77">
         <v>10.028391599655141</v>
@@ -21835,11 +21845,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="4"/>
-        <v>9025.6381195769391</v>
+        <v>8978.9992273957032</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>9.0256381195769393</v>
+        <v>8.978999227395704</v>
       </c>
       <c r="M78">
         <v>9.7003445625304998</v>
@@ -21855,10 +21865,6 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="4"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -21867,10 +21873,6 @@
       <c r="B80">
         <v>10</v>
       </c>
-      <c r="K80">
-        <f t="shared" si="4"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -21905,11 +21907,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="4"/>
-        <v>736321.80096328049</v>
+        <v>736275.01711260318</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>736.32180096328045</v>
+        <v>736.27501711260322</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -21945,11 +21947,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="4"/>
-        <v>81151.288763879304</v>
+        <v>81092.607349267651</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>81.151288763879307</v>
+        <v>81.092607349267652</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -21985,11 +21987,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="4"/>
-        <v>15821.09548270559</v>
+        <v>15767.572015634223</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>15.821095482705591</v>
+        <v>15.767572015634224</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -22025,11 +22027,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="4"/>
-        <v>9928.5223644957587</v>
+        <v>9862.3629511505824</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>9.928522364495759</v>
+        <v>9.8623629511505833</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -22065,11 +22067,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="4"/>
-        <v>9578.4635704741395</v>
+        <v>9530.3831995636629</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>9.5784635704741401</v>
+        <v>9.5303831995636639</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -22079,10 +22081,6 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="K86">
-        <f t="shared" si="4"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -22091,10 +22089,6 @@
       <c r="B87">
         <v>10</v>
       </c>
-      <c r="K87">
-        <f t="shared" si="4"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -22129,11 +22123,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="4"/>
-        <v>736582.04032599775</v>
+        <v>736518.67541681824</v>
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
-        <v>736.58204032599781</v>
+        <v>736.51867541681827</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -22169,11 +22163,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="4"/>
-        <v>80028.362051843171</v>
+        <v>79892.502158990552</v>
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
-        <v>80.028362051843175</v>
+        <v>79.892502158990553</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -22209,11 +22203,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="4"/>
-        <v>15648.721234200959</v>
+        <v>15592.120736947703</v>
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
-        <v>15.648721234200959</v>
+        <v>15.592120736947704</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -22249,11 +22243,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="4"/>
-        <v>10064.321295617579</v>
+        <v>9876.3707579285328</v>
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
-        <v>10.06432129561758</v>
+        <v>9.8763707579285338</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -22289,11 +22283,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="4"/>
-        <v>9508.3713692412293</v>
+        <v>9447.5110472351735</v>
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
-        <v>9.5083713692412299</v>
+        <v>9.4475110472351744</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -22329,11 +22323,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="4"/>
-        <v>2049935.9010607421</v>
+        <v>2049849.7850589082</v>
       </c>
       <c r="L93">
         <f t="shared" ref="L93:L127" si="5">PRODUCT(K93,0.001)</f>
-        <v>2049.9359010607423</v>
+        <v>2049.8497850589083</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -22369,11 +22363,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="4"/>
-        <v>211823.64273974212</v>
+        <v>211727.67265890815</v>
       </c>
       <c r="L94">
         <f t="shared" si="5"/>
-        <v>211.82364273974213</v>
+        <v>211.72767265890815</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -22409,11 +22403,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="4"/>
-        <v>27865.695256742099</v>
+        <v>27761.336418908155</v>
       </c>
       <c r="L95">
         <f t="shared" si="5"/>
-        <v>27.8656952567421</v>
+        <v>27.761336418908154</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -22449,11 +22443,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="4"/>
-        <v>19537.6756347421</v>
+        <v>19429.553358908153</v>
       </c>
       <c r="L96">
         <f t="shared" si="5"/>
-        <v>19.537675634742101</v>
+        <v>19.429553358908155</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -22489,11 +22483,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="4"/>
-        <v>19025.662435742099</v>
+        <v>18929.40386890815</v>
       </c>
       <c r="L97">
         <f t="shared" si="5"/>
-        <v>19.025662435742099</v>
+        <v>18.92940386890815</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -22529,11 +22523,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="4"/>
-        <v>19075.271617742099</v>
+        <v>18986.78215890815</v>
       </c>
       <c r="L98">
         <f t="shared" si="5"/>
-        <v>19.0752716177421</v>
+        <v>18.986782158908152</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -22543,10 +22537,6 @@
       <c r="B99">
         <v>2200000</v>
       </c>
-      <c r="K99">
-        <f t="shared" si="4"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -22581,11 +22571,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="4"/>
-        <v>1290311.218315742</v>
+        <v>1290243.2080589081</v>
       </c>
       <c r="L100">
         <f t="shared" si="5"/>
-        <v>1290.3112183157421</v>
+        <v>1290.2432080589081</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -22621,11 +22611,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="4"/>
-        <v>141952.3253747421</v>
+        <v>141786.57875890814</v>
       </c>
       <c r="L101">
         <f t="shared" si="5"/>
-        <v>141.95232537474209</v>
+        <v>141.78657875890815</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -22661,11 +22651,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="4"/>
-        <v>20932.204027742097</v>
+        <v>20769.920918908152</v>
       </c>
       <c r="L102">
         <f t="shared" si="5"/>
-        <v>20.932204027742095</v>
+        <v>20.769920918908152</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -22701,11 +22691,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="4"/>
-        <v>15519.285694742099</v>
+        <v>15282.721608908152</v>
       </c>
       <c r="L103">
         <f t="shared" si="5"/>
-        <v>15.519285694742099</v>
+        <v>15.282721608908153</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -22741,11 +22731,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="4"/>
-        <v>14822.770134742099</v>
+        <v>14725.384324908153</v>
       </c>
       <c r="L104">
         <f t="shared" si="5"/>
-        <v>14.822770134742099</v>
+        <v>14.725384324908154</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -22755,10 +22745,6 @@
       <c r="B105">
         <v>100000</v>
       </c>
-      <c r="K105">
-        <f t="shared" si="4"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
@@ -22767,10 +22753,6 @@
       <c r="B106">
         <v>2200000</v>
       </c>
-      <c r="K106">
-        <f t="shared" si="4"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -22805,11 +22787,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="4"/>
-        <v>408674.19868774211</v>
+        <v>408594.08105890814</v>
       </c>
       <c r="L107">
         <f t="shared" si="5"/>
-        <v>408.67419868774215</v>
+        <v>408.59408105890816</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -22845,11 +22827,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="4"/>
-        <v>1134518.552497742</v>
+        <v>1134425.7240589082</v>
       </c>
       <c r="L108">
         <f t="shared" si="5"/>
-        <v>1134.5185524977421</v>
+        <v>1134.4257240589081</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -22885,11 +22867,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="4"/>
-        <v>68022.938505742102</v>
+        <v>67948.985188908147</v>
       </c>
       <c r="L109">
         <f t="shared" si="5"/>
-        <v>68.022938505742104</v>
+        <v>67.948985188908154</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -22925,11 +22907,11 @@
       </c>
       <c r="K110">
         <f t="shared" si="4"/>
-        <v>50516.982336742098</v>
+        <v>50454.624268908155</v>
       </c>
       <c r="L110">
         <f t="shared" si="5"/>
-        <v>50.516982336742096</v>
+        <v>50.454624268908155</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -22965,11 +22947,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="4"/>
-        <v>45703.2416057421</v>
+        <v>45570.175978908155</v>
       </c>
       <c r="L111">
         <f t="shared" si="5"/>
-        <v>45.7032416057421</v>
+        <v>45.570175978908154</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -23005,11 +22987,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="4"/>
-        <v>45534.358274742095</v>
+        <v>45388.519848908152</v>
       </c>
       <c r="L112">
         <f t="shared" si="5"/>
-        <v>45.534358274742097</v>
+        <v>45.388519848908153</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -23045,11 +23027,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="4"/>
-        <v>45942.383785742095</v>
+        <v>45879.772278908153</v>
       </c>
       <c r="L113">
         <f t="shared" si="5"/>
-        <v>45.942383785742095</v>
+        <v>45.879772278908156</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -23085,11 +23067,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="4"/>
-        <v>590966.41924074211</v>
+        <v>590803.56225890818</v>
       </c>
       <c r="L114">
         <f t="shared" si="5"/>
-        <v>590.96641924074208</v>
+        <v>590.80356225890819</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -23125,11 +23107,11 @@
       </c>
       <c r="K115">
         <f t="shared" si="4"/>
-        <v>66061.414021742108</v>
+        <v>65988.711448908158</v>
       </c>
       <c r="L115">
         <f t="shared" si="5"/>
-        <v>66.06141402174211</v>
+        <v>65.988711448908163</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -23165,11 +23147,11 @@
       </c>
       <c r="K116">
         <f t="shared" si="4"/>
-        <v>14542.129293742099</v>
+        <v>14458.759158908153</v>
       </c>
       <c r="L116">
         <f t="shared" si="5"/>
-        <v>14.542129293742098</v>
+        <v>14.458759158908153</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -23205,11 +23187,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="4"/>
-        <v>9238.8188997421003</v>
+        <v>9158.6810049081523</v>
       </c>
       <c r="L117">
         <f t="shared" si="5"/>
-        <v>9.2388188997420997</v>
+        <v>9.1586810049081517</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -23245,11 +23227,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="4"/>
-        <v>8763.3750597420985</v>
+        <v>8682.4110449081527</v>
       </c>
       <c r="L118">
         <f t="shared" si="5"/>
-        <v>8.7633750597420992</v>
+        <v>8.6824110449081537</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -23285,11 +23267,11 @@
       </c>
       <c r="K119">
         <f t="shared" si="4"/>
-        <v>8779.5701187421</v>
+        <v>8707.5787489081522</v>
       </c>
       <c r="L119">
         <f t="shared" si="5"/>
-        <v>8.7795701187421002</v>
+        <v>8.7075787489081531</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -23299,10 +23281,6 @@
       <c r="B120">
         <v>2200000</v>
       </c>
-      <c r="K120">
-        <f t="shared" si="4"/>
-        <v>5093.7583607420993</v>
-      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -23337,11 +23315,11 @@
       </c>
       <c r="K121">
         <f t="shared" si="4"/>
-        <v>1058558.4741171421</v>
+        <v>1059000.5470589083</v>
       </c>
       <c r="L121">
         <f t="shared" si="5"/>
-        <v>1058.5584741171422</v>
+        <v>1059.0005470589083</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -23377,11 +23355,11 @@
       </c>
       <c r="K122">
         <f t="shared" si="4"/>
-        <v>128717.69997844209</v>
+        <v>129159.64345890815</v>
       </c>
       <c r="L122">
         <f t="shared" si="5"/>
-        <v>128.71769997844208</v>
+        <v>129.15964345890816</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -23417,11 +23395,11 @@
       </c>
       <c r="K123">
         <f t="shared" si="4"/>
-        <v>19839.070572742101</v>
+        <v>20280.312148908153</v>
       </c>
       <c r="L123">
         <f t="shared" si="5"/>
-        <v>19.839070572742102</v>
+        <v>20.280312148908152</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -23457,11 +23435,11 @@
       </c>
       <c r="K124">
         <f t="shared" si="4"/>
-        <v>8579.9675151420997</v>
+        <v>9019.9073259081524</v>
       </c>
       <c r="L124">
         <f t="shared" si="5"/>
-        <v>8.5799675151420995</v>
+        <v>9.0199073259081519</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -23497,11 +23475,11 @@
       </c>
       <c r="K125">
         <f t="shared" si="4"/>
-        <v>8184.5886871420989</v>
+        <v>8625.1271669081525</v>
       </c>
       <c r="L125">
         <f t="shared" si="5"/>
-        <v>8.1845886871420994</v>
+        <v>8.6251271669081522</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -23537,11 +23515,11 @@
       </c>
       <c r="K126">
         <f t="shared" si="4"/>
-        <v>8279.3970271420985</v>
+        <v>8709.2870179081528</v>
       </c>
       <c r="L126">
         <f t="shared" si="5"/>
-        <v>8.2793970271420996</v>
+        <v>8.709287017908153</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -23577,20 +23555,27 @@
       </c>
       <c r="K127">
         <f t="shared" si="4"/>
-        <v>8642.2751114420989</v>
+        <v>9076.1338179081522</v>
       </c>
       <c r="L127">
         <f t="shared" si="5"/>
-        <v>8.6422751114420997</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+        <v>9.0761338179081523</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>33</v>
       </c>
       <c r="E129">
         <f>'10_trees'!E129</f>
         <v>5093.7583607420993</v>
+      </c>
+      <c r="G129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129">
+        <f>'10_trees'!H129</f>
+        <v>1033.8876981660535</v>
       </c>
     </row>
   </sheetData>
@@ -23651,7 +23636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -23700,19 +23685,19 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L8)</f>
-        <v>6.4706611798421001</v>
+        <v>6.3955107630081534</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L9:'10_trees'!L15)</f>
-        <v>6.9676096604420996</v>
+        <v>6.8904519976081531</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L23:'10_trees'!L29)</f>
-        <v>6.5258760612420996</v>
+        <v>6.4342294634081529</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L30:'10_trees'!L36)</f>
-        <v>6.3736188572420991</v>
+        <v>6.8262923659081522</v>
       </c>
       <c r="H3">
         <v>8.3000000000000007</v>
@@ -23743,19 +23728,19 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L8)</f>
-        <v>10.3769114177421</v>
+        <v>10.298581450908154</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L9:'500_trees'!L15)</f>
-        <v>9.4495008157421001</v>
+        <v>9.3555293979081533</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L23:'500_trees'!L29)</f>
-        <v>7.1864037678420996</v>
+        <v>7.0863519610081536</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L30:'500_trees'!L36)</f>
-        <v>6.717247502542099</v>
+        <v>7.1539746229081524</v>
       </c>
       <c r="H4">
         <v>20.3</v>
@@ -23786,19 +23771,19 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L8)</f>
-        <v>19.278978840742102</v>
+        <v>19.18461307890815</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L9:'1600_trees'!L15)</f>
-        <v>14.8121388117421</v>
+        <v>14.696943133908153</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L23:'1600_trees'!L29)</f>
-        <v>9.7157643007420997</v>
+        <v>9.6046441499081521</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L30:'1600_trees'!L36)</f>
-        <v>8.7826972168421005</v>
+        <v>9.2234004439081527</v>
       </c>
       <c r="H5">
         <v>45.2</v>
@@ -23872,24 +23857,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L37:'10_trees'!L43)</f>
-        <v>6.4969744838420995</v>
+        <v>6.3956554831081522</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L44:'10_trees'!L50)</f>
-        <v>7.3002071537421003</v>
+        <v>7.2207144199081528</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L58:'10_trees'!L64)</f>
-        <v>6.501368300542099</v>
+        <v>6.4284790457081531</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L65:'10_trees'!L71)</f>
-        <v>6.1669888657420993</v>
+        <v>6.606784194808152</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L86:'10_trees'!L92)</f>
-        <v>8.4150195282683384</v>
+        <v>8.3649340571076145</v>
       </c>
       <c r="H9">
         <v>8.1</v>
@@ -23925,24 +23910,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L37:'500_trees'!L43)</f>
-        <v>10.312433497742099</v>
+        <v>10.232473224908153</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L44:'500_trees'!L50)</f>
-        <v>9.7029493007420999</v>
+        <v>9.5767260489081529</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L58:'500_trees'!L64)</f>
-        <v>7.0823853177420997</v>
+        <v>6.9898951949081534</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L65:'500_trees'!L71)</f>
-        <v>6.4101634186420995</v>
+        <v>6.8575681151081529</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L86:'500_trees'!L92)</f>
-        <v>8.8936953705534894</v>
+        <v>8.8314033449799236</v>
       </c>
       <c r="H10">
         <v>19.100000000000001</v>
@@ -23978,24 +23963,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L37:'1600_trees'!L43)</f>
-        <v>19.014278901742099</v>
+        <v>18.938006248908152</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L44:'1600_trees'!L50)</f>
-        <v>14.8325734297421</v>
+        <v>14.718031733908152</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L58:'1600_trees'!L64)</f>
-        <v>8.7989669007420996</v>
+        <v>8.6701541839081528</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L65:'1600_trees'!L71)</f>
-        <v>6.9874959153420999</v>
+        <v>7.4357026519081533</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L86:'1600_trees'!L92)</f>
-        <v>9.5083713692412299</v>
+        <v>9.4475110472351744</v>
       </c>
       <c r="H11">
         <v>35.799999999999997</v>
@@ -24068,19 +24053,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L93:'10_trees'!L99)</f>
-        <v>6.4573149837420996</v>
+        <v>6.3958507479081526</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L100:'10_trees'!L106)</f>
-        <v>7.2725515527420992</v>
+        <v>7.2043171829081531</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L114:'10_trees'!L120)</f>
-        <v>6.4903094932420995</v>
+        <v>6.4125576914081526</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L121:'10_trees'!L127)</f>
-        <v>6.3771052521420986</v>
+        <v>6.8122693003081523</v>
       </c>
       <c r="H15">
         <v>8.1</v>
@@ -24111,19 +24096,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L93:'500_trees'!L99)</f>
-        <v>10.313721672742099</v>
+        <v>10.233374446908154</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L100:'500_trees'!L106)</f>
-        <v>9.7633831667421003</v>
+        <v>9.5731092399081543</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L114:'500_trees'!L120)</f>
-        <v>7.1797931352420994</v>
+        <v>7.091015428408153</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L121:'500_trees'!L127)</f>
-        <v>6.7200904051420993</v>
+        <v>7.1465075909081524</v>
       </c>
       <c r="H16">
         <v>14.5</v>
@@ -24154,19 +24139,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L93:'1600_trees'!L99)</f>
-        <v>19.025662435742099</v>
+        <v>18.92940386890815</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L100:'1600_trees'!L106)</f>
-        <v>14.822770134742099</v>
+        <v>14.725384324908154</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L114:'1600_trees'!L120)</f>
-        <v>8.7633750597420992</v>
+        <v>8.6824110449081537</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L121:'1600_trees'!L127)</f>
-        <v>8.1845886871420994</v>
+        <v>8.6251271669081522</v>
       </c>
       <c r="H17">
         <v>29.5</v>
